--- a/pjcone_pwa/assets/data/translate.xlsx
+++ b/pjcone_pwa/assets/data/translate.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1676113148" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1676113148" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1676113148" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1676113148"/>
+      <pm:revision xmlns:pm="smNativeData" day="1676446546" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1676446546" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1676446546" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1676446546"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="515">
   <si>
     <t>#</t>
   </si>
@@ -299,6 +299,36 @@
   </si>
   <si>
     <t>해야할 일</t>
+  </si>
+  <si>
+    <t>OnThisDevice</t>
+  </si>
+  <si>
+    <t>이 기기에서</t>
+  </si>
+  <si>
+    <t>WrittenByMe</t>
+  </si>
+  <si>
+    <t>내가 작성</t>
+  </si>
+  <si>
+    <t>TodoComplete</t>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>TodoMoveTo</t>
+  </si>
+  <si>
+    <t>이관</t>
+  </si>
+  <si>
+    <t>TodoFocus</t>
+  </si>
+  <si>
+    <t>집중</t>
   </si>
   <si>
     <t>DisplayName</t>
@@ -1562,7 +1592,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1676113148" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1676446546" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1584,7 +1614,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676113148" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1676446546" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1606,7 +1636,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676113148"/>
+          <pm:border xmlns:pm="smNativeData" id="1676446546"/>
         </ext>
       </extLst>
     </border>
@@ -1625,7 +1655,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676113148"/>
+          <pm:border xmlns:pm="smNativeData" id="1676446546"/>
         </ext>
       </extLst>
     </border>
@@ -1642,7 +1672,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1676113148" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1676446546" count="1">
         <pm:charStyle name="보통" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -1906,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:B283"/>
+  <dimension ref="A1:B288"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -2478,122 +2508,122 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>134</v>
       </c>
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B85" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>159</v>
-      </c>
-      <c r="B88" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2650,152 +2680,152 @@
         <v>173</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B96" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B97" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>184</v>
       </c>
+      <c r="B101" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B104" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>189</v>
-      </c>
-      <c r="B106" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="B109" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B112" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>204</v>
-      </c>
-      <c r="B114" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2804,87 +2834,87 @@
         <v>206</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B116" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="B120" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B122" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B123" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B124" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>223</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>224</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2935,163 +2965,163 @@
         <v>236</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>237</v>
       </c>
+      <c r="B132" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="B133" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B134" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>241</v>
+        <v>243</v>
+      </c>
+      <c r="B135" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B136" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>244</v>
-      </c>
-      <c r="B137" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B139" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>250</v>
-      </c>
-      <c r="B140" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>252</v>
       </c>
+      <c r="B141" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B142" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B143" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B144" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B145" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>261</v>
-      </c>
-      <c r="B146" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="B147" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B148" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B149" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B150" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B151" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="B152" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3238,155 +3268,155 @@
         <v>307</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>308</v>
       </c>
+      <c r="B171" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B172" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B173" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B174" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B175" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>317</v>
-      </c>
-      <c r="B176" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>319</v>
       </c>
+      <c r="B177" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B178" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B179" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B180" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B181" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>328</v>
-      </c>
-      <c r="B182" t="s">
-        <v>119</v>
+        <v>329</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B183" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>92</v>
+        <v>332</v>
       </c>
       <c r="B184" t="s">
-        <v>93</v>
+        <v>333</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>94</v>
+        <v>334</v>
       </c>
       <c r="B185" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B186" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B187" t="s">
-        <v>335</v>
+        <v>129</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B188" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>338</v>
+        <v>102</v>
       </c>
       <c r="B189" t="s">
-        <v>339</v>
+        <v>103</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>340</v>
+        <v>104</v>
       </c>
       <c r="B190" t="s">
         <v>341</v>
@@ -3416,115 +3446,115 @@
         <v>347</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>348</v>
       </c>
+      <c r="B194" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B195" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B196" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B197" t="s">
-        <v>47</v>
+        <v>355</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B198" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B200" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B201" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>92</v>
+        <v>363</v>
       </c>
       <c r="B202" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="B203" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>361</v>
-      </c>
-      <c r="B204" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B205" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B206" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>367</v>
+        <v>102</v>
       </c>
       <c r="B207" t="s">
-        <v>368</v>
+        <v>103</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>369</v>
+        <v>104</v>
       </c>
       <c r="B208" t="s">
         <v>370</v>
@@ -3556,103 +3586,103 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="B212" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B213" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B214" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B215" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B216" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="B217" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>388</v>
       </c>
+      <c r="B218" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>10</v>
+        <v>390</v>
       </c>
       <c r="B219" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B220" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B221" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B222" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>395</v>
-      </c>
-      <c r="B223" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>397</v>
+        <v>10</v>
       </c>
       <c r="B224" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3668,105 +3698,105 @@
         <v>401</v>
       </c>
       <c r="B226" t="s">
-        <v>131</v>
+        <v>402</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B227" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B228" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B229" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B230" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>410</v>
+        <v>411</v>
+      </c>
+      <c r="B231" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B232" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>413</v>
+        <v>414</v>
+      </c>
+      <c r="B233" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>10</v>
+        <v>416</v>
       </c>
       <c r="B234" t="s">
-        <v>49</v>
+        <v>417</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B235" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>416</v>
-      </c>
-      <c r="B236" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B237" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>420</v>
-      </c>
-      <c r="B238" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>422</v>
+        <v>10</v>
       </c>
       <c r="B239" t="s">
-        <v>423</v>
+        <v>49</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3785,61 +3815,61 @@
         <v>427</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>428</v>
       </c>
+      <c r="B242" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B243" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>431</v>
+        <v>432</v>
+      </c>
+      <c r="B244" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B245" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B246" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>436</v>
-      </c>
-      <c r="B247" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B248" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>440</v>
-      </c>
-      <c r="B249" t="s">
         <v>441</v>
       </c>
     </row>
@@ -3859,111 +3889,111 @@
         <v>445</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>446</v>
       </c>
+      <c r="B252" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B253" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B254" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B255" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
+        <v>454</v>
+      </c>
+      <c r="B256" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>454</v>
-      </c>
-      <c r="B257" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>456</v>
+        <v>457</v>
+      </c>
+      <c r="B258" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B259" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B260" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B262" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>464</v>
-      </c>
-      <c r="B263" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B264" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B265" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>470</v>
-      </c>
-      <c r="B266" t="s">
         <v>471</v>
       </c>
     </row>
@@ -4044,47 +4074,47 @@
         <v>490</v>
       </c>
       <c r="B276" t="s">
-        <v>357</v>
+        <v>491</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B277" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B278" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B279" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B280" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B281" t="s">
-        <v>500</v>
+        <v>367</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4101,13 +4131,53 @@
       </c>
       <c r="B283" t="s">
         <v>504</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>505</v>
+      </c>
+      <c r="B284" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>507</v>
+      </c>
+      <c r="B285" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>509</v>
+      </c>
+      <c r="B286" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>511</v>
+      </c>
+      <c r="B287" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>513</v>
+      </c>
+      <c r="B288" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1676113148" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1676446546" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4116,14 +4186,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1676113148" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1676113148" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1676446546" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1676446546" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1676113148" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1676446546" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/pjcone_pwa/assets/data/translate.xlsx
+++ b/pjcone_pwa/assets/data/translate.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1676446546" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1676446546" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1676446546" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1676446546"/>
+      <pm:revision xmlns:pm="smNativeData" day="1676733313" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1676733313" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1676733313" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1676733313"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="520">
   <si>
     <t>#</t>
   </si>
@@ -1039,6 +1039,12 @@
     <t>가리기</t>
   </si>
   <si>
+    <t>ServerDetail</t>
+  </si>
+  <si>
+    <t>서버정보</t>
+  </si>
+  <si>
     <t>RemoveUnofficial</t>
   </si>
   <si>
@@ -1097,6 +1103,15 @@
   </si>
   <si>
     <t>이름을 지정해주세요.</t>
+  </si>
+  <si>
+    <t>## ServerDetail</t>
+  </si>
+  <si>
+    <t>ApplyChangeServerInfo</t>
+  </si>
+  <si>
+    <t>적용하기</t>
   </si>
   <si>
     <t>## CommunityServer</t>
@@ -1592,7 +1607,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1676446546" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1676733313" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1614,7 +1629,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676446546" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1676733313" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1636,7 +1651,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676446546"/>
+          <pm:border xmlns:pm="smNativeData" id="1676733313"/>
         </ext>
       </extLst>
     </border>
@@ -1655,7 +1670,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676446546"/>
+          <pm:border xmlns:pm="smNativeData" id="1676733313"/>
         </ext>
       </extLst>
     </border>
@@ -1672,7 +1687,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1676446546" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1676733313" count="1">
         <pm:charStyle name="보통" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -1936,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:B288"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -3395,36 +3410,36 @@
         <v>338</v>
       </c>
       <c r="B187" t="s">
-        <v>129</v>
+        <v>339</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B188" t="s">
-        <v>340</v>
+        <v>129</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>102</v>
+        <v>341</v>
       </c>
       <c r="B189" t="s">
-        <v>103</v>
+        <v>342</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B190" t="s">
-        <v>341</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>342</v>
+        <v>104</v>
       </c>
       <c r="B191" t="s">
         <v>343</v>
@@ -3486,16 +3501,16 @@
         <v>357</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
+      <c r="B199" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>359</v>
-      </c>
-      <c r="B200" t="s">
         <v>360</v>
       </c>
     </row>
@@ -3507,126 +3522,123 @@
         <v>362</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:1">
       <c r="A202" t="s">
         <v>363</v>
       </c>
-      <c r="B202" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B203" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>365</v>
+        <v>366</v>
+      </c>
+      <c r="B204" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B205" t="s">
-        <v>367</v>
+        <v>47</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B206" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>102</v>
-      </c>
-      <c r="B207" t="s">
-        <v>103</v>
+        <v>370</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>104</v>
+        <v>371</v>
       </c>
       <c r="B208" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B209" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>373</v>
+        <v>102</v>
       </c>
       <c r="B210" t="s">
-        <v>374</v>
+        <v>103</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
+        <v>104</v>
+      </c>
+      <c r="B211" t="s">
         <v>375</v>
-      </c>
-      <c r="B211" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
+        <v>376</v>
+      </c>
+      <c r="B212" t="s">
         <v>377</v>
-      </c>
-      <c r="B212" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
+        <v>378</v>
+      </c>
+      <c r="B213" t="s">
         <v>379</v>
-      </c>
-      <c r="B213" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
+        <v>380</v>
+      </c>
+      <c r="B214" t="s">
         <v>381</v>
-      </c>
-      <c r="B214" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
+        <v>382</v>
+      </c>
+      <c r="B215" t="s">
         <v>383</v>
-      </c>
-      <c r="B215" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
+        <v>384</v>
+      </c>
+      <c r="B216" t="s">
         <v>385</v>
-      </c>
-      <c r="B216" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="B217" t="s">
         <v>387</v>
@@ -3650,95 +3662,95 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
+        <v>356</v>
+      </c>
+      <c r="B220" t="s">
         <v>392</v>
-      </c>
-      <c r="B220" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
+        <v>393</v>
+      </c>
+      <c r="B221" t="s">
         <v>394</v>
-      </c>
-      <c r="B221" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
+        <v>395</v>
+      </c>
+      <c r="B222" t="s">
         <v>396</v>
       </c>
-      <c r="B222" t="s">
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+      <c r="B223" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>10</v>
+        <v>399</v>
       </c>
       <c r="B224" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B225" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>401</v>
-      </c>
-      <c r="B226" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>403</v>
+        <v>10</v>
       </c>
       <c r="B227" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
+        <v>404</v>
+      </c>
+      <c r="B228" t="s">
         <v>405</v>
-      </c>
-      <c r="B228" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
+        <v>406</v>
+      </c>
+      <c r="B229" t="s">
         <v>407</v>
-      </c>
-      <c r="B229" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
+        <v>408</v>
+      </c>
+      <c r="B230" t="s">
         <v>409</v>
-      </c>
-      <c r="B230" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
+        <v>410</v>
+      </c>
+      <c r="B231" t="s">
         <v>411</v>
-      </c>
-      <c r="B231" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3762,19 +3774,22 @@
         <v>416</v>
       </c>
       <c r="B234" t="s">
-        <v>417</v>
+        <v>141</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
+        <v>417</v>
+      </c>
+      <c r="B235" t="s">
         <v>418</v>
       </c>
-      <c r="B235" t="s">
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
+      <c r="B236" t="s">
         <v>420</v>
       </c>
     </row>
@@ -3786,77 +3801,77 @@
         <v>422</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="239" spans="1:2">
+      <c r="B238" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>10</v>
-      </c>
-      <c r="B239" t="s">
-        <v>49</v>
+        <v>425</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B240" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>426</v>
-      </c>
-      <c r="B241" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>428</v>
+        <v>10</v>
       </c>
       <c r="B242" t="s">
-        <v>429</v>
+        <v>49</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
+        <v>429</v>
+      </c>
+      <c r="B243" t="s">
         <v>430</v>
-      </c>
-      <c r="B243" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
+        <v>431</v>
+      </c>
+      <c r="B244" t="s">
         <v>432</v>
-      </c>
-      <c r="B244" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
+        <v>433</v>
+      </c>
+      <c r="B245" t="s">
         <v>434</v>
-      </c>
-      <c r="B245" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
+        <v>435</v>
+      </c>
+      <c r="B246" t="s">
         <v>436</v>
       </c>
-      <c r="B246" t="s">
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+      <c r="B247" t="s">
         <v>438</v>
       </c>
     </row>
@@ -3868,16 +3883,16 @@
         <v>440</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="250" spans="1:2">
+      <c r="B249" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>442</v>
-      </c>
-      <c r="B250" t="s">
         <v>443</v>
       </c>
     </row>
@@ -3889,48 +3904,48 @@
         <v>445</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:1">
       <c r="A252" t="s">
         <v>446</v>
       </c>
-      <c r="B252" t="s">
-        <v>447</v>
-      </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
+        <v>447</v>
+      </c>
+      <c r="B253" t="s">
         <v>448</v>
-      </c>
-      <c r="B253" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
+        <v>449</v>
+      </c>
+      <c r="B254" t="s">
         <v>450</v>
-      </c>
-      <c r="B254" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
+        <v>451</v>
+      </c>
+      <c r="B255" t="s">
         <v>452</v>
-      </c>
-      <c r="B255" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
+        <v>453</v>
+      </c>
+      <c r="B256" t="s">
         <v>454</v>
       </c>
-      <c r="B256" t="s">
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
+      <c r="B257" t="s">
         <v>456</v>
       </c>
     </row>
@@ -3950,16 +3965,16 @@
         <v>460</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:1">
       <c r="A260" t="s">
         <v>461</v>
       </c>
-      <c r="B260" t="s">
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
+      <c r="B261" t="s">
         <v>463</v>
       </c>
     </row>
@@ -3971,16 +3986,16 @@
         <v>465</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="264" spans="1:2">
+      <c r="B263" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>467</v>
-      </c>
-      <c r="B264" t="s">
         <v>468</v>
       </c>
     </row>
@@ -4013,108 +4028,105 @@
         <v>475</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:1">
       <c r="A269" t="s">
         <v>476</v>
       </c>
-      <c r="B269" t="s">
-        <v>477</v>
-      </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
+        <v>477</v>
+      </c>
+      <c r="B270" t="s">
         <v>478</v>
-      </c>
-      <c r="B270" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
+        <v>479</v>
+      </c>
+      <c r="B271" t="s">
         <v>480</v>
-      </c>
-      <c r="B271" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
+        <v>481</v>
+      </c>
+      <c r="B272" t="s">
         <v>482</v>
-      </c>
-      <c r="B272" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
+        <v>483</v>
+      </c>
+      <c r="B273" t="s">
         <v>484</v>
-      </c>
-      <c r="B273" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
+        <v>485</v>
+      </c>
+      <c r="B274" t="s">
         <v>486</v>
-      </c>
-      <c r="B274" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
+        <v>487</v>
+      </c>
+      <c r="B275" t="s">
         <v>488</v>
-      </c>
-      <c r="B275" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
+        <v>489</v>
+      </c>
+      <c r="B276" t="s">
         <v>490</v>
-      </c>
-      <c r="B276" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
+        <v>491</v>
+      </c>
+      <c r="B277" t="s">
         <v>492</v>
-      </c>
-      <c r="B277" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
+        <v>493</v>
+      </c>
+      <c r="B278" t="s">
         <v>494</v>
-      </c>
-      <c r="B278" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
+        <v>495</v>
+      </c>
+      <c r="B279" t="s">
         <v>496</v>
-      </c>
-      <c r="B279" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
+        <v>497</v>
+      </c>
+      <c r="B280" t="s">
         <v>498</v>
-      </c>
-      <c r="B280" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
+        <v>499</v>
+      </c>
+      <c r="B281" t="s">
         <v>500</v>
-      </c>
-      <c r="B281" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4138,46 +4150,70 @@
         <v>505</v>
       </c>
       <c r="B284" t="s">
-        <v>506</v>
+        <v>372</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
+        <v>506</v>
+      </c>
+      <c r="B285" t="s">
         <v>507</v>
-      </c>
-      <c r="B285" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
+        <v>508</v>
+      </c>
+      <c r="B286" t="s">
         <v>509</v>
-      </c>
-      <c r="B286" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
+        <v>510</v>
+      </c>
+      <c r="B287" t="s">
         <v>511</v>
-      </c>
-      <c r="B287" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
+        <v>512</v>
+      </c>
+      <c r="B288" t="s">
         <v>513</v>
       </c>
-      <c r="B288" t="s">
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
         <v>514</v>
+      </c>
+      <c r="B289" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>516</v>
+      </c>
+      <c r="B290" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>518</v>
+      </c>
+      <c r="B291" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1676446546" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1676733313" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4186,14 +4222,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1676446546" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1676446546" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1676733313" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1676733313" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1676446546" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1676733313" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/pjcone_pwa/assets/data/translate.xlsx
+++ b/pjcone_pwa/assets/data/translate.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1676733313" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1676733313" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1676733313" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1676733313"/>
+      <pm:revision xmlns:pm="smNativeData" day="1677068729" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1677068729" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1677068729" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1677068729"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="524">
   <si>
     <t>#</t>
   </si>
@@ -820,10 +820,22 @@
     <t>동시접속자</t>
   </si>
   <si>
+    <t>shareAddress</t>
+  </si>
+  <si>
+    <t>주소 공유</t>
+  </si>
+  <si>
     <t>start_chat</t>
   </si>
   <si>
     <t>대화 시작하기</t>
+  </si>
+  <si>
+    <t>selectNetwork</t>
+  </si>
+  <si>
+    <t>네트워크 선택</t>
   </si>
   <si>
     <t>new_chat</t>
@@ -1607,7 +1619,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1676733313" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1677068729" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1629,7 +1641,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1676733313" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1677068729" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1651,7 +1663,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676733313"/>
+          <pm:border xmlns:pm="smNativeData" id="1677068729"/>
         </ext>
       </extLst>
     </border>
@@ -1670,7 +1682,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1676733313"/>
+          <pm:border xmlns:pm="smNativeData" id="1677068729"/>
         </ext>
       </extLst>
     </border>
@@ -1687,7 +1699,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1676733313" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1677068729" count="1">
         <pm:charStyle name="보통" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -1951,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B293"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -3128,31 +3140,31 @@
         <v>271</v>
       </c>
       <c r="B151" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="B152" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B153" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="B154" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3323,24 +3335,24 @@
         <v>317</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>318</v>
       </c>
+      <c r="B176" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B177" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>321</v>
-      </c>
-      <c r="B178" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3368,24 +3380,24 @@
         <v>328</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>329</v>
       </c>
+      <c r="B182" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B183" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>332</v>
-      </c>
-      <c r="B184" t="s">
         <v>333</v>
       </c>
     </row>
@@ -3418,44 +3430,44 @@
         <v>340</v>
       </c>
       <c r="B188" t="s">
-        <v>129</v>
+        <v>341</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B189" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>102</v>
+        <v>344</v>
       </c>
       <c r="B190" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>104</v>
+        <v>345</v>
       </c>
       <c r="B191" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>344</v>
+        <v>102</v>
       </c>
       <c r="B192" t="s">
-        <v>345</v>
+        <v>103</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>346</v>
+        <v>104</v>
       </c>
       <c r="B193" t="s">
         <v>347</v>
@@ -3509,37 +3521,37 @@
         <v>359</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>360</v>
       </c>
+      <c r="B200" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B201" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B203" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>366</v>
-      </c>
-      <c r="B204" t="s">
         <v>367</v>
       </c>
     </row>
@@ -3548,65 +3560,65 @@
         <v>368</v>
       </c>
       <c r="B205" t="s">
-        <v>47</v>
+        <v>369</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B206" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>370</v>
+        <v>372</v>
+      </c>
+      <c r="B207" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B208" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>373</v>
-      </c>
-      <c r="B209" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>102</v>
+        <v>375</v>
       </c>
       <c r="B210" t="s">
-        <v>103</v>
+        <v>376</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>104</v>
+        <v>377</v>
       </c>
       <c r="B211" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>376</v>
+        <v>102</v>
       </c>
       <c r="B212" t="s">
-        <v>377</v>
+        <v>103</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>378</v>
+        <v>104</v>
       </c>
       <c r="B213" t="s">
         <v>379</v>
@@ -3662,23 +3674,23 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="B220" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B221" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="B222" t="s">
         <v>396</v>
@@ -3708,33 +3720,33 @@
         <v>402</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>403</v>
       </c>
+      <c r="B226" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>10</v>
+        <v>405</v>
       </c>
       <c r="B227" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>404</v>
-      </c>
-      <c r="B228" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>406</v>
+        <v>10</v>
       </c>
       <c r="B229" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3774,23 +3786,23 @@
         <v>416</v>
       </c>
       <c r="B234" t="s">
-        <v>141</v>
+        <v>417</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B235" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B236" t="s">
-        <v>420</v>
+        <v>141</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3809,46 +3821,46 @@
         <v>424</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>425</v>
       </c>
+      <c r="B239" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B240" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>10</v>
+        <v>430</v>
       </c>
       <c r="B242" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>429</v>
-      </c>
-      <c r="B243" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>431</v>
+        <v>10</v>
       </c>
       <c r="B244" t="s">
-        <v>432</v>
+        <v>49</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3891,37 +3903,37 @@
         <v>442</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>443</v>
       </c>
+      <c r="B250" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B251" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B253" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>449</v>
-      </c>
-      <c r="B254" t="s">
         <v>450</v>
       </c>
     </row>
@@ -3965,24 +3977,24 @@
         <v>460</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>461</v>
       </c>
+      <c r="B260" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B261" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>464</v>
-      </c>
-      <c r="B262" t="s">
         <v>465</v>
       </c>
     </row>
@@ -3994,58 +4006,58 @@
         <v>467</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>468</v>
       </c>
+      <c r="B264" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B265" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B267" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>474</v>
-      </c>
-      <c r="B268" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
         <v>476</v>
       </c>
+      <c r="B269" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B270" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>479</v>
-      </c>
-      <c r="B271" t="s">
         <v>480</v>
       </c>
     </row>
@@ -4150,23 +4162,23 @@
         <v>505</v>
       </c>
       <c r="B284" t="s">
-        <v>372</v>
+        <v>506</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B285" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B286" t="s">
-        <v>509</v>
+        <v>376</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4207,13 +4219,29 @@
       </c>
       <c r="B291" t="s">
         <v>519</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>520</v>
+      </c>
+      <c r="B292" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>522</v>
+      </c>
+      <c r="B293" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1676733313" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1677068729" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4222,14 +4250,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1676733313" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1676733313" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1677068729" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1677068729" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1676733313" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1677068729" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/pjcone_pwa/assets/data/translate.xlsx
+++ b/pjcone_pwa/assets/data/translate.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1677068729" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1677068729" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1677068729" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1677068729"/>
+      <pm:revision xmlns:pm="smNativeData" day="1677163968" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1677163968" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1677163968" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1677163968"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="751">
   <si>
     <t>#</t>
   </si>
@@ -31,6 +31,9 @@
     <t>ko</t>
   </si>
   <si>
+    <t>en</t>
+  </si>
+  <si>
     <t>## Portal</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>할 일 목록</t>
   </si>
   <si>
+    <t>Todo</t>
+  </si>
+  <si>
     <t>## Subscribes</t>
   </si>
   <si>
@@ -70,18 +76,27 @@
     <t>검토해야할 연결이 있습니다.</t>
   </si>
   <si>
+    <t>There are connections to review.</t>
+  </si>
+  <si>
     <t>almighty_link</t>
   </si>
   <si>
     <t>만능 연결 버튼</t>
   </si>
   <si>
+    <t>Almighty link button</t>
+  </si>
+  <si>
     <t>almighty_button</t>
   </si>
   <si>
     <t>연결 !</t>
   </si>
   <si>
+    <t>Link !</t>
+  </si>
+  <si>
     <t>Chat</t>
   </si>
   <si>
@@ -94,30 +109,45 @@
     <t>참여중인 대화가 없습니다.</t>
   </si>
   <si>
+    <t>There are no active conversations.</t>
+  </si>
+  <si>
     <t>noTitiedChat</t>
   </si>
   <si>
     <t>제목 없는 채팅방</t>
   </si>
   <si>
+    <t>Untitled chat room</t>
+  </si>
+  <si>
     <t>noMessageHistory</t>
   </si>
   <si>
     <t>기록된 메시지 없음</t>
   </si>
   <si>
+    <t>No messages logged</t>
+  </si>
+  <si>
     <t>needLinkWithCommServ</t>
   </si>
   <si>
     <t>커뮤니티 서버와 연결되어있어야 합니다.</t>
   </si>
   <si>
+    <t>You must be connected to the community server.</t>
+  </si>
+  <si>
     <t>CameraPermissionDenied</t>
   </si>
   <si>
     <t>카메라 권한을 얻지 못했습니다</t>
   </si>
   <si>
+    <t>Failed to get camera permission</t>
+  </si>
+  <si>
     <t>## Settings</t>
   </si>
   <si>
@@ -127,66 +157,99 @@
     <t>커뮤니티 광고</t>
   </si>
   <si>
+    <t>Community Ads</t>
+  </si>
+  <si>
     <t>AdsContact</t>
   </si>
   <si>
     <t>광고 문의</t>
   </si>
   <si>
+    <t>Ads Contact</t>
+  </si>
+  <si>
     <t>UserInfo</t>
   </si>
   <si>
     <t>사용자 정보</t>
   </si>
   <si>
+    <t>User info</t>
+  </si>
+  <si>
     <t>myInfo</t>
   </si>
   <si>
     <t>내 정보</t>
   </si>
   <si>
+    <t>My info</t>
+  </si>
+  <si>
     <t>takeOverUser</t>
   </si>
   <si>
     <t>사용자 인계</t>
   </si>
   <si>
+    <t>User override</t>
+  </si>
+  <si>
     <t>ManageServer</t>
   </si>
   <si>
     <t>서버 관리</t>
   </si>
   <si>
+    <t>Manage server</t>
+  </si>
+  <si>
     <t>groupServer</t>
   </si>
   <si>
     <t>그룹 서버</t>
   </si>
   <si>
+    <t>Group server</t>
+  </si>
+  <si>
     <t>commServer</t>
   </si>
   <si>
     <t>커뮤니티 서버</t>
   </si>
   <si>
+    <t>Community server</t>
+  </si>
+  <si>
     <t>useDeviceAsServer</t>
   </si>
   <si>
     <t>이 기기를 기능 서버로</t>
   </si>
   <si>
+    <t>Use this device as a functional server</t>
+  </si>
+  <si>
     <t>ManageGroup</t>
   </si>
   <si>
     <t>그룹 관리</t>
   </si>
   <si>
+    <t>Manage group</t>
+  </si>
+  <si>
     <t>CreateGroup</t>
   </si>
   <si>
     <t>그룹 생성하기</t>
   </si>
   <si>
+    <t>Create a group</t>
+  </si>
+  <si>
     <t>Community</t>
   </si>
   <si>
@@ -199,150 +262,225 @@
     <t>랜덤채팅 참여</t>
   </si>
   <si>
+    <t>Join random chat</t>
+  </si>
+  <si>
     <t>joinDediChat</t>
   </si>
   <si>
     <t>사설 그룹채팅</t>
   </si>
   <si>
+    <t>Join group chat</t>
+  </si>
+  <si>
     <t>joinDedi_placeholder</t>
   </si>
   <si>
     <t>기본</t>
   </si>
   <si>
+    <t>Default</t>
+  </si>
+  <si>
     <t>joinDedi_button</t>
   </si>
   <si>
     <t>참여</t>
   </si>
   <si>
+    <t>Join</t>
+  </si>
+  <si>
     <t>admin_community_menu</t>
   </si>
   <si>
     <t>커뮤니티 관리자 메뉴</t>
   </si>
   <si>
+    <t>Community manager menu</t>
+  </si>
+  <si>
     <t>admin_noti_all</t>
   </si>
   <si>
     <t>전체 사용자 공지</t>
   </si>
   <si>
+    <t>All user notice</t>
+  </si>
+  <si>
     <t>notifications</t>
   </si>
   <si>
     <t>알림</t>
   </si>
   <si>
+    <t>Notifications</t>
+  </si>
+  <si>
     <t>batteryOptimization</t>
   </si>
   <si>
     <t>배터리 최적화 제외 설정</t>
   </si>
   <si>
+    <t>Battery Optimization Exclusion Settings</t>
+  </si>
+  <si>
     <t>ToolManage</t>
   </si>
   <si>
     <t>도구 관리</t>
   </si>
   <si>
+    <t>Manage tools</t>
+  </si>
+  <si>
     <t>ToolList</t>
   </si>
   <si>
     <t>도구 리스트</t>
   </si>
   <si>
+    <t>Tool list</t>
+  </si>
+  <si>
     <t>AppInfo</t>
   </si>
   <si>
     <t>앱 정보</t>
   </si>
   <si>
+    <t>App info</t>
+  </si>
+  <si>
     <t>AppCreator</t>
   </si>
   <si>
     <t>제작자</t>
   </si>
   <si>
+    <t>Creator</t>
+  </si>
+  <si>
     <t>AppTranslator</t>
   </si>
   <si>
     <t>번역가</t>
   </si>
   <si>
+    <t>Translator</t>
+  </si>
+  <si>
     <t>AppLanguage</t>
   </si>
   <si>
     <t>언어 설정</t>
   </si>
   <si>
+    <t>Languages</t>
+  </si>
+  <si>
     <t>userPrivacyTerms</t>
   </si>
   <si>
     <t>개인정보처리방침</t>
   </si>
   <si>
+    <t>Privacy policy</t>
+  </si>
+  <si>
     <t>LicenseNotice</t>
   </si>
   <si>
     <t>라이선스 고지</t>
   </si>
   <si>
+    <t>License Notice</t>
+  </si>
+  <si>
     <t>UserGuideLink</t>
   </si>
   <si>
     <t>사용자 가이드</t>
   </si>
   <si>
+    <t>User guide</t>
+  </si>
+  <si>
     <t>## TodoDetail</t>
   </si>
   <si>
     <t>해야할 일</t>
   </si>
   <si>
+    <t>Todo detail</t>
+  </si>
+  <si>
     <t>OnThisDevice</t>
   </si>
   <si>
     <t>이 기기에서</t>
   </si>
   <si>
+    <t>On this device</t>
+  </si>
+  <si>
     <t>WrittenByMe</t>
   </si>
   <si>
     <t>내가 작성</t>
   </si>
   <si>
+    <t>Written by me</t>
+  </si>
+  <si>
     <t>TodoComplete</t>
   </si>
   <si>
     <t>완료</t>
   </si>
   <si>
+    <t>Complete</t>
+  </si>
+  <si>
     <t>TodoMoveTo</t>
   </si>
   <si>
     <t>이관</t>
   </si>
   <si>
+    <t>Move</t>
+  </si>
+  <si>
     <t>TodoFocus</t>
   </si>
   <si>
     <t>집중</t>
   </si>
   <si>
+    <t>Focus</t>
+  </si>
+  <si>
     <t>DisplayName</t>
   </si>
   <si>
     <t>표시명</t>
   </si>
   <si>
+    <t>Display name</t>
+  </si>
+  <si>
     <t>DisplayName_placeholder</t>
   </si>
   <si>
     <t>짧게</t>
   </si>
   <si>
+    <t>briefly</t>
+  </si>
+  <si>
     <t>Importance</t>
   </si>
   <si>
@@ -355,96 +493,144 @@
     <t>중요함</t>
   </si>
   <si>
+    <t>Important</t>
+  </si>
+  <si>
     <t>Importance_1</t>
   </si>
   <si>
     <t>기억해야 함</t>
   </si>
   <si>
+    <t>Must remember</t>
+  </si>
+  <si>
     <t>Importance_0</t>
   </si>
   <si>
     <t>메모</t>
   </si>
   <si>
+    <t>Memo</t>
+  </si>
+  <si>
     <t>limit</t>
   </si>
   <si>
     <t>기한</t>
   </si>
   <si>
+    <t>Deadline</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
     <t>상세 내용</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>description_placeholder</t>
   </si>
   <si>
     <t>해야할 일 상세 내용</t>
   </si>
   <si>
+    <t>Todo details</t>
+  </si>
+  <si>
     <t>delete_attach</t>
   </si>
   <si>
     <t>이미지 삭제</t>
   </si>
   <si>
+    <t>Remove image</t>
+  </si>
+  <si>
     <t>attachments</t>
   </si>
   <si>
     <t>첨부파일</t>
   </si>
   <si>
+    <t>Attachments</t>
+  </si>
+  <si>
     <t>attachments_none</t>
   </si>
   <si>
     <t>없음</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>logs</t>
   </si>
   <si>
     <t>기록</t>
   </si>
   <si>
+    <t>Logs</t>
+  </si>
+  <si>
     <t>remove</t>
   </si>
   <si>
     <t>삭제</t>
   </si>
   <si>
+    <t>Remove todo</t>
+  </si>
+  <si>
     <t>buttonDisplay_add</t>
   </si>
   <si>
     <t>추가</t>
   </si>
   <si>
+    <t>Add todo</t>
+  </si>
+  <si>
     <t>buttonDisplay_modify</t>
   </si>
   <si>
     <t>수정</t>
   </si>
   <si>
+    <t>Modify detail</t>
+  </si>
+  <si>
     <t>needDisplayName</t>
   </si>
   <si>
     <t>표시명을 작성하여야 합니다.</t>
   </si>
   <si>
+    <t>Display name must be written</t>
+  </si>
+  <si>
     <t>CreateTodo</t>
   </si>
   <si>
     <t>해야할 일 생성</t>
   </si>
   <si>
+    <t>Create todo</t>
+  </si>
+  <si>
     <t>ModifyTodo</t>
   </si>
   <si>
     <t>해야할 일 수정</t>
   </si>
   <si>
+    <t>Modify todo</t>
+  </si>
+  <si>
     <t>removeTodo</t>
   </si>
   <si>
@@ -457,6 +643,9 @@
     <t>이 작업은 되돌릴 수 없습니다.</t>
   </si>
   <si>
+    <t>This action cannot be undone.</t>
+  </si>
+  <si>
     <t>## ToolManager</t>
   </si>
   <si>
@@ -466,45 +655,69 @@
     <t>다시받기</t>
   </si>
   <si>
+    <t>Re-download</t>
+  </si>
+  <si>
     <t>removeTool</t>
   </si>
   <si>
+    <t>Remove</t>
+  </si>
+  <si>
     <t>redownloadSucc</t>
   </si>
   <si>
     <t>다시받기 성공</t>
   </si>
   <si>
+    <t>Re-download successful</t>
+  </si>
+  <si>
     <t>redownloadFailed</t>
   </si>
   <si>
     <t>다시받기 실패</t>
   </si>
   <si>
+    <t>Re-download failed</t>
+  </si>
+  <si>
     <t>## QRElse</t>
   </si>
   <si>
     <t>사용할 수 없는 구성</t>
   </si>
   <si>
+    <t>Configuration not available</t>
+  </si>
+  <si>
     <t>info</t>
   </si>
   <si>
     <t>QR코드 또는 바코드를 인식하였으나 이 앱에서 사용하는 구성이 아닙니다.</t>
   </si>
   <si>
+    <t>A QR code or barcode was recognized. but this is not the configuration used by this app.</t>
+  </si>
+  <si>
     <t>format</t>
   </si>
   <si>
     <t>종류</t>
   </si>
   <si>
+    <t>Format</t>
+  </si>
+  <si>
     <t>contents</t>
   </si>
   <si>
     <t>내용</t>
   </si>
   <si>
+    <t>Contents</t>
+  </si>
+  <si>
     <t>## Profile</t>
   </si>
   <si>
@@ -514,6 +727,9 @@
     <t>프로필 이미지</t>
   </si>
   <si>
+    <t>Profile_img</t>
+  </si>
+  <si>
     <t>noname_user</t>
   </si>
   <si>
@@ -526,30 +742,45 @@
     <t>사용자 이름</t>
   </si>
   <si>
+    <t>Unnamed user</t>
+  </si>
+  <si>
     <t>enterURI</t>
   </si>
   <si>
     <t>이미지 주소 입력하기</t>
   </si>
   <si>
+    <t>Enter image URL</t>
+  </si>
+  <si>
     <t>change_img</t>
   </si>
   <si>
     <t>이미지 변경</t>
   </si>
   <si>
+    <t>Change image</t>
+  </si>
+  <si>
     <t>login_info</t>
   </si>
   <si>
     <t>로그인 정보</t>
   </si>
   <si>
+    <t>Login info</t>
+  </si>
+  <si>
     <t>email_address</t>
   </si>
   <si>
     <t>이메일 주소</t>
   </si>
   <si>
+    <t>Email Address</t>
+  </si>
+  <si>
     <t>user_display_name</t>
   </si>
   <si>
@@ -562,84 +793,129 @@
     <t>로그인</t>
   </si>
   <si>
+    <t>Login</t>
+  </si>
+  <si>
     <t>main_content</t>
   </si>
   <si>
     <t>메인 콘텐츠</t>
   </si>
   <si>
+    <t>Main contents</t>
+  </si>
+  <si>
     <t>not_available_yet</t>
   </si>
   <si>
     <t>기능 준비중</t>
   </si>
   <si>
+    <t>Feature in preparation</t>
+  </si>
+  <si>
     <t>no_main_content</t>
   </si>
   <si>
+    <t>Null</t>
+  </si>
+  <si>
     <t>user_img_changed</t>
   </si>
   <si>
     <t>사용자 이미지 변경</t>
   </si>
   <si>
+    <t>User changes image</t>
+  </si>
+  <si>
     <t>need_email</t>
   </si>
   <si>
     <t>이메일 주소가 있어야 온라인으로 전환하실 수 있습니다.</t>
   </si>
   <si>
+    <t>You must have an email address to go online.</t>
+  </si>
+  <si>
     <t>pasteURI</t>
   </si>
   <si>
     <t>눌러서 외부이미지 주소 붙여넣기</t>
   </si>
   <si>
+    <t>Click to paste external image address</t>
+  </si>
+  <si>
     <t>copyURIFirst</t>
   </si>
   <si>
     <t>먼저 웹 페이지에서 이미지 주소를 복사해주세요</t>
   </si>
   <si>
+    <t>Copy the image address from the web page first</t>
+  </si>
+  <si>
     <t>user_profile_changed</t>
   </si>
   <si>
     <t>사용자 프로필 변경</t>
   </si>
   <si>
+    <t>Change user profile</t>
+  </si>
+  <si>
     <t>## OtherProfile</t>
   </si>
   <si>
     <t>add_to_group</t>
   </si>
   <si>
+    <t>Add to group</t>
+  </si>
+  <si>
     <t>add_friend</t>
   </si>
   <si>
     <t>친구</t>
   </si>
   <si>
+    <t>Add as friend</t>
+  </si>
+  <si>
     <t>privacy_chat</t>
   </si>
   <si>
+    <t>Private chat</t>
+  </si>
+  <si>
     <t>kick_from_group</t>
   </si>
   <si>
     <t>추방</t>
   </si>
   <si>
+    <t>Kick user</t>
+  </si>
+  <si>
     <t>added_to_group</t>
   </si>
   <si>
     <t>그룹원이 추가되었습니다</t>
   </si>
   <si>
+    <t>User added</t>
+  </si>
+  <si>
     <t>kicked_from_group</t>
   </si>
   <si>
     <t>사용자를 내보냈습니다</t>
   </si>
   <si>
+    <t>User kicked</t>
+  </si>
+  <si>
     <t>## ChatRoom</t>
   </si>
   <si>
@@ -649,30 +925,45 @@
     <t>이름 없는 채팅방</t>
   </si>
   <si>
+    <t>Unnamed chat room</t>
+  </si>
+  <si>
     <t>fetch_previous_chat</t>
   </si>
   <si>
     <t>이전 기록 불러오기</t>
   </si>
   <si>
+    <t>Recall previous record</t>
+  </si>
+  <si>
     <t>fetch_next_chat</t>
   </si>
   <si>
     <t>최근 기록 불러오기</t>
   </si>
   <si>
+    <t>Retrieve recent records</t>
+  </si>
+  <si>
     <t>chat_extension</t>
   </si>
   <si>
     <t>기능</t>
   </si>
   <si>
+    <t>Exts</t>
+  </si>
+  <si>
     <t>send_chat</t>
   </si>
   <si>
     <t>보내기</t>
   </si>
   <si>
+    <t>Send</t>
+  </si>
+  <si>
     <t>remove_chatroom</t>
   </si>
   <si>
@@ -682,12 +973,18 @@
     <t>나가기</t>
   </si>
   <si>
+    <t>Leave</t>
+  </si>
+  <si>
     <t>belonging_to_group</t>
   </si>
   <si>
     <t>이 채널은 그룹에 귀속되어 있습니다.</t>
   </si>
   <si>
+    <t>This channel belongs to a group.</t>
+  </si>
+  <si>
     <t>attach_file</t>
   </si>
   <si>
@@ -700,78 +997,121 @@
     <t>검토 불가</t>
   </si>
   <si>
+    <t>No review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachments
+</t>
+  </si>
+  <si>
     <t>input_placeholder</t>
   </si>
   <si>
     <t>메시지 입력...</t>
   </si>
   <si>
+    <t>Enter message...</t>
+  </si>
+  <si>
     <t>closed_group_must_online</t>
   </si>
   <si>
     <t>이 채널이 온라인 상태여야 합니다.</t>
   </si>
   <si>
+    <t>This channel must be online.</t>
+  </si>
+  <si>
     <t>closed_group_not_allow</t>
   </si>
   <si>
     <t>그룹에서 오프라인 기록 열람을 허용하지 않습니다.</t>
   </si>
   <si>
+    <t>The group does not allow viewing offline records.</t>
+  </si>
+  <si>
     <t>cannot_open_from_mobile</t>
   </si>
   <si>
     <t>모바일에서 열 수 없음</t>
   </si>
   <si>
+    <t>Can not open on mobile</t>
+  </si>
+  <si>
     <t>cannot_open_with_viewer</t>
   </si>
   <si>
     <t>이 파일은 뷰어로 볼 수 없습니다.</t>
   </si>
   <si>
+    <t>This file cannot be viewed with a viewer.</t>
+  </si>
+  <si>
     <t>download_anyway</t>
   </si>
   <si>
     <t>그래도 다운로드</t>
   </si>
   <si>
+    <t>Download anyway</t>
+  </si>
+  <si>
     <t>downloaded</t>
   </si>
   <si>
     <t>다운로드됨</t>
   </si>
   <si>
+    <t>Downloaded</t>
+  </si>
+  <si>
     <t>viewer_not_support</t>
   </si>
   <si>
     <t>뷰어가 지원하지 않는 파일</t>
   </si>
   <si>
+    <t>Files not supported by the viewer</t>
+  </si>
+  <si>
     <t>cannot_open_file</t>
   </si>
   <si>
     <t>파일을 열람할 수 없습니다.</t>
   </si>
   <si>
+    <t>The file cannot be viewed.</t>
+  </si>
+  <si>
     <t>export_download</t>
   </si>
   <si>
     <t>추출</t>
   </si>
   <si>
+    <t>Extraction</t>
+  </si>
+  <si>
     <t>YouReadHereLast</t>
   </si>
   <si>
     <t>여기까지 읽었습니다</t>
   </si>
   <si>
+    <t>You've read this far</t>
+  </si>
+  <si>
     <t>## ContentViewer</t>
   </si>
   <si>
     <t>콘텐츠 뷰어</t>
   </si>
   <si>
+    <t>Content Viewer</t>
+  </si>
+  <si>
     <t>Download</t>
   </si>
   <si>
@@ -787,30 +1127,45 @@
     <t>온라인 모드</t>
   </si>
   <si>
+    <t>Online mode</t>
+  </si>
+  <si>
     <t>OnlineMode_text</t>
   </si>
   <si>
     <t>커뮤니티 서버로부터 알림을 받을 수 있습니다.</t>
   </si>
   <si>
+    <t>You can receive notifications from the community server.</t>
+  </si>
+  <si>
     <t>Disconnected</t>
   </si>
   <si>
     <t>커뮤니티 서버로부터 연결이 끊어졌습니다.</t>
   </si>
   <si>
+    <t>You have been disconnected from the community server.</t>
+  </si>
+  <si>
     <t>OfflineMode</t>
   </si>
   <si>
     <t>오프라인 모드</t>
   </si>
   <si>
+    <t>Offline mode</t>
+  </si>
+  <si>
     <t>OfflineMode_text</t>
   </si>
   <si>
     <t>사설서버부터 알림을 받을 수 있습니다.</t>
   </si>
   <si>
+    <t>You can receive notifications from private servers.</t>
+  </si>
+  <si>
     <t>## MinimalChat</t>
   </si>
   <si>
@@ -820,36 +1175,54 @@
     <t>동시접속자</t>
   </si>
   <si>
+    <t>Concurrent users</t>
+  </si>
+  <si>
     <t>shareAddress</t>
   </si>
   <si>
     <t>주소 공유</t>
   </si>
   <si>
+    <t>Share address</t>
+  </si>
+  <si>
     <t>start_chat</t>
   </si>
   <si>
     <t>대화 시작하기</t>
   </si>
   <si>
+    <t>Start a conversation</t>
+  </si>
+  <si>
     <t>selectNetwork</t>
   </si>
   <si>
     <t>네트워크 선택</t>
   </si>
   <si>
+    <t>Select network</t>
+  </si>
+  <si>
     <t>new_chat</t>
   </si>
   <si>
     <t>새 대화</t>
   </si>
   <si>
+    <t>New</t>
+  </si>
+  <si>
     <t>exit_chat</t>
   </si>
   <si>
     <t>끝내기</t>
   </si>
   <si>
+    <t>Exit</t>
+  </si>
+  <si>
     <t>send</t>
   </si>
   <si>
@@ -859,138 +1232,207 @@
     <t>미니랜챗</t>
   </si>
   <si>
+    <t>Random chat</t>
+  </si>
+  <si>
     <t>header_title_group</t>
   </si>
   <si>
     <t>그룹채팅</t>
   </si>
   <si>
+    <t>Group chat</t>
+  </si>
+  <si>
     <t>WebTitle_ran</t>
   </si>
   <si>
     <t>Project: 랜덤채팅</t>
   </si>
   <si>
+    <t>Project: RandomChat</t>
+  </si>
+  <si>
     <t>WebTitle_group</t>
   </si>
   <si>
     <t>Project: 그룹채팅</t>
   </si>
   <si>
+    <t>Project: GroupChat</t>
+  </si>
+  <si>
     <t>Noti_Reply</t>
   </si>
   <si>
     <t>답장</t>
   </si>
   <si>
+    <t>Reply</t>
+  </si>
+  <si>
     <t>name_me</t>
   </si>
   <si>
     <t>나</t>
   </si>
   <si>
+    <t>Me</t>
+  </si>
+  <si>
     <t>name_stranger_ran</t>
   </si>
   <si>
     <t>상대방</t>
   </si>
   <si>
+    <t>Stranger</t>
+  </si>
+  <si>
     <t>name_stranger_group</t>
   </si>
   <si>
     <t>참여자</t>
   </si>
   <si>
+    <t>Participants</t>
+  </si>
+  <si>
     <t>joinChat_ran</t>
   </si>
   <si>
     <t>랜덤채팅에 참가합니다.</t>
   </si>
   <si>
+    <t>Join the random chat</t>
+  </si>
+  <si>
     <t>joinChat_group</t>
   </si>
   <si>
     <t>그룹채팅에 참가합니다.</t>
   </si>
   <si>
+    <t>Join the group chat</t>
+  </si>
+  <si>
     <t>user_join</t>
   </si>
   <si>
     <t>사용자 참여</t>
   </si>
   <si>
+    <t>User joined</t>
+  </si>
+  <si>
     <t>user_join_comment</t>
   </si>
   <si>
     <t>그룹에 참여했습니다.</t>
   </si>
   <si>
+    <t>joined the group</t>
+  </si>
+  <si>
     <t>user_out</t>
   </si>
   <si>
     <t>사용자 떠남</t>
   </si>
   <si>
+    <t>User out</t>
+  </si>
+  <si>
     <t>user_out_comment</t>
   </si>
   <si>
     <t>그룹을 떠났습니다.</t>
   </si>
   <si>
+    <t>leaved the group</t>
+  </si>
+  <si>
     <t>meet_someone</t>
   </si>
   <si>
     <t>누군가를 만났습니다.</t>
   </si>
   <si>
+    <t>You met someone</t>
+  </si>
+  <si>
     <t>leave_someone</t>
   </si>
   <si>
     <t>상대방이 나갔습니다.</t>
   </si>
   <si>
+    <t>Opponent has gone</t>
+  </si>
+  <si>
     <t>Noti_Greeting</t>
   </si>
   <si>
     <t>인사</t>
   </si>
   <si>
+    <t>Greeting</t>
+  </si>
+  <si>
     <t>failed_to_join</t>
   </si>
   <si>
     <t>채팅 참가에 실패했습니다.</t>
   </si>
   <si>
+    <t>Failed to join chat</t>
+  </si>
+  <si>
     <t>cannot_join</t>
   </si>
   <si>
     <t>채팅에 참가할 수 없습니다.</t>
   </si>
   <si>
+    <t>Failed to join</t>
+  </si>
+  <si>
     <t>waiting_someone</t>
   </si>
   <si>
     <t>새로운 상대를 기다립니다..</t>
   </si>
   <si>
+    <t>Waiting for a new opponent</t>
+  </si>
+  <si>
     <t>cannot_start</t>
   </si>
   <si>
     <t>시작할 수 없어요..</t>
   </si>
   <si>
+    <t>Can not start..</t>
+  </si>
+  <si>
     <t>leave_chat_ran</t>
   </si>
   <si>
     <t>랜덤채팅에서 벗어납니다.</t>
   </si>
   <si>
+    <t>You leave random chat</t>
+  </si>
+  <si>
     <t>leave_chat_group</t>
   </si>
   <si>
     <t>그룹채팅에서 나옵니다.</t>
   </si>
   <si>
+    <t>You leave group chat</t>
+  </si>
+  <si>
     <t>## LinkAccount</t>
   </si>
   <si>
@@ -1000,6 +1442,9 @@
     <t>만능 연결 버튼을 사용하여 기기id 인계</t>
   </si>
   <si>
+    <t>Receive device ID using the almighty button</t>
+  </si>
+  <si>
     <t>Recovery</t>
   </si>
   <si>
@@ -1012,18 +1457,27 @@
     <t>기기 id 되돌리기</t>
   </si>
   <si>
+    <t>Reset device id</t>
+  </si>
+  <si>
     <t>link_account_succ</t>
   </si>
   <si>
     <t>사용자 연결에 성공했습니다.</t>
   </si>
   <si>
+    <t>User connection was successful.</t>
+  </si>
+  <si>
     <t>failed_to_gen_qr</t>
   </si>
   <si>
     <t>QRCode 생성 실패</t>
   </si>
   <si>
+    <t>QRCode generation failed</t>
+  </si>
+  <si>
     <t>## GroupServer</t>
   </si>
   <si>
@@ -1033,54 +1487,84 @@
     <t>서버와 계정에 대해서</t>
   </si>
   <si>
+    <t>About servers and accounts</t>
+  </si>
+  <si>
     <t>JoinedServerList</t>
   </si>
   <si>
     <t>참여중인 서버 목록</t>
   </si>
   <si>
+    <t>List of participating servers</t>
+  </si>
+  <si>
     <t>DevTestServer</t>
   </si>
   <si>
     <t>개발 테스트 서버</t>
   </si>
   <si>
+    <t>Development test server</t>
+  </si>
+  <si>
     <t>HideOfficialDefault</t>
   </si>
   <si>
     <t>가리기</t>
   </si>
   <si>
+    <t>Hide</t>
+  </si>
+  <si>
     <t>ServerDetail</t>
   </si>
   <si>
     <t>서버정보</t>
   </si>
   <si>
+    <t>Server info</t>
+  </si>
+  <si>
     <t>RemoveUnofficial</t>
   </si>
   <si>
+    <t>Delete</t>
+  </si>
+  <si>
     <t>RegisterServer</t>
   </si>
   <si>
     <t>사설 서버 등록하기</t>
   </si>
   <si>
+    <t>Register private server</t>
+  </si>
+  <si>
     <t>사용자 사설 서버</t>
   </si>
   <si>
+    <t>User dedicated server</t>
+  </si>
+  <si>
     <t>DivisionName</t>
   </si>
   <si>
     <t>구분자</t>
   </si>
   <si>
+    <t>Separator</t>
+  </si>
+  <si>
     <t>DivisionName_placeholder</t>
   </si>
   <si>
     <t>표시명을 따라감</t>
   </si>
   <si>
+    <t>Follow display name</t>
+  </si>
+  <si>
     <t>Address</t>
   </si>
   <si>
@@ -1105,18 +1589,27 @@
     <t>SSL 적용여부</t>
   </si>
   <si>
+    <t>use SSL</t>
+  </si>
+  <si>
     <t>submit</t>
   </si>
   <si>
     <t>등록하기</t>
   </si>
   <si>
+    <t>Submit</t>
+  </si>
+  <si>
     <t>NeedSetDIsplayName</t>
   </si>
   <si>
     <t>이름을 지정해주세요.</t>
   </si>
   <si>
+    <t>Please specify a display name.</t>
+  </si>
+  <si>
     <t>## ServerDetail</t>
   </si>
   <si>
@@ -1126,6 +1619,9 @@
     <t>적용하기</t>
   </si>
   <si>
+    <t>Apply</t>
+  </si>
+  <si>
     <t>## CommunityServer</t>
   </si>
   <si>
@@ -1135,12 +1631,18 @@
     <t>커뮤니티 서버에 대해서</t>
   </si>
   <si>
+    <t>About community server</t>
+  </si>
+  <si>
     <t>ServerStatus</t>
   </si>
   <si>
     <t>서버 상태</t>
   </si>
   <si>
+    <t>Server status</t>
+  </si>
+  <si>
     <t>AddressInfo</t>
   </si>
   <si>
@@ -1156,21 +1658,33 @@
     <t>서버 선택</t>
   </si>
   <si>
+    <t>Select server</t>
+  </si>
+  <si>
     <t>GroupInfo</t>
   </si>
   <si>
     <t>그룹 정보</t>
   </si>
   <si>
+    <t>Group info</t>
+  </si>
+  <si>
     <t>그룹 이름</t>
   </si>
   <si>
+    <t>Group name</t>
+  </si>
+  <si>
     <t>ClicktoChangeGroupImg</t>
   </si>
   <si>
     <t>눌러서 그룹 이미지 설정</t>
   </si>
   <si>
+    <t>Click to add group iamge</t>
+  </si>
+  <si>
     <t>JoinThisGroup</t>
   </si>
   <si>
@@ -1183,36 +1697,54 @@
     <t>그룹을 생성하여 계속</t>
   </si>
   <si>
+    <t>continue by creating a group</t>
+  </si>
+  <si>
     <t>GroupDetail</t>
   </si>
   <si>
     <t>그룹 상세</t>
   </si>
   <si>
+    <t>Group details</t>
+  </si>
+  <si>
     <t>GroupDetail_placeholder</t>
   </si>
   <si>
     <t>그룹 설명</t>
   </si>
   <si>
+    <t>Group description</t>
+  </si>
+  <si>
     <t>LanguageTag</t>
   </si>
   <si>
     <t>국가 태그</t>
   </si>
   <si>
+    <t>LangTag</t>
+  </si>
+  <si>
     <t>MemberMaxLimit</t>
   </si>
   <si>
     <t>최대 인원</t>
   </si>
   <si>
+    <t>Maximum member</t>
+  </si>
+  <si>
     <t>IsOpen</t>
   </si>
   <si>
     <t>공개 여부</t>
   </si>
   <si>
+    <t>is Open group</t>
+  </si>
+  <si>
     <t>위 정보로 추가하기</t>
   </si>
   <si>
@@ -1222,51 +1754,78 @@
     <t>선택한 서버를 사용할 수 없습니다.</t>
   </si>
   <si>
+    <t>The selected server is unavailable.</t>
+  </si>
+  <si>
     <t>group_created</t>
   </si>
   <si>
     <t>그룹이 생성되었습니다.</t>
   </si>
   <si>
+    <t>A group has been created.</t>
+  </si>
+  <si>
     <t>NeedSetGroupName</t>
   </si>
   <si>
     <t>그룹 이름을 작성해주세요.</t>
   </si>
   <si>
+    <t>Please write the group name.</t>
+  </si>
+  <si>
     <t>AlreadyExist</t>
   </si>
   <si>
     <t>이미 같은 이름의 그룹이 존재합니다.</t>
   </si>
   <si>
+    <t>A group with the same name already exists.</t>
+  </si>
+  <si>
     <t>UnexpectedErr</t>
   </si>
   <si>
     <t>준비되지 않은 오류처리</t>
   </si>
   <si>
+    <t>Unexpected error occured</t>
+  </si>
+  <si>
     <t>## GroupDetail</t>
   </si>
   <si>
+    <t>Group detail</t>
+  </si>
+  <si>
     <t>NotAcceptYet</t>
   </si>
   <si>
     <t>아직 수락되지 않았습니다</t>
   </si>
   <si>
+    <t>Not yet accepted</t>
+  </si>
+  <si>
     <t>MissedGroup</t>
   </si>
   <si>
     <t>더 이상 그룹구성원이 아닙니다</t>
   </si>
   <si>
+    <t>No longer a group member</t>
+  </si>
+  <si>
     <t>NoDetailGroup</t>
   </si>
   <si>
     <t>설명 없는 그룹</t>
   </si>
   <si>
+    <t>No description</t>
+  </si>
+  <si>
     <t>Members</t>
   </si>
   <si>
@@ -1279,39 +1838,60 @@
     <t>아래를 스캔하여 그룹에 초대</t>
   </si>
   <si>
+    <t>Scan below to invite to group</t>
+  </si>
+  <si>
     <t>BreakupGroup</t>
   </si>
   <si>
     <t>그룹 해산</t>
   </si>
   <si>
+    <t>Breakup</t>
+  </si>
+  <si>
     <t>RemoveGroup</t>
   </si>
   <si>
+    <t>Remove history</t>
+  </si>
+  <si>
     <t>LeaveGroup</t>
   </si>
   <si>
     <t>떠나기</t>
   </si>
   <si>
+    <t>Leave group</t>
+  </si>
+  <si>
     <t>GroupInfoUpdated</t>
   </si>
   <si>
     <t>그룹 정보 업데이트됨</t>
   </si>
   <si>
+    <t>Group info updated</t>
+  </si>
+  <si>
     <t>GroupImageUpdated</t>
   </si>
   <si>
     <t>그룹 이미지 업데이트됨</t>
   </si>
   <si>
+    <t>Group image updated</t>
+  </si>
+  <si>
     <t>GroupRemoved</t>
   </si>
   <si>
     <t>그룹 삭제됨</t>
   </si>
   <si>
+    <t>Group removed</t>
+  </si>
+  <si>
     <t>## Licenses</t>
   </si>
   <si>
@@ -1321,6 +1901,9 @@
     <t>열기</t>
   </si>
   <si>
+    <t>Open</t>
+  </si>
+  <si>
     <t>## UseAsServer</t>
   </si>
   <si>
@@ -1330,42 +1913,63 @@
     <t>사용 유의사항</t>
   </si>
   <si>
+    <t>Precautions for use</t>
+  </si>
+  <si>
     <t>ThisDeviceAddress</t>
   </si>
   <si>
     <t>이 기기의 네트워크 주소</t>
   </si>
   <si>
+    <t>Network address of this device</t>
+  </si>
+  <si>
     <t>RefreshAddress</t>
   </si>
   <si>
     <t>새로고침</t>
   </si>
   <si>
+    <t>Refresh</t>
+  </si>
+  <si>
     <t>DedicatedServer</t>
   </si>
   <si>
     <t>사설 서버</t>
   </si>
   <si>
+    <t>Dedicated server</t>
+  </si>
+  <si>
     <t>CustomGroupChat</t>
   </si>
   <si>
     <t>사설 그룹채팅 서버</t>
   </si>
   <si>
+    <t>Dedicated group chat</t>
+  </si>
+  <si>
     <t>LoadingAddresses</t>
   </si>
   <si>
     <t>이곳에 이 기기의 네트워크 주소가 보여집니다.</t>
   </si>
   <si>
+    <t>The network address of this device will display here.</t>
+  </si>
+  <si>
     <t>NoAddress</t>
   </si>
   <si>
     <t>연결된 네트워크가 없습니다.</t>
   </si>
   <si>
+    <t>No network connected.</t>
+  </si>
+  <si>
     <t>## Translator</t>
   </si>
   <si>
@@ -1375,6 +1979,9 @@
     <t>번역가의 한마디</t>
   </si>
   <si>
+    <t>A word from the translator</t>
+  </si>
+  <si>
     <t>## Administrator</t>
   </si>
   <si>
@@ -1384,24 +1991,36 @@
     <t>이 알림에 대해서</t>
   </si>
   <si>
+    <t>About this notice</t>
+  </si>
+  <si>
     <t>InputMessageInfo</t>
   </si>
   <si>
     <t>발송 정보 입력</t>
   </si>
   <si>
+    <t>Enter shipping information</t>
+  </si>
+  <si>
     <t>CommunityNotification</t>
   </si>
   <si>
     <t>커뮤니티 알림</t>
   </si>
   <si>
+    <t>Community notifications</t>
+  </si>
+  <si>
     <t>WriteContent</t>
   </si>
   <si>
     <t>알림 내용 작성</t>
   </si>
   <si>
+    <t>Write content of notification</t>
+  </si>
+  <si>
     <t>SendNotification</t>
   </si>
   <si>
@@ -1414,31 +2033,28 @@
     <t>관리자 전용메뉴입니다</t>
   </si>
   <si>
+    <t>This is the admin menu</t>
+  </si>
+  <si>
     <t>CannotUseDataURL</t>
   </si>
   <si>
     <t>데이터 URL은 사용할 수 없습니다.</t>
   </si>
   <si>
+    <t>You cannot use DataURL</t>
+  </si>
+  <si>
     <t>## CreatorInfo</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>최성수</t>
-  </si>
-  <si>
     <t>creatorComment</t>
   </si>
   <si>
     <t>제작자의 한마디</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>여러분의 효율적인 콘텐츠 생산을 응원합니다</t>
+    <t>A word from the maker</t>
   </si>
   <si>
     <t>## GlobalAct</t>
@@ -1450,6 +2066,9 @@
     <t>기능 다운로드 실패</t>
   </si>
   <si>
+    <t>Failed to download tool</t>
+  </si>
+  <si>
     <t>## IndexedDB</t>
   </si>
   <si>
@@ -1459,12 +2078,18 @@
     <t>파일 열기 오류</t>
   </si>
   <si>
+    <t>Failed to open file</t>
+  </si>
+  <si>
     <t>FailedToDownloadFile</t>
   </si>
   <si>
     <t>다운받기 오류</t>
   </si>
   <si>
+    <t>Failed to download file</t>
+  </si>
+  <si>
     <t>## Nakama</t>
   </si>
   <si>
@@ -1474,66 +2099,99 @@
     <t>이미 같은 구분자를 쓰는 서버가 있습니다</t>
   </si>
   <si>
+    <t>There is already a server using the same key</t>
+  </si>
+  <si>
     <t>NeedLoginInfo</t>
   </si>
   <si>
     <t>로그인 정보를 입력해주세요</t>
   </si>
   <si>
+    <t>Please enter your login information</t>
+  </si>
+  <si>
     <t>NeedLinkUser</t>
   </si>
   <si>
     <t>사용자를 연결해주세요</t>
   </si>
   <si>
+    <t>Please link user device info</t>
+  </si>
+  <si>
     <t>NeedAccountReset</t>
   </si>
   <si>
     <t>이 기기에서는 로그인할 수 없습니다 (계정 이전 기능 준비중)</t>
   </si>
   <si>
+    <t>Cannot log in from this device (account transfer function in preparation)</t>
+  </si>
+  <si>
     <t>RegisterUserSucc</t>
   </si>
   <si>
     <t>회원가입이 완료되었습니다</t>
   </si>
   <si>
+    <t>Sign up is complete</t>
+  </si>
+  <si>
     <t>UnexpectedLoginErr</t>
   </si>
   <si>
     <t>준비되지 않은 오류 유형</t>
   </si>
   <si>
+    <t>Unprepared error type</t>
+  </si>
+  <si>
     <t>CannotOpenImg</t>
   </si>
   <si>
     <t>유효한 이미지가 아닙니다.</t>
   </si>
   <si>
+    <t>Not a valid image.</t>
+  </si>
+  <si>
     <t>DisconnectedFromServer</t>
   </si>
   <si>
     <t>그룹서버 연결 끊어짐</t>
   </si>
   <si>
+    <t>Lost connection to group server</t>
+  </si>
+  <si>
     <t>UserNotFound</t>
   </si>
   <si>
     <t>만료된 알림: 사용자 없음</t>
   </si>
   <si>
+    <t>Notification expired: no users</t>
+  </si>
+  <si>
     <t>MissingFile</t>
   </si>
   <si>
     <t>이 파일은 서버에서 삭제되었습니다.</t>
   </si>
   <si>
+    <t>This file has been deleted from the server.</t>
+  </si>
+  <si>
     <t>DeletedServer</t>
   </si>
   <si>
     <t>삭제된 서버</t>
   </si>
   <si>
+    <t>Deleted server</t>
+  </si>
+  <si>
     <t>GroupUserJoin</t>
   </si>
   <si>
@@ -1546,6 +2204,9 @@
     <t>사용자 그룹탈퇴</t>
   </si>
   <si>
+    <t>User leaved</t>
+  </si>
+  <si>
     <t>GroupUserKick</t>
   </si>
   <si>
@@ -1561,40 +2222,61 @@
     <t>사용자명</t>
   </si>
   <si>
+    <t>User name</t>
+  </si>
+  <si>
     <t>ReqContTitle</t>
   </si>
   <si>
     <t>그룹 참가 요청</t>
   </si>
   <si>
+    <t>Request to join</t>
+  </si>
+  <si>
     <t>ReqContAccept</t>
   </si>
   <si>
     <t>수락</t>
   </si>
   <si>
+    <t>Accept</t>
+  </si>
+  <si>
     <t>ReqContReject</t>
   </si>
   <si>
     <t>거절</t>
   </si>
   <si>
+    <t>Reject</t>
+  </si>
+  <si>
     <t>LocalNotiTitle</t>
   </si>
   <si>
     <t>그룹 참가됨</t>
   </si>
   <si>
+    <t>Joined group</t>
+  </si>
+  <si>
     <t>LocalNotiOK</t>
   </si>
   <si>
     <t>확인</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>LocalNotiCheck</t>
   </si>
   <si>
     <t>검토</t>
+  </si>
+  <si>
+    <t>Check</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +2301,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1677068729" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1677163968" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1641,7 +2323,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1677068729" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1677163968" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1663,7 +2345,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1677068729"/>
+          <pm:border xmlns:pm="smNativeData" id="1677163968"/>
         </ext>
       </extLst>
     </border>
@@ -1682,7 +2364,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1677068729"/>
+          <pm:border xmlns:pm="smNativeData" id="1677163968"/>
         </ext>
       </extLst>
     </border>
@@ -1699,7 +2381,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1677068729" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1677163968" count="1">
         <pm:charStyle name="보통" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -1963,10 +2645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:B293"/>
+  <dimension ref="A1:C291"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -1974,2274 +2656,3048 @@
     <col min="1" max="2" width="10.000000" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>120</v>
+      </c>
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>126</v>
+      </c>
+      <c r="C49" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>129</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>132</v>
+      </c>
+      <c r="C52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>135</v>
+      </c>
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>141</v>
+      </c>
+      <c r="C55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>144</v>
+      </c>
+      <c r="C56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>150</v>
+      </c>
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>153</v>
+      </c>
+      <c r="C59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>155</v>
+      </c>
+      <c r="C60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>158</v>
+      </c>
+      <c r="C61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>161</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>167</v>
+      </c>
+      <c r="C64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>170</v>
+      </c>
+      <c r="C65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>173</v>
+      </c>
+      <c r="C66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>176</v>
+      </c>
+      <c r="C67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>179</v>
+      </c>
+      <c r="C68" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>182</v>
+      </c>
+      <c r="C69" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>185</v>
+      </c>
+      <c r="C70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>188</v>
+      </c>
+      <c r="C71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>191</v>
+      </c>
+      <c r="C72" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>194</v>
+      </c>
+      <c r="C73" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>197</v>
+      </c>
+      <c r="C74" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>200</v>
+      </c>
+      <c r="C75" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="B76" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>203</v>
+      </c>
+      <c r="C76" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="B77" t="s">
-        <v>143</v>
+        <v>205</v>
+      </c>
+      <c r="C77" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>209</v>
+      </c>
+      <c r="C79" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>185</v>
+      </c>
+      <c r="C80" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>214</v>
+      </c>
+      <c r="C81" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>217</v>
+      </c>
+      <c r="C82" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>220</v>
+      </c>
+      <c r="C84" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="B85" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>223</v>
+      </c>
+      <c r="C85" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>226</v>
+      </c>
+      <c r="C86" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>229</v>
+      </c>
+      <c r="C87" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>233</v>
+      </c>
+      <c r="C89" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>238</v>
+      </c>
+      <c r="C91" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>241</v>
+      </c>
+      <c r="C92" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>244</v>
+      </c>
+      <c r="C93" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="B94" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>247</v>
+      </c>
+      <c r="C94" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="B95" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>250</v>
+      </c>
+      <c r="C95" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>253</v>
+      </c>
+      <c r="C96" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>255</v>
+      </c>
+      <c r="C97" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>257</v>
+      </c>
+      <c r="B98" t="s">
+        <v>258</v>
+      </c>
+      <c r="C98" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>260</v>
+      </c>
+      <c r="B99" t="s">
+        <v>261</v>
+      </c>
+      <c r="C99" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>263</v>
+      </c>
+      <c r="B100" t="s">
         <v>179</v>
       </c>
-      <c r="B98" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>181</v>
-      </c>
-      <c r="B99" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>183</v>
-      </c>
-      <c r="B100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>184</v>
+        <v>265</v>
       </c>
       <c r="B101" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>266</v>
+      </c>
+      <c r="C101" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>269</v>
+      </c>
+      <c r="C102" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="B103" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>272</v>
+      </c>
+      <c r="C103" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="B104" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>275</v>
+      </c>
+      <c r="C104" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="B105" t="s">
-        <v>193</v>
+        <v>278</v>
+      </c>
+      <c r="C105" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>188</v>
+      </c>
+      <c r="C108" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>196</v>
+        <v>283</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>284</v>
+      </c>
+      <c r="C109" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="C110" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="B111" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>289</v>
+      </c>
+      <c r="C111" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
       <c r="B112" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="C112" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>203</v>
+        <v>294</v>
       </c>
       <c r="B113" t="s">
-        <v>204</v>
+        <v>295</v>
+      </c>
+      <c r="C113" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="B115" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>299</v>
+      </c>
+      <c r="C115" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>208</v>
+        <v>301</v>
       </c>
       <c r="B116" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>302</v>
+      </c>
+      <c r="C116" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="B117" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>305</v>
+      </c>
+      <c r="C117" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
+        <v>307</v>
+      </c>
+      <c r="B118" t="s">
+        <v>308</v>
+      </c>
+      <c r="C118" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>310</v>
+      </c>
+      <c r="B119" t="s">
+        <v>311</v>
+      </c>
+      <c r="C119" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>313</v>
+      </c>
+      <c r="B120" t="s">
+        <v>185</v>
+      </c>
+      <c r="C120" t="s">
         <v>212</v>
       </c>
-      <c r="B118" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>214</v>
-      </c>
-      <c r="B119" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>216</v>
-      </c>
-      <c r="B120" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="B121" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>315</v>
+      </c>
+      <c r="C121" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>219</v>
+        <v>317</v>
       </c>
       <c r="B122" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>318</v>
+      </c>
+      <c r="C122" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>221</v>
+        <v>320</v>
       </c>
       <c r="B123" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>321</v>
+      </c>
+      <c r="C123" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>223</v>
+        <v>322</v>
       </c>
       <c r="B124" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>323</v>
+      </c>
+      <c r="C124" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>176</v>
+      </c>
+      <c r="C125" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>326</v>
       </c>
       <c r="B126" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>327</v>
+      </c>
+      <c r="C126" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="B127" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>330</v>
+      </c>
+      <c r="C127" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>229</v>
+        <v>332</v>
       </c>
       <c r="B128" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>333</v>
+      </c>
+      <c r="C128" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>231</v>
+        <v>335</v>
       </c>
       <c r="B129" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>336</v>
+      </c>
+      <c r="C129" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>233</v>
+        <v>338</v>
       </c>
       <c r="B130" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>339</v>
+      </c>
+      <c r="C130" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>235</v>
+        <v>341</v>
       </c>
       <c r="B131" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>342</v>
+      </c>
+      <c r="C131" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="B132" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>345</v>
+      </c>
+      <c r="C132" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>239</v>
+        <v>347</v>
       </c>
       <c r="B133" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>348</v>
+      </c>
+      <c r="C133" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>241</v>
+        <v>350</v>
       </c>
       <c r="B134" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>351</v>
+      </c>
+      <c r="C134" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>243</v>
+        <v>353</v>
       </c>
       <c r="B135" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>354</v>
+      </c>
+      <c r="C135" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="B136" t="s">
-        <v>246</v>
+        <v>357</v>
+      </c>
+      <c r="C136" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>360</v>
+      </c>
+      <c r="C138" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>249</v>
+        <v>362</v>
       </c>
       <c r="B139" t="s">
-        <v>250</v>
+        <v>363</v>
+      </c>
+      <c r="C139" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="B141" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>366</v>
+      </c>
+      <c r="C141" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>254</v>
+        <v>368</v>
       </c>
       <c r="B142" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>369</v>
+      </c>
+      <c r="C142" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>256</v>
+        <v>371</v>
       </c>
       <c r="B143" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>372</v>
+      </c>
+      <c r="C143" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>258</v>
+        <v>374</v>
       </c>
       <c r="B144" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>375</v>
+      </c>
+      <c r="C144" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>260</v>
+        <v>377</v>
       </c>
       <c r="B145" t="s">
-        <v>261</v>
+        <v>378</v>
+      </c>
+      <c r="C145" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>263</v>
+        <v>381</v>
       </c>
       <c r="B147" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>382</v>
+      </c>
+      <c r="C147" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>265</v>
+        <v>384</v>
       </c>
       <c r="B148" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>385</v>
+      </c>
+      <c r="C148" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>267</v>
+        <v>387</v>
       </c>
       <c r="B149" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>388</v>
+      </c>
+      <c r="C149" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>269</v>
+        <v>390</v>
       </c>
       <c r="B150" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>391</v>
+      </c>
+      <c r="C150" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>271</v>
+        <v>393</v>
       </c>
       <c r="B151" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>394</v>
+      </c>
+      <c r="C151" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>273</v>
+        <v>396</v>
       </c>
       <c r="B152" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>397</v>
+      </c>
+      <c r="C152" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>275</v>
+        <v>399</v>
       </c>
       <c r="B153" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>311</v>
+      </c>
+      <c r="C153" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>225</v>
+        <v>326</v>
       </c>
       <c r="B154" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>327</v>
+      </c>
+      <c r="C154" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>276</v>
+        <v>400</v>
       </c>
       <c r="B155" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>401</v>
+      </c>
+      <c r="C155" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>278</v>
+        <v>403</v>
       </c>
       <c r="B156" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>404</v>
+      </c>
+      <c r="C156" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>280</v>
+        <v>406</v>
       </c>
       <c r="B157" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>407</v>
+      </c>
+      <c r="C157" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>282</v>
+        <v>409</v>
       </c>
       <c r="B158" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>410</v>
+      </c>
+      <c r="C158" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>284</v>
+        <v>412</v>
       </c>
       <c r="B159" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>413</v>
+      </c>
+      <c r="C159" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>286</v>
+        <v>415</v>
       </c>
       <c r="B160" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>416</v>
+      </c>
+      <c r="C160" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>288</v>
+        <v>418</v>
       </c>
       <c r="B161" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>419</v>
+      </c>
+      <c r="C161" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>290</v>
+        <v>421</v>
       </c>
       <c r="B162" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>422</v>
+      </c>
+      <c r="C162" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>292</v>
+        <v>424</v>
       </c>
       <c r="B163" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>425</v>
+      </c>
+      <c r="C163" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>294</v>
+        <v>427</v>
       </c>
       <c r="B164" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>428</v>
+      </c>
+      <c r="C164" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>296</v>
+        <v>430</v>
       </c>
       <c r="B165" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>431</v>
+      </c>
+      <c r="C165" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>298</v>
+        <v>433</v>
       </c>
       <c r="B166" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>434</v>
+      </c>
+      <c r="C166" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>300</v>
+        <v>436</v>
       </c>
       <c r="B167" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>437</v>
+      </c>
+      <c r="C167" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>302</v>
+        <v>439</v>
       </c>
       <c r="B168" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>440</v>
+      </c>
+      <c r="C168" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>304</v>
+        <v>442</v>
       </c>
       <c r="B169" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>443</v>
+      </c>
+      <c r="C169" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>306</v>
+        <v>445</v>
       </c>
       <c r="B170" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>446</v>
+      </c>
+      <c r="C170" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>308</v>
+        <v>448</v>
       </c>
       <c r="B171" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>449</v>
+      </c>
+      <c r="C171" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>310</v>
+        <v>451</v>
       </c>
       <c r="B172" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>452</v>
+      </c>
+      <c r="C172" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>312</v>
+        <v>454</v>
       </c>
       <c r="B173" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>455</v>
+      </c>
+      <c r="C173" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>314</v>
+        <v>457</v>
       </c>
       <c r="B174" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>458</v>
+      </c>
+      <c r="C174" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>316</v>
+        <v>460</v>
       </c>
       <c r="B175" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>461</v>
+      </c>
+      <c r="C175" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>318</v>
+        <v>463</v>
       </c>
       <c r="B176" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>464</v>
+      </c>
+      <c r="C176" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>320</v>
+        <v>466</v>
       </c>
       <c r="B177" t="s">
-        <v>321</v>
+        <v>467</v>
+      </c>
+      <c r="C177" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>323</v>
+        <v>470</v>
       </c>
       <c r="B179" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>471</v>
+      </c>
+      <c r="C179" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="B180" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>474</v>
+      </c>
+      <c r="C180" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>327</v>
+        <v>475</v>
       </c>
       <c r="B181" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>476</v>
+      </c>
+      <c r="C181" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>329</v>
+        <v>478</v>
       </c>
       <c r="B182" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>479</v>
+      </c>
+      <c r="C182" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>331</v>
+        <v>481</v>
       </c>
       <c r="B183" t="s">
-        <v>332</v>
+        <v>482</v>
+      </c>
+      <c r="C183" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>334</v>
+        <v>485</v>
       </c>
       <c r="B185" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
+        <v>486</v>
+      </c>
+      <c r="C185" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>336</v>
+        <v>488</v>
       </c>
       <c r="B186" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
+        <v>489</v>
+      </c>
+      <c r="C186" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>338</v>
+        <v>491</v>
       </c>
       <c r="B187" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
+        <v>492</v>
+      </c>
+      <c r="C187" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>340</v>
+        <v>494</v>
       </c>
       <c r="B188" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
+        <v>495</v>
+      </c>
+      <c r="C188" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>342</v>
+        <v>497</v>
       </c>
       <c r="B189" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
+        <v>498</v>
+      </c>
+      <c r="C189" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>344</v>
+        <v>500</v>
       </c>
       <c r="B190" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>185</v>
+      </c>
+      <c r="C190" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>345</v>
+        <v>502</v>
       </c>
       <c r="B191" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
+        <v>503</v>
+      </c>
+      <c r="C191" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="B192" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
+        <v>147</v>
+      </c>
+      <c r="C192" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="B193" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>505</v>
+      </c>
+      <c r="C193" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>348</v>
+        <v>507</v>
       </c>
       <c r="B194" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
+        <v>508</v>
+      </c>
+      <c r="C194" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>350</v>
+        <v>510</v>
       </c>
       <c r="B195" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
+        <v>511</v>
+      </c>
+      <c r="C195" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>352</v>
+        <v>513</v>
       </c>
       <c r="B196" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>514</v>
+      </c>
+      <c r="C196" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>354</v>
+        <v>515</v>
       </c>
       <c r="B197" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
+        <v>516</v>
+      </c>
+      <c r="C197" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>356</v>
+        <v>517</v>
       </c>
       <c r="B198" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>518</v>
+      </c>
+      <c r="C198" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>358</v>
+        <v>519</v>
       </c>
       <c r="B199" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
+        <v>520</v>
+      </c>
+      <c r="C199" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>360</v>
+        <v>522</v>
       </c>
       <c r="B200" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
+        <v>523</v>
+      </c>
+      <c r="C200" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>362</v>
+        <v>525</v>
       </c>
       <c r="B201" t="s">
-        <v>363</v>
+        <v>526</v>
+      </c>
+      <c r="C201" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>365</v>
+        <v>529</v>
       </c>
       <c r="B203" t="s">
-        <v>366</v>
+        <v>530</v>
+      </c>
+      <c r="C203" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>368</v>
+        <v>533</v>
       </c>
       <c r="B205" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
+        <v>534</v>
+      </c>
+      <c r="C205" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>370</v>
+        <v>536</v>
       </c>
       <c r="B206" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
+        <v>537</v>
+      </c>
+      <c r="C206" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>372</v>
+        <v>539</v>
       </c>
       <c r="B207" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="C207" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>358</v>
+        <v>519</v>
       </c>
       <c r="B208" t="s">
-        <v>373</v>
+        <v>540</v>
+      </c>
+      <c r="C208" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>375</v>
+        <v>542</v>
       </c>
       <c r="B210" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
+        <v>543</v>
+      </c>
+      <c r="C210" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>377</v>
+        <v>545</v>
       </c>
       <c r="B211" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
+        <v>546</v>
+      </c>
+      <c r="C211" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="B212" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>147</v>
+      </c>
+      <c r="C212" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="B213" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
+        <v>548</v>
+      </c>
+      <c r="C213" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>380</v>
+        <v>550</v>
       </c>
       <c r="B214" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
+        <v>551</v>
+      </c>
+      <c r="C214" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>382</v>
+        <v>553</v>
       </c>
       <c r="B215" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+        <v>554</v>
+      </c>
+      <c r="C215" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>384</v>
+        <v>555</v>
       </c>
       <c r="B216" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
+        <v>556</v>
+      </c>
+      <c r="C216" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>386</v>
+        <v>558</v>
       </c>
       <c r="B217" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+        <v>559</v>
+      </c>
+      <c r="C217" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>388</v>
+        <v>561</v>
       </c>
       <c r="B218" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
+        <v>562</v>
+      </c>
+      <c r="C218" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>390</v>
+        <v>564</v>
       </c>
       <c r="B219" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
+        <v>565</v>
+      </c>
+      <c r="C219" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>392</v>
+        <v>567</v>
       </c>
       <c r="B220" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
+        <v>568</v>
+      </c>
+      <c r="C220" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>394</v>
+        <v>570</v>
       </c>
       <c r="B221" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <v>571</v>
+      </c>
+      <c r="C221" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>360</v>
+        <v>522</v>
       </c>
       <c r="B222" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+        <v>573</v>
+      </c>
+      <c r="C222" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>397</v>
+        <v>574</v>
       </c>
       <c r="B223" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
+        <v>575</v>
+      </c>
+      <c r="C223" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>399</v>
+        <v>577</v>
       </c>
       <c r="B224" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
+        <v>578</v>
+      </c>
+      <c r="C224" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>401</v>
+        <v>580</v>
       </c>
       <c r="B225" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
+        <v>581</v>
+      </c>
+      <c r="C225" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>403</v>
+        <v>583</v>
       </c>
       <c r="B226" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
+        <v>584</v>
+      </c>
+      <c r="C226" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>405</v>
+        <v>586</v>
       </c>
       <c r="B227" t="s">
-        <v>406</v>
+        <v>587</v>
+      </c>
+      <c r="C227" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B229" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
+        <v>559</v>
+      </c>
+      <c r="C229" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>408</v>
+        <v>591</v>
       </c>
       <c r="B230" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <v>592</v>
+      </c>
+      <c r="C230" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="B231" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
+        <v>595</v>
+      </c>
+      <c r="C231" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>412</v>
+        <v>597</v>
       </c>
       <c r="B232" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
+        <v>598</v>
+      </c>
+      <c r="C232" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>414</v>
+        <v>600</v>
       </c>
       <c r="B233" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
+        <v>601</v>
+      </c>
+      <c r="C233" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>416</v>
+        <v>602</v>
       </c>
       <c r="B234" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
+        <v>603</v>
+      </c>
+      <c r="C234" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>418</v>
+        <v>605</v>
       </c>
       <c r="B235" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
+        <v>606</v>
+      </c>
+      <c r="C235" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>420</v>
+        <v>608</v>
       </c>
       <c r="B236" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
+        <v>203</v>
+      </c>
+      <c r="C236" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>421</v>
+        <v>610</v>
       </c>
       <c r="B237" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
+        <v>611</v>
+      </c>
+      <c r="C237" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>423</v>
+        <v>613</v>
       </c>
       <c r="B238" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
+        <v>614</v>
+      </c>
+      <c r="C238" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>425</v>
+        <v>616</v>
       </c>
       <c r="B239" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
+        <v>617</v>
+      </c>
+      <c r="C239" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>427</v>
+        <v>619</v>
       </c>
       <c r="B240" t="s">
-        <v>428</v>
+        <v>620</v>
+      </c>
+      <c r="C240" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>430</v>
+        <v>623</v>
       </c>
       <c r="B242" t="s">
-        <v>431</v>
+        <v>624</v>
+      </c>
+      <c r="C242" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B244" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>433</v>
+        <v>627</v>
       </c>
       <c r="B245" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
+        <v>628</v>
+      </c>
+      <c r="C245" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>435</v>
+        <v>630</v>
       </c>
       <c r="B246" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
+        <v>631</v>
+      </c>
+      <c r="C246" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>437</v>
+        <v>633</v>
       </c>
       <c r="B247" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
+        <v>634</v>
+      </c>
+      <c r="C247" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>439</v>
+        <v>636</v>
       </c>
       <c r="B248" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
+        <v>637</v>
+      </c>
+      <c r="C248" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>441</v>
+        <v>639</v>
       </c>
       <c r="B249" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
+        <v>640</v>
+      </c>
+      <c r="C249" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>443</v>
+        <v>642</v>
       </c>
       <c r="B250" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
+        <v>643</v>
+      </c>
+      <c r="C250" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>445</v>
+        <v>645</v>
       </c>
       <c r="B251" t="s">
-        <v>446</v>
+        <v>646</v>
+      </c>
+      <c r="C251" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>448</v>
+        <v>649</v>
       </c>
       <c r="B253" t="s">
-        <v>449</v>
+        <v>650</v>
+      </c>
+      <c r="C253" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>451</v>
+        <v>653</v>
       </c>
       <c r="B255" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
+        <v>654</v>
+      </c>
+      <c r="C255" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>453</v>
+        <v>656</v>
       </c>
       <c r="B256" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
+        <v>657</v>
+      </c>
+      <c r="C256" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>455</v>
+        <v>659</v>
       </c>
       <c r="B257" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
+        <v>660</v>
+      </c>
+      <c r="C257" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>457</v>
+        <v>662</v>
       </c>
       <c r="B258" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
+        <v>663</v>
+      </c>
+      <c r="C258" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>459</v>
+        <v>665</v>
       </c>
       <c r="B259" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
+        <v>666</v>
+      </c>
+      <c r="C259" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>461</v>
+        <v>667</v>
       </c>
       <c r="B260" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
+        <v>668</v>
+      </c>
+      <c r="C260" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>463</v>
+        <v>670</v>
       </c>
       <c r="B261" t="s">
-        <v>464</v>
+        <v>671</v>
+      </c>
+      <c r="C261" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>466</v>
+        <v>674</v>
       </c>
       <c r="B263" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
+        <v>675</v>
+      </c>
+      <c r="C263" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>468</v>
-      </c>
-      <c r="B264" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
+        <v>677</v>
+      </c>
+      <c r="C264"/>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>470</v>
+        <v>678</v>
       </c>
       <c r="B265" t="s">
-        <v>471</v>
+        <v>679</v>
+      </c>
+      <c r="C265" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>473</v>
+        <v>682</v>
       </c>
       <c r="B267" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
+        <v>683</v>
+      </c>
+      <c r="C267" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
+        <v>685</v>
+      </c>
+      <c r="B268" t="s">
+        <v>686</v>
+      </c>
+      <c r="C268" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>476</v>
-      </c>
-      <c r="B269" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>478</v>
+        <v>689</v>
       </c>
       <c r="B270" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
+        <v>690</v>
+      </c>
+      <c r="C270" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
+        <v>692</v>
+      </c>
+      <c r="B271" t="s">
+        <v>693</v>
+      </c>
+      <c r="C271" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>481</v>
+        <v>695</v>
       </c>
       <c r="B272" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
+        <v>696</v>
+      </c>
+      <c r="C272" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>483</v>
+        <v>698</v>
       </c>
       <c r="B273" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
+        <v>699</v>
+      </c>
+      <c r="C273" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>485</v>
+        <v>701</v>
       </c>
       <c r="B274" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
+        <v>702</v>
+      </c>
+      <c r="C274" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>487</v>
+        <v>704</v>
       </c>
       <c r="B275" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
+        <v>705</v>
+      </c>
+      <c r="C275" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>489</v>
+        <v>707</v>
       </c>
       <c r="B276" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+        <v>708</v>
+      </c>
+      <c r="C276" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>491</v>
+        <v>710</v>
       </c>
       <c r="B277" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+        <v>711</v>
+      </c>
+      <c r="C277" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>493</v>
+        <v>713</v>
       </c>
       <c r="B278" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>714</v>
+      </c>
+      <c r="C278" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>495</v>
+        <v>716</v>
       </c>
       <c r="B279" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+        <v>717</v>
+      </c>
+      <c r="C279" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>497</v>
+        <v>719</v>
       </c>
       <c r="B280" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
+        <v>720</v>
+      </c>
+      <c r="C280" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>499</v>
+        <v>722</v>
       </c>
       <c r="B281" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
+        <v>723</v>
+      </c>
+      <c r="C281" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>501</v>
+        <v>724</v>
       </c>
       <c r="B282" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+        <v>725</v>
+      </c>
+      <c r="C282" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>503</v>
+        <v>727</v>
       </c>
       <c r="B283" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
+        <v>728</v>
+      </c>
+      <c r="C283" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>505</v>
+        <v>729</v>
       </c>
       <c r="B284" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+        <v>543</v>
+      </c>
+      <c r="C284" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>507</v>
+        <v>730</v>
       </c>
       <c r="B285" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+        <v>731</v>
+      </c>
+      <c r="C285" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>509</v>
+        <v>733</v>
       </c>
       <c r="B286" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
+        <v>734</v>
+      </c>
+      <c r="C286" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>510</v>
+        <v>736</v>
       </c>
       <c r="B287" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+        <v>737</v>
+      </c>
+      <c r="C287" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>512</v>
+        <v>739</v>
       </c>
       <c r="B288" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>740</v>
+      </c>
+      <c r="C288" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>514</v>
+        <v>742</v>
       </c>
       <c r="B289" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
+        <v>743</v>
+      </c>
+      <c r="C289" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>516</v>
+        <v>745</v>
       </c>
       <c r="B290" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
+        <v>746</v>
+      </c>
+      <c r="C290" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>518</v>
+        <v>748</v>
       </c>
       <c r="B291" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" t="s">
-        <v>520</v>
-      </c>
-      <c r="B292" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" t="s">
-        <v>522</v>
-      </c>
-      <c r="B293" t="s">
-        <v>523</v>
+        <v>749</v>
+      </c>
+      <c r="C291" t="s">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1677068729" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1677163968" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4250,14 +5706,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1677068729" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1677068729" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1677163968" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1677163968" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1677068729" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1677163968" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/pjcone_pwa/assets/data/translate.xlsx
+++ b/pjcone_pwa/assets/data/translate.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1677163968" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1677163968" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1677163968" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1677163968"/>
+      <pm:revision xmlns:pm="smNativeData" day="1677256820" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1677256820" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1677256820" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1677256820"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="757">
   <si>
     <t>#</t>
   </si>
@@ -826,7 +826,7 @@
     <t>사용자 이미지 변경</t>
   </si>
   <si>
-    <t>User changes image</t>
+    <t>User image changed</t>
   </si>
   <si>
     <t>need_email</t>
@@ -2057,6 +2057,24 @@
     <t>A word from the maker</t>
   </si>
   <si>
+    <t>Ifyoulike</t>
+  </si>
+  <si>
+    <t>이 앱이 마음에 드신다면</t>
+  </si>
+  <si>
+    <t>If you like this app</t>
+  </si>
+  <si>
+    <t>giveacoffeetodev</t>
+  </si>
+  <si>
+    <t>개발자에게 커피를 사주세요</t>
+  </si>
+  <si>
+    <t>Give a coffee to developer</t>
+  </si>
+  <si>
     <t>## GlobalAct</t>
   </si>
   <si>
@@ -2144,7 +2162,7 @@
     <t>준비되지 않은 오류 유형</t>
   </si>
   <si>
-    <t>Unprepared error type</t>
+    <t>Unexpected error type</t>
   </si>
   <si>
     <t>CannotOpenImg</t>
@@ -2301,7 +2319,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1677163968" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1677256820" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2323,7 +2341,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1677163968" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1677256820" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2345,7 +2363,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1677163968"/>
+          <pm:border xmlns:pm="smNativeData" id="1677256820"/>
         </ext>
       </extLst>
     </border>
@@ -2364,7 +2382,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1677163968"/>
+          <pm:border xmlns:pm="smNativeData" id="1677256820"/>
         </ext>
       </extLst>
     </border>
@@ -2381,7 +2399,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1677163968" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1677256820" count="1">
         <pm:charStyle name="보통" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -2645,10 +2663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:C291"/>
+  <dimension ref="A1:C293"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -5406,70 +5424,69 @@
       <c r="A264" t="s">
         <v>677</v>
       </c>
-      <c r="C264"/>
+      <c r="B264" t="s">
+        <v>678</v>
+      </c>
+      <c r="C264" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B265" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C265" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B267" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C267" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>685</v>
-      </c>
-      <c r="B268" t="s">
-        <v>686</v>
-      </c>
-      <c r="C268" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>688</v>
       </c>
+      <c r="B269" t="s">
+        <v>689</v>
+      </c>
+      <c r="C269" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B270" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C270" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>692</v>
-      </c>
-      <c r="B271" t="s">
-        <v>693</v>
-      </c>
-      <c r="C271" t="s">
         <v>694</v>
       </c>
     </row>
@@ -5580,62 +5597,62 @@
         <v>723</v>
       </c>
       <c r="C281" t="s">
-        <v>432</v>
+        <v>724</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B282" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C282" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B283" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C283" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B284" t="s">
-        <v>543</v>
+        <v>731</v>
       </c>
       <c r="C284" t="s">
-        <v>544</v>
+        <v>732</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B285" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C285" t="s">
-        <v>732</v>
+        <v>296</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B286" t="s">
-        <v>734</v>
+        <v>543</v>
       </c>
       <c r="C286" t="s">
-        <v>735</v>
+        <v>544</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5691,13 +5708,35 @@
       </c>
       <c r="C291" t="s">
         <v>750</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>751</v>
+      </c>
+      <c r="B292" t="s">
+        <v>752</v>
+      </c>
+      <c r="C292" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>754</v>
+      </c>
+      <c r="B293" t="s">
+        <v>755</v>
+      </c>
+      <c r="C293" t="s">
+        <v>756</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1677163968" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1677256820" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5706,14 +5745,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1677163968" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1677163968" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1677256820" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1677256820" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1677163968" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1677256820" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/pjcone_pwa/assets/data/translate.xlsx
+++ b/pjcone_pwa/assets/data/translate.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1677256820" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1677256820" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1677256820" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1677256820"/>
+      <pm:revision xmlns:pm="smNativeData" day="1677311508" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1677311508" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1677311508" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1677311508"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="760">
   <si>
     <t>#</t>
   </si>
@@ -317,6 +317,15 @@
   </si>
   <si>
     <t>Notifications</t>
+  </si>
+  <si>
+    <t>slient_noti</t>
+  </si>
+  <si>
+    <t>알림 무시</t>
+  </si>
+  <si>
+    <t>Ignore notifications</t>
   </si>
   <si>
     <t>batteryOptimization</t>
@@ -2319,7 +2328,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1677256820" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1677311508" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2341,7 +2350,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1677256820" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1677311508" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2363,7 +2372,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1677256820"/>
+          <pm:border xmlns:pm="smNativeData" id="1677311508"/>
         </ext>
       </extLst>
     </border>
@@ -2382,7 +2391,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1677256820"/>
+          <pm:border xmlns:pm="smNativeData" id="1677311508"/>
         </ext>
       </extLst>
     </border>
@@ -2399,7 +2408,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1677256820" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1677311508" count="1">
         <pm:charStyle name="보통" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -2663,10 +2672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:C293"/>
+  <dimension ref="A1:C294"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -3189,25 +3198,25 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
         <v>132</v>
@@ -3290,18 +3299,18 @@
         <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" t="s">
         <v>155</v>
-      </c>
-      <c r="C60" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3477,33 +3486,33 @@
         <v>203</v>
       </c>
       <c r="C76" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="B78" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>208</v>
-      </c>
-      <c r="B79" t="s">
-        <v>209</v>
-      </c>
-      <c r="C79" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3512,18 +3521,18 @@
         <v>211</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="C80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B81" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="C81" t="s">
         <v>215</v>
@@ -3540,25 +3549,25 @@
         <v>218</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="B83" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" t="s">
-        <v>220</v>
-      </c>
-      <c r="C84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
         <v>223</v>
@@ -3589,38 +3598,38 @@
         <v>230</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="B88" t="s">
+        <v>232</v>
+      </c>
+      <c r="C88" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>232</v>
-      </c>
-      <c r="B89" t="s">
-        <v>233</v>
-      </c>
-      <c r="C89" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>235</v>
       </c>
       <c r="B90" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="C90" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B91" t="s">
-        <v>238</v>
-      </c>
-      <c r="C91" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3676,18 +3685,18 @@
         <v>253</v>
       </c>
       <c r="C96" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C97" t="s">
-        <v>256</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3717,18 +3726,18 @@
         <v>263</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="C100" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B101" t="s">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="C101" t="s">
         <v>267</v>
@@ -3778,39 +3787,39 @@
         <v>279</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="B106" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>11</v>
-      </c>
-      <c r="B107" t="s">
-        <v>49</v>
-      </c>
-      <c r="C107" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="C108" t="s">
-        <v>282</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B109" t="s">
-        <v>284</v>
+        <v>191</v>
       </c>
       <c r="C109" t="s">
         <v>285</v>
@@ -3821,18 +3830,18 @@
         <v>286</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="C110" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B111" t="s">
-        <v>289</v>
+        <v>25</v>
       </c>
       <c r="C111" t="s">
         <v>290</v>
@@ -3860,19 +3869,19 @@
         <v>296</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="B114" t="s">
+        <v>298</v>
+      </c>
+      <c r="C114" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>298</v>
-      </c>
-      <c r="B115" t="s">
-        <v>299</v>
-      </c>
-      <c r="C115" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3925,21 +3934,21 @@
         <v>313</v>
       </c>
       <c r="B120" t="s">
-        <v>185</v>
+        <v>314</v>
       </c>
       <c r="C120" t="s">
-        <v>212</v>
+        <v>315</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B121" t="s">
-        <v>315</v>
+        <v>188</v>
       </c>
       <c r="C121" t="s">
-        <v>316</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3961,37 +3970,37 @@
         <v>321</v>
       </c>
       <c r="C123" t="s">
-        <v>177</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B124" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C124" t="s">
-        <v>324</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="B125" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="C125" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>326</v>
+        <v>178</v>
       </c>
       <c r="B126" t="s">
-        <v>327</v>
+        <v>179</v>
       </c>
       <c r="C126" t="s">
         <v>328</v>
@@ -4107,46 +4116,46 @@
         <v>358</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="B137" t="s">
+        <v>360</v>
+      </c>
+      <c r="C137" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>11</v>
-      </c>
-      <c r="B138" t="s">
-        <v>360</v>
-      </c>
-      <c r="C138" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>362</v>
+        <v>11</v>
       </c>
       <c r="B139" t="s">
         <v>363</v>
       </c>
       <c r="C139" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>365</v>
+      </c>
+      <c r="B140" t="s">
+        <v>366</v>
+      </c>
+      <c r="C140" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>365</v>
-      </c>
-      <c r="B141" t="s">
-        <v>366</v>
-      </c>
-      <c r="C141" t="s">
         <v>367</v>
       </c>
     </row>
@@ -4194,19 +4203,19 @@
         <v>379</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="B146" t="s">
+        <v>381</v>
+      </c>
+      <c r="C146" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>381</v>
-      </c>
-      <c r="B147" t="s">
-        <v>382</v>
-      </c>
-      <c r="C147" t="s">
         <v>383</v>
       </c>
     </row>
@@ -4270,32 +4279,32 @@
         <v>399</v>
       </c>
       <c r="B153" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="C153" t="s">
-        <v>312</v>
+        <v>401</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>326</v>
+        <v>402</v>
       </c>
       <c r="B154" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C154" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>400</v>
+        <v>329</v>
       </c>
       <c r="B155" t="s">
-        <v>401</v>
+        <v>330</v>
       </c>
       <c r="C155" t="s">
-        <v>402</v>
+        <v>331</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4540,19 +4549,19 @@
         <v>468</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="B178" t="s">
+        <v>470</v>
+      </c>
+      <c r="C178" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>470</v>
-      </c>
-      <c r="B179" t="s">
-        <v>471</v>
-      </c>
-      <c r="C179" t="s">
         <v>472</v>
       </c>
     </row>
@@ -4564,18 +4573,18 @@
         <v>474</v>
       </c>
       <c r="C180" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B181" t="s">
+        <v>477</v>
+      </c>
+      <c r="C181" t="s">
         <v>476</v>
-      </c>
-      <c r="C181" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4600,19 +4609,19 @@
         <v>483</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="B184" t="s">
+        <v>485</v>
+      </c>
+      <c r="C184" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>485</v>
-      </c>
-      <c r="B185" t="s">
-        <v>486</v>
-      </c>
-      <c r="C185" t="s">
         <v>487</v>
       </c>
     </row>
@@ -4665,18 +4674,18 @@
         <v>500</v>
       </c>
       <c r="B190" t="s">
-        <v>185</v>
+        <v>501</v>
       </c>
       <c r="C190" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B191" t="s">
-        <v>503</v>
+        <v>188</v>
       </c>
       <c r="C191" t="s">
         <v>504</v>
@@ -4684,13 +4693,13 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>146</v>
+        <v>505</v>
       </c>
       <c r="B192" t="s">
-        <v>147</v>
+        <v>506</v>
       </c>
       <c r="C192" t="s">
-        <v>148</v>
+        <v>507</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4698,15 +4707,15 @@
         <v>149</v>
       </c>
       <c r="B193" t="s">
-        <v>505</v>
+        <v>150</v>
       </c>
       <c r="C193" t="s">
-        <v>506</v>
+        <v>151</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>507</v>
+        <v>152</v>
       </c>
       <c r="B194" t="s">
         <v>508</v>
@@ -4734,40 +4743,40 @@
         <v>514</v>
       </c>
       <c r="C196" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B197" t="s">
+        <v>517</v>
+      </c>
+      <c r="C197" t="s">
         <v>516</v>
-      </c>
-      <c r="C197" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B198" t="s">
+        <v>519</v>
+      </c>
+      <c r="C198" t="s">
         <v>518</v>
-      </c>
-      <c r="C198" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B199" t="s">
+        <v>521</v>
+      </c>
+      <c r="C199" t="s">
         <v>520</v>
-      </c>
-      <c r="C199" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4792,35 +4801,35 @@
         <v>527</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="B202" t="s">
+        <v>529</v>
+      </c>
+      <c r="C202" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>529</v>
-      </c>
-      <c r="B203" t="s">
-        <v>530</v>
-      </c>
-      <c r="C203" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="B204" t="s">
+        <v>533</v>
+      </c>
+      <c r="C204" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>533</v>
-      </c>
-      <c r="B205" t="s">
-        <v>534</v>
-      </c>
-      <c r="C205" t="s">
         <v>535</v>
       </c>
     </row>
@@ -4840,36 +4849,36 @@
         <v>539</v>
       </c>
       <c r="B207" t="s">
-        <v>64</v>
+        <v>540</v>
       </c>
       <c r="C207" t="s">
-        <v>65</v>
+        <v>541</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="B208" t="s">
-        <v>540</v>
+        <v>64</v>
       </c>
       <c r="C208" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>522</v>
+      </c>
+      <c r="B209" t="s">
+        <v>543</v>
+      </c>
+      <c r="C209" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>542</v>
-      </c>
-      <c r="B210" t="s">
-        <v>543</v>
-      </c>
-      <c r="C210" t="s">
         <v>544</v>
       </c>
     </row>
@@ -4886,13 +4895,13 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>146</v>
+        <v>548</v>
       </c>
       <c r="B212" t="s">
-        <v>147</v>
+        <v>549</v>
       </c>
       <c r="C212" t="s">
-        <v>148</v>
+        <v>550</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4900,15 +4909,15 @@
         <v>149</v>
       </c>
       <c r="B213" t="s">
-        <v>548</v>
+        <v>150</v>
       </c>
       <c r="C213" t="s">
-        <v>549</v>
+        <v>151</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>550</v>
+        <v>152</v>
       </c>
       <c r="B214" t="s">
         <v>551</v>
@@ -4925,18 +4934,18 @@
         <v>554</v>
       </c>
       <c r="C215" t="s">
-        <v>88</v>
+        <v>555</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B216" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C216" t="s">
-        <v>557</v>
+        <v>88</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4996,24 +5005,24 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>522</v>
+        <v>573</v>
       </c>
       <c r="B222" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C222" t="s">
-        <v>524</v>
+        <v>575</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="B223" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C223" t="s">
-        <v>576</v>
+        <v>527</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -5060,28 +5069,28 @@
         <v>588</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="B228" t="s">
+        <v>590</v>
+      </c>
+      <c r="C228" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>11</v>
-      </c>
-      <c r="B229" t="s">
-        <v>559</v>
-      </c>
-      <c r="C229" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>591</v>
+        <v>11</v>
       </c>
       <c r="B230" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="C230" t="s">
         <v>593</v>
@@ -5117,18 +5126,18 @@
         <v>601</v>
       </c>
       <c r="C233" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B234" t="s">
+        <v>604</v>
+      </c>
+      <c r="C234" t="s">
         <v>603</v>
-      </c>
-      <c r="C234" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5147,18 +5156,18 @@
         <v>608</v>
       </c>
       <c r="B236" t="s">
-        <v>203</v>
+        <v>609</v>
       </c>
       <c r="C236" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B237" t="s">
-        <v>611</v>
+        <v>206</v>
       </c>
       <c r="C237" t="s">
         <v>612</v>
@@ -5197,47 +5206,47 @@
         <v>621</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="242" spans="1:3">
+      <c r="B241" t="s">
+        <v>623</v>
+      </c>
+      <c r="C241" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>623</v>
-      </c>
-      <c r="B242" t="s">
-        <v>624</v>
-      </c>
-      <c r="C242" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="244" spans="1:3">
+      <c r="B243" t="s">
+        <v>627</v>
+      </c>
+      <c r="C243" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>11</v>
-      </c>
-      <c r="B244" t="s">
-        <v>67</v>
-      </c>
-      <c r="C244" t="s">
-        <v>68</v>
+        <v>629</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>627</v>
+        <v>11</v>
       </c>
       <c r="B245" t="s">
-        <v>628</v>
+        <v>67</v>
       </c>
       <c r="C245" t="s">
-        <v>629</v>
+        <v>68</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5306,35 +5315,35 @@
         <v>647</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="253" spans="1:3">
+      <c r="B252" t="s">
+        <v>649</v>
+      </c>
+      <c r="C252" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>649</v>
-      </c>
-      <c r="B253" t="s">
-        <v>650</v>
-      </c>
-      <c r="C253" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="255" spans="1:3">
+      <c r="B254" t="s">
+        <v>653</v>
+      </c>
+      <c r="C254" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>653</v>
-      </c>
-      <c r="B255" t="s">
-        <v>654</v>
-      </c>
-      <c r="C255" t="s">
         <v>655</v>
       </c>
     </row>
@@ -5379,18 +5388,18 @@
         <v>666</v>
       </c>
       <c r="C259" t="s">
-        <v>312</v>
+        <v>667</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B260" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C260" t="s">
-        <v>669</v>
+        <v>315</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5404,19 +5413,19 @@
         <v>672</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="263" spans="1:3">
+      <c r="B262" t="s">
+        <v>674</v>
+      </c>
+      <c r="C262" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>674</v>
-      </c>
-      <c r="B263" t="s">
-        <v>675</v>
-      </c>
-      <c r="C263" t="s">
         <v>676</v>
       </c>
     </row>
@@ -5442,35 +5451,35 @@
         <v>682</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="267" spans="1:3">
+      <c r="B266" t="s">
+        <v>684</v>
+      </c>
+      <c r="C266" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>684</v>
-      </c>
-      <c r="B267" t="s">
-        <v>685</v>
-      </c>
-      <c r="C267" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="269" spans="1:3">
+      <c r="B268" t="s">
+        <v>688</v>
+      </c>
+      <c r="C268" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>688</v>
-      </c>
-      <c r="B269" t="s">
-        <v>689</v>
-      </c>
-      <c r="C269" t="s">
         <v>690</v>
       </c>
     </row>
@@ -5485,19 +5494,19 @@
         <v>693</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="272" spans="1:3">
+      <c r="B271" t="s">
+        <v>695</v>
+      </c>
+      <c r="C271" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>695</v>
-      </c>
-      <c r="B272" t="s">
-        <v>696</v>
-      </c>
-      <c r="C272" t="s">
         <v>697</v>
       </c>
     </row>
@@ -5619,18 +5628,18 @@
         <v>729</v>
       </c>
       <c r="C283" t="s">
-        <v>432</v>
+        <v>730</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B284" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C284" t="s">
-        <v>732</v>
+        <v>435</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5641,29 +5650,29 @@
         <v>734</v>
       </c>
       <c r="C285" t="s">
-        <v>296</v>
+        <v>735</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B286" t="s">
-        <v>543</v>
+        <v>737</v>
       </c>
       <c r="C286" t="s">
-        <v>544</v>
+        <v>299</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B287" t="s">
-        <v>737</v>
+        <v>546</v>
       </c>
       <c r="C287" t="s">
-        <v>738</v>
+        <v>547</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5730,13 +5739,24 @@
       </c>
       <c r="C293" t="s">
         <v>756</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>757</v>
+      </c>
+      <c r="B294" t="s">
+        <v>758</v>
+      </c>
+      <c r="C294" t="s">
+        <v>759</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1677256820" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1677311508" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5745,14 +5765,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1677256820" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1677256820" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1677311508" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1677311508" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1677256820" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1677311508" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/pjcone_pwa/assets/data/translate.xlsx
+++ b/pjcone_pwa/assets/data/translate.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1677311508" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1677311508" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1677311508" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1677311508"/>
+      <pm:revision xmlns:pm="smNativeData" day="1677466072" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1677466072" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1677466072" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1677466072"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="782">
   <si>
     <t>#</t>
   </si>
@@ -253,7 +253,10 @@
     <t>Community</t>
   </si>
   <si>
-    <t>커뮤니티</t>
+    <t>커뮤니티 도구</t>
+  </si>
+  <si>
+    <t>Community tools</t>
   </si>
   <si>
     <t>joinRanchat</t>
@@ -272,6 +275,15 @@
   </si>
   <si>
     <t>Join group chat</t>
+  </si>
+  <si>
+    <t>quickQRshare</t>
+  </si>
+  <si>
+    <t>빠른 QR공유</t>
+  </si>
+  <si>
+    <t>Quick QR sharing</t>
   </si>
   <si>
     <t>joinDedi_placeholder</t>
@@ -1508,15 +1520,6 @@
     <t>List of participating servers</t>
   </si>
   <si>
-    <t>DevTestServer</t>
-  </si>
-  <si>
-    <t>개발 테스트 서버</t>
-  </si>
-  <si>
-    <t>Development test server</t>
-  </si>
-  <si>
     <t>HideOfficialDefault</t>
   </si>
   <si>
@@ -1913,6 +1916,63 @@
     <t>Open</t>
   </si>
   <si>
+    <t>## QuickQRShare</t>
+  </si>
+  <si>
+    <t>SelectData</t>
+  </si>
+  <si>
+    <t>공유할 정보</t>
+  </si>
+  <si>
+    <t>Information to share</t>
+  </si>
+  <si>
+    <t>GroupServer</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>그룹</t>
+  </si>
+  <si>
+    <t>EmptyData</t>
+  </si>
+  <si>
+    <t>ReceiveData</t>
+  </si>
+  <si>
+    <t>정보 수신</t>
+  </si>
+  <si>
+    <t>Receiving information</t>
+  </si>
+  <si>
+    <t>SendData</t>
+  </si>
+  <si>
+    <t>발신</t>
+  </si>
+  <si>
+    <t>ShowQR</t>
+  </si>
+  <si>
+    <t>수신QR 보이기</t>
+  </si>
+  <si>
+    <t>Show QR</t>
+  </si>
+  <si>
+    <t>groupserver_dataonly</t>
+  </si>
+  <si>
+    <t>그룹 서버 정보는 사용자 등록 절차가 있어 예상하는 것과 다르게 동작할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Group server information may behave differently than expected due to the user registration process.</t>
+  </si>
+  <si>
     <t>## UseAsServer</t>
   </si>
   <si>
@@ -2241,6 +2301,12 @@
   </si>
   <si>
     <t>ReqContServer</t>
+  </si>
+  <si>
+    <t>서버</t>
+  </si>
+  <si>
+    <t>Server</t>
   </si>
   <si>
     <t>ReqContUserName</t>
@@ -2328,7 +2394,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1677311508" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1677466072" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2350,7 +2416,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1677311508" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1677466072" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2372,7 +2438,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1677311508"/>
+          <pm:border xmlns:pm="smNativeData" id="1677466072"/>
         </ext>
       </extLst>
     </border>
@@ -2391,7 +2457,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1677311508"/>
+          <pm:border xmlns:pm="smNativeData" id="1677466072"/>
         </ext>
       </extLst>
     </border>
@@ -2408,7 +2474,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1677311508" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1677466072" count="1">
         <pm:charStyle name="보통" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -2672,10 +2738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:C294"/>
+  <dimension ref="A1:C303"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="C252" sqref="C252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -3008,317 +3074,317 @@
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>132</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s">
         <v>159</v>
@@ -3326,1273 +3392,1273 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C72" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B73" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C75" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B76" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C76" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B77" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B78" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C78" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>211</v>
+      </c>
+      <c r="B79" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>211</v>
-      </c>
-      <c r="B80" t="s">
-        <v>212</v>
-      </c>
-      <c r="C80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="C81" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="C82" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>223</v>
+      </c>
+      <c r="B84" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" t="s">
-        <v>223</v>
-      </c>
-      <c r="C85" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C86" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C87" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C88" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>235</v>
+      </c>
+      <c r="B89" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>235</v>
-      </c>
-      <c r="B90" t="s">
-        <v>236</v>
-      </c>
-      <c r="C90" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B91" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="C91" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B92" t="s">
-        <v>241</v>
-      </c>
-      <c r="C92" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C93" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B94" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C94" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B95" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C95" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B96" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B98" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C98" t="s">
-        <v>259</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B99" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C99" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B100" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C100" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="C101" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B102" t="s">
-        <v>269</v>
+        <v>186</v>
       </c>
       <c r="C102" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B103" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C103" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B104" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C104" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B105" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C105" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B106" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C106" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>284</v>
+      </c>
+      <c r="B107" t="s">
+        <v>285</v>
+      </c>
+      <c r="C107" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>11</v>
-      </c>
-      <c r="B108" t="s">
-        <v>49</v>
-      </c>
-      <c r="C108" t="s">
-        <v>50</v>
+        <v>287</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="C109" t="s">
-        <v>285</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B110" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="C110" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B111" t="s">
-        <v>25</v>
+        <v>291</v>
       </c>
       <c r="C111" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B112" t="s">
-        <v>292</v>
+        <v>25</v>
       </c>
       <c r="C112" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B113" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C113" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B114" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C114" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>301</v>
+      </c>
+      <c r="B115" t="s">
+        <v>302</v>
+      </c>
+      <c r="C115" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>301</v>
-      </c>
-      <c r="B116" t="s">
-        <v>302</v>
-      </c>
-      <c r="C116" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B117" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C117" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B118" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C118" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B119" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C119" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B120" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C120" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B121" t="s">
-        <v>188</v>
+        <v>318</v>
       </c>
       <c r="C121" t="s">
-        <v>215</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B122" t="s">
-        <v>318</v>
+        <v>192</v>
       </c>
       <c r="C122" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B123" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C123" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B124" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C124" t="s">
-        <v>180</v>
+        <v>326</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B125" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C125" t="s">
-        <v>327</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>178</v>
+        <v>329</v>
       </c>
       <c r="B126" t="s">
-        <v>179</v>
+        <v>330</v>
       </c>
       <c r="C126" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>329</v>
+        <v>182</v>
       </c>
       <c r="B127" t="s">
-        <v>330</v>
+        <v>183</v>
       </c>
       <c r="C127" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B128" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C128" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B129" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C129" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B130" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C130" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B131" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C131" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B132" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C132" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B133" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C133" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B134" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C134" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B135" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C135" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B136" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C136" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B137" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C137" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>363</v>
+      </c>
+      <c r="B138" t="s">
+        <v>364</v>
+      </c>
+      <c r="C138" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>11</v>
-      </c>
-      <c r="B139" t="s">
-        <v>363</v>
-      </c>
-      <c r="C139" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>365</v>
+        <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C140" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>369</v>
+      </c>
+      <c r="B141" t="s">
+        <v>370</v>
+      </c>
+      <c r="C141" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>368</v>
-      </c>
-      <c r="B142" t="s">
-        <v>369</v>
-      </c>
-      <c r="C142" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B143" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C143" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B144" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C144" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B145" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C145" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B146" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C146" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>384</v>
+      </c>
+      <c r="B147" t="s">
+        <v>385</v>
+      </c>
+      <c r="C147" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>384</v>
-      </c>
-      <c r="B148" t="s">
-        <v>385</v>
-      </c>
-      <c r="C148" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B149" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C149" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B150" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C150" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B151" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C151" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B152" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C152" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B153" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C153" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B154" t="s">
-        <v>314</v>
+        <v>404</v>
       </c>
       <c r="C154" t="s">
-        <v>315</v>
+        <v>405</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>329</v>
+        <v>406</v>
       </c>
       <c r="B155" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C155" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>403</v>
+        <v>333</v>
       </c>
       <c r="B156" t="s">
-        <v>404</v>
+        <v>334</v>
       </c>
       <c r="C156" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B157" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C157" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B158" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C158" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B159" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C159" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B160" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C160" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B161" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C161" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B162" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C162" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B163" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C163" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B164" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C164" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B165" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C165" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B166" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C166" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B167" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C167" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B168" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C168" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B169" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C169" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B170" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C170" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B171" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C171" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B172" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C172" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B173" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C173" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B174" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C174" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B175" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C175" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B176" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C176" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B177" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C177" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B178" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C178" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>473</v>
+      </c>
+      <c r="B179" t="s">
+        <v>474</v>
+      </c>
+      <c r="C179" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>473</v>
-      </c>
-      <c r="B180" t="s">
-        <v>474</v>
-      </c>
-      <c r="C180" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B181" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C181" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B182" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C182" t="s">
         <v>480</v>
@@ -4600,264 +4666,264 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B183" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C183" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B184" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C184" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>488</v>
+      </c>
+      <c r="B185" t="s">
+        <v>489</v>
+      </c>
+      <c r="C185" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>488</v>
-      </c>
-      <c r="B186" t="s">
-        <v>489</v>
-      </c>
-      <c r="C186" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B187" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C187" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B188" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C188" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B189" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C189" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B190" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C190" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B191" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B192" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C192" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B193" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C193" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B194" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C194" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B195" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C195" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B196" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C196" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B197" t="s">
+        <v>518</v>
+      </c>
+      <c r="C197" t="s">
         <v>517</v>
-      </c>
-      <c r="C197" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B198" t="s">
+        <v>520</v>
+      </c>
+      <c r="C198" t="s">
         <v>519</v>
-      </c>
-      <c r="C198" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B199" t="s">
+        <v>522</v>
+      </c>
+      <c r="C199" t="s">
         <v>521</v>
-      </c>
-      <c r="C199" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B200" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C200" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B201" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C201" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B202" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C202" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B204" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C204" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B206" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C206" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B207" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C207" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B208" t="s">
         <v>64</v>
@@ -4868,221 +4934,221 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B209" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C209" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B211" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C211" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B212" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C212" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B213" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C213" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B214" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C214" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B215" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C215" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B216" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C216" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B217" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C217" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B218" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C218" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B219" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C219" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B220" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C220" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B221" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C221" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B222" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C222" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B223" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C223" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B224" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C224" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B225" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C225" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B226" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C226" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B227" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C227" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B228" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C228" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5090,182 +5156,182 @@
         <v>11</v>
       </c>
       <c r="B230" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C230" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B231" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C231" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B232" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C232" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B233" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C233" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B234" t="s">
+        <v>605</v>
+      </c>
+      <c r="C234" t="s">
         <v>604</v>
-      </c>
-      <c r="C234" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B235" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C235" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B236" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C236" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B237" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C237" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B238" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C238" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B239" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C239" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B240" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C240" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B241" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C241" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B243" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C243" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>11</v>
+        <v>631</v>
       </c>
       <c r="B245" t="s">
-        <v>67</v>
+        <v>632</v>
       </c>
       <c r="C245" t="s">
-        <v>68</v>
+        <v>633</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B246" t="s">
-        <v>631</v>
+        <v>61</v>
       </c>
       <c r="C246" t="s">
-        <v>632</v>
+        <v>62</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B247" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C247" t="s">
         <v>635</v>
@@ -5273,490 +5339,583 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B248" t="s">
-        <v>637</v>
+        <v>186</v>
       </c>
       <c r="C248" t="s">
-        <v>638</v>
+        <v>271</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
+        <v>638</v>
+      </c>
+      <c r="B249" t="s">
         <v>639</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" t="s">
         <v>640</v>
-      </c>
-      <c r="C249" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
+        <v>641</v>
+      </c>
+      <c r="B250" t="s">
         <v>642</v>
       </c>
-      <c r="B250" t="s">
-        <v>643</v>
-      </c>
       <c r="C250" t="s">
-        <v>644</v>
+        <v>319</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
+        <v>643</v>
+      </c>
+      <c r="B251" t="s">
+        <v>644</v>
+      </c>
+      <c r="C251" t="s">
         <v>645</v>
-      </c>
-      <c r="B251" t="s">
-        <v>646</v>
-      </c>
-      <c r="C251" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
+        <v>646</v>
+      </c>
+      <c r="B252" t="s">
+        <v>647</v>
+      </c>
+      <c r="C252" t="s">
         <v>648</v>
-      </c>
-      <c r="B252" t="s">
-        <v>649</v>
-      </c>
-      <c r="C252" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254" t="s">
+        <v>67</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>650</v>
+      </c>
+      <c r="B255" t="s">
+        <v>651</v>
+      </c>
+      <c r="C255" t="s">
         <v>652</v>
-      </c>
-      <c r="B254" t="s">
-        <v>653</v>
-      </c>
-      <c r="C254" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B256" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C256" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B257" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C257" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B258" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C258" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B259" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C259" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B260" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C260" t="s">
-        <v>315</v>
+        <v>667</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
+        <v>668</v>
+      </c>
+      <c r="B261" t="s">
+        <v>669</v>
+      </c>
+      <c r="C261" t="s">
         <v>670</v>
       </c>
-      <c r="B261" t="s">
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
         <v>671</v>
       </c>
-      <c r="C261" t="s">
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" t="s">
+      <c r="B263" t="s">
         <v>673</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C263" t="s">
         <v>674</v>
       </c>
-      <c r="C262" t="s">
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
         <v>675</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" t="s">
-        <v>677</v>
-      </c>
-      <c r="B264" t="s">
-        <v>678</v>
-      </c>
-      <c r="C264" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B265" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C265" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
+        <v>679</v>
+      </c>
+      <c r="B266" t="s">
+        <v>680</v>
+      </c>
+      <c r="C266" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>682</v>
+      </c>
+      <c r="B267" t="s">
         <v>683</v>
       </c>
-      <c r="B266" t="s">
+      <c r="C267" t="s">
         <v>684</v>
-      </c>
-      <c r="C266" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
+        <v>685</v>
+      </c>
+      <c r="B268" t="s">
+        <v>686</v>
+      </c>
+      <c r="C268" t="s">
         <v>687</v>
       </c>
-      <c r="B268" t="s">
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
         <v>688</v>
       </c>
-      <c r="C268" t="s">
+      <c r="B269" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
-        <v>690</v>
+      <c r="C269" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
+        <v>690</v>
+      </c>
+      <c r="B270" t="s">
         <v>691</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" t="s">
         <v>692</v>
-      </c>
-      <c r="C270" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
+        <v>693</v>
+      </c>
+      <c r="B271" t="s">
         <v>694</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" t="s">
         <v>695</v>
-      </c>
-      <c r="C271" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
+        <v>697</v>
+      </c>
+      <c r="B273" t="s">
         <v>698</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" t="s">
         <v>699</v>
-      </c>
-      <c r="C273" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
+        <v>700</v>
+      </c>
+      <c r="B274" t="s">
         <v>701</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C274" t="s">
         <v>702</v>
-      </c>
-      <c r="C274" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
+        <v>703</v>
+      </c>
+      <c r="B275" t="s">
         <v>704</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" t="s">
         <v>705</v>
       </c>
-      <c r="C275" t="s">
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
         <v>706</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" t="s">
-        <v>707</v>
-      </c>
-      <c r="B276" t="s">
-        <v>708</v>
-      </c>
-      <c r="C276" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
+        <v>707</v>
+      </c>
+      <c r="B277" t="s">
+        <v>708</v>
+      </c>
+      <c r="C277" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
         <v>710</v>
-      </c>
-      <c r="B277" t="s">
-        <v>711</v>
-      </c>
-      <c r="C277" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" t="s">
-        <v>713</v>
-      </c>
-      <c r="B278" t="s">
-        <v>714</v>
-      </c>
-      <c r="C278" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B279" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C279" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B280" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C280" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>722</v>
-      </c>
-      <c r="B281" t="s">
-        <v>723</v>
-      </c>
-      <c r="C281" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B282" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C282" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B283" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C283" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B284" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C284" t="s">
-        <v>435</v>
+        <v>726</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B285" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C285" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B286" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C286" t="s">
-        <v>299</v>
+        <v>732</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B287" t="s">
-        <v>546</v>
+        <v>734</v>
       </c>
       <c r="C287" t="s">
-        <v>547</v>
+        <v>735</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B288" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C288" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B289" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C289" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B290" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C290" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B291" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C291" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B292" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C292" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B293" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C293" t="s">
-        <v>756</v>
+        <v>439</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
+        <v>753</v>
+      </c>
+      <c r="B294" t="s">
+        <v>754</v>
+      </c>
+      <c r="C294" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>756</v>
+      </c>
+      <c r="B295" t="s">
         <v>757</v>
       </c>
-      <c r="B294" t="s">
+      <c r="C295" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
         <v>758</v>
       </c>
-      <c r="C294" t="s">
+      <c r="B296" t="s">
         <v>759</v>
+      </c>
+      <c r="C296" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>761</v>
+      </c>
+      <c r="B297" t="s">
+        <v>762</v>
+      </c>
+      <c r="C297" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>764</v>
+      </c>
+      <c r="B298" t="s">
+        <v>765</v>
+      </c>
+      <c r="C298" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>767</v>
+      </c>
+      <c r="B299" t="s">
+        <v>768</v>
+      </c>
+      <c r="C299" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>770</v>
+      </c>
+      <c r="B300" t="s">
+        <v>771</v>
+      </c>
+      <c r="C300" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>773</v>
+      </c>
+      <c r="B301" t="s">
+        <v>774</v>
+      </c>
+      <c r="C301" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>776</v>
+      </c>
+      <c r="B302" t="s">
+        <v>777</v>
+      </c>
+      <c r="C302" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>779</v>
+      </c>
+      <c r="B303" t="s">
+        <v>780</v>
+      </c>
+      <c r="C303" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1677311508" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1677466072" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5765,14 +5924,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1677311508" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1677311508" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1677466072" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1677466072" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1677311508" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1677466072" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/pjcone_pwa/assets/data/translate.xlsx
+++ b/pjcone_pwa/assets/data/translate.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1677466072" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1677466072" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1677466072" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1677466072"/>
+      <pm:revision xmlns:pm="smNativeData" day="1677838549" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1677838549" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1677838549" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1677838549"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="797">
   <si>
     <t>#</t>
   </si>
@@ -55,12 +55,249 @@
     <t>설정</t>
   </si>
   <si>
+    <t>## TodoDetail</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>해야할 일</t>
+  </si>
+  <si>
+    <t>Todo detail</t>
+  </si>
+  <si>
+    <t>OnThisDevice</t>
+  </si>
+  <si>
+    <t>이 기기에서</t>
+  </si>
+  <si>
+    <t>On this device</t>
+  </si>
+  <si>
+    <t>WrittenByMe</t>
+  </si>
+  <si>
+    <t>내가 작성</t>
+  </si>
+  <si>
+    <t>Written by me</t>
+  </si>
+  <si>
+    <t>TodoComplete</t>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>TodoMoveTo</t>
+  </si>
+  <si>
+    <t>이관</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>TodoFocus</t>
+  </si>
+  <si>
+    <t>집중</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>표시명</t>
+  </si>
+  <si>
+    <t>Display name</t>
+  </si>
+  <si>
+    <t>DisplayName_placeholder</t>
+  </si>
+  <si>
+    <t>짧게</t>
+  </si>
+  <si>
+    <t>briefly</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>중요도</t>
+  </si>
+  <si>
+    <t>Importance_2</t>
+  </si>
+  <si>
+    <t>중요함</t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>Importance_1</t>
+  </si>
+  <si>
+    <t>기억해야 함</t>
+  </si>
+  <si>
+    <t>Must remember</t>
+  </si>
+  <si>
+    <t>Importance_0</t>
+  </si>
+  <si>
+    <t>메모</t>
+  </si>
+  <si>
+    <t>Memo</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>기한</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>상세 내용</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>description_placeholder</t>
+  </si>
+  <si>
+    <t>해야할 일 상세 내용</t>
+  </si>
+  <si>
+    <t>Todo details</t>
+  </si>
+  <si>
+    <t>delete_attach</t>
+  </si>
+  <si>
+    <t>이미지 삭제</t>
+  </si>
+  <si>
+    <t>Remove image</t>
+  </si>
+  <si>
+    <t>attachments</t>
+  </si>
+  <si>
+    <t>첨부파일</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>attachments_none</t>
+  </si>
+  <si>
+    <t>없음</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>logs</t>
+  </si>
+  <si>
+    <t>기록</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>삭제</t>
+  </si>
+  <si>
+    <t>Remove todo</t>
+  </si>
+  <si>
+    <t>buttonDisplay_add</t>
+  </si>
+  <si>
+    <t>추가</t>
+  </si>
+  <si>
+    <t>Add todo</t>
+  </si>
+  <si>
+    <t>buttonDisplay_modify</t>
+  </si>
+  <si>
+    <t>수정</t>
+  </si>
+  <si>
+    <t>Modify detail</t>
+  </si>
+  <si>
+    <t>needDisplayName</t>
+  </si>
+  <si>
+    <t>표시명을 작성하여야 합니다.</t>
+  </si>
+  <si>
+    <t>Display name must be written</t>
+  </si>
+  <si>
+    <t>CreateTodo</t>
+  </si>
+  <si>
+    <t>해야할 일 생성</t>
+  </si>
+  <si>
+    <t>Create todo</t>
+  </si>
+  <si>
+    <t>ModifyTodo</t>
+  </si>
+  <si>
+    <t>해야할 일 수정</t>
+  </si>
+  <si>
+    <t>Modify todo</t>
+  </si>
+  <si>
+    <t>removeTodo</t>
+  </si>
+  <si>
+    <t>기록 삭제</t>
+  </si>
+  <si>
+    <t>terminateTodo</t>
+  </si>
+  <si>
+    <t>이 작업은 되돌릴 수 없습니다.</t>
+  </si>
+  <si>
+    <t>This action cannot be undone.</t>
+  </si>
+  <si>
     <t>## Main</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>할 일 목록</t>
   </si>
   <si>
@@ -169,724 +406,532 @@
     <t>Ads Contact</t>
   </si>
   <si>
-    <t>UserInfo</t>
+    <t>env_info</t>
+  </si>
+  <si>
+    <t>사용 환경 설정</t>
+  </si>
+  <si>
+    <t>Preferences</t>
+  </si>
+  <si>
+    <t>myInfo</t>
+  </si>
+  <si>
+    <t>내 정보</t>
+  </si>
+  <si>
+    <t>My info</t>
+  </si>
+  <si>
+    <t>takeOverUser</t>
+  </si>
+  <si>
+    <t>사용자 인계</t>
+  </si>
+  <si>
+    <t>User override</t>
+  </si>
+  <si>
+    <t>ManageServer</t>
+  </si>
+  <si>
+    <t>서버 관리</t>
+  </si>
+  <si>
+    <t>Manage server</t>
+  </si>
+  <si>
+    <t>groupServer</t>
+  </si>
+  <si>
+    <t>그룹 서버</t>
+  </si>
+  <si>
+    <t>Group server</t>
+  </si>
+  <si>
+    <t>commServer</t>
+  </si>
+  <si>
+    <t>커뮤니티 서버</t>
+  </si>
+  <si>
+    <t>Community server</t>
+  </si>
+  <si>
+    <t>useDeviceAsServer</t>
+  </si>
+  <si>
+    <t>이 기기를 기능 서버로</t>
+  </si>
+  <si>
+    <t>Use this device as a functional server</t>
+  </si>
+  <si>
+    <t>ManageGroup</t>
+  </si>
+  <si>
+    <t>그룹 관리</t>
+  </si>
+  <si>
+    <t>Manage group</t>
+  </si>
+  <si>
+    <t>CreateGroup</t>
+  </si>
+  <si>
+    <t>그룹 생성하기</t>
+  </si>
+  <si>
+    <t>Create a group</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>커뮤니티 도구</t>
+  </si>
+  <si>
+    <t>Community tools</t>
+  </si>
+  <si>
+    <t>joinRanchat</t>
+  </si>
+  <si>
+    <t>랜덤채팅 참여</t>
+  </si>
+  <si>
+    <t>Join random chat</t>
+  </si>
+  <si>
+    <t>joinDediChat</t>
+  </si>
+  <si>
+    <t>사설 그룹채팅</t>
+  </si>
+  <si>
+    <t>Join group chat</t>
+  </si>
+  <si>
+    <t>quickQRshare</t>
+  </si>
+  <si>
+    <t>빠른 QR공유</t>
+  </si>
+  <si>
+    <t>Quick QR sharing</t>
+  </si>
+  <si>
+    <t>joinDedi_placeholder</t>
+  </si>
+  <si>
+    <t>기본</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>joinDedi_button</t>
+  </si>
+  <si>
+    <t>참여</t>
+  </si>
+  <si>
+    <t>Join</t>
+  </si>
+  <si>
+    <t>admin_community_menu</t>
+  </si>
+  <si>
+    <t>커뮤니티 관리자 메뉴</t>
+  </si>
+  <si>
+    <t>Community manager menu</t>
+  </si>
+  <si>
+    <t>admin_noti_all</t>
+  </si>
+  <si>
+    <t>전체 사용자 공지</t>
+  </si>
+  <si>
+    <t>All user notice</t>
+  </si>
+  <si>
+    <t>notifications</t>
+  </si>
+  <si>
+    <t>알림</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>NotificationSetting</t>
+  </si>
+  <si>
+    <t>알림 설정</t>
+  </si>
+  <si>
+    <t>Notification settings</t>
+  </si>
+  <si>
+    <t>batteryOptimization</t>
+  </si>
+  <si>
+    <t>배터리 최적화 제외 설정</t>
+  </si>
+  <si>
+    <t>Battery Optimization Exclusion Settings</t>
+  </si>
+  <si>
+    <t>ToolManage</t>
+  </si>
+  <si>
+    <t>도구 관리</t>
+  </si>
+  <si>
+    <t>Manage tools</t>
+  </si>
+  <si>
+    <t>ToolList</t>
+  </si>
+  <si>
+    <t>도구 리스트</t>
+  </si>
+  <si>
+    <t>Tool list</t>
+  </si>
+  <si>
+    <t>AppInfo</t>
+  </si>
+  <si>
+    <t>앱 정보</t>
+  </si>
+  <si>
+    <t>App info</t>
+  </si>
+  <si>
+    <t>AppCreator</t>
+  </si>
+  <si>
+    <t>제작자</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>AppTranslator</t>
+  </si>
+  <si>
+    <t>번역가</t>
+  </si>
+  <si>
+    <t>Translator</t>
+  </si>
+  <si>
+    <t>AppLanguage</t>
+  </si>
+  <si>
+    <t>언어 설정</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>userPrivacyTerms</t>
+  </si>
+  <si>
+    <t>개인정보처리방침</t>
+  </si>
+  <si>
+    <t>Privacy policy</t>
+  </si>
+  <si>
+    <t>LicenseNotice</t>
+  </si>
+  <si>
+    <t>라이선스 고지</t>
+  </si>
+  <si>
+    <t>License Notice</t>
+  </si>
+  <si>
+    <t>UserGuideLink</t>
+  </si>
+  <si>
+    <t>사용자 가이드</t>
+  </si>
+  <si>
+    <t>User guide</t>
+  </si>
+  <si>
+    <t>## NotificationSettings</t>
+  </si>
+  <si>
+    <t>set_alert</t>
+  </si>
+  <si>
+    <t>알림 받기</t>
+  </si>
+  <si>
+    <t>Get notifications</t>
+  </si>
+  <si>
+    <t>icon_mono</t>
+  </si>
+  <si>
+    <t>기본 앱 알림</t>
+  </si>
+  <si>
+    <t>diychat</t>
+  </si>
+  <si>
+    <t>Nakama 채널</t>
+  </si>
+  <si>
+    <t>Nakama channel</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>simplechat</t>
+  </si>
+  <si>
+    <t>미니채팅</t>
+  </si>
+  <si>
+    <t>Mini-chat</t>
+  </si>
+  <si>
+    <t>## ToolManager</t>
+  </si>
+  <si>
+    <t>Redownload</t>
+  </si>
+  <si>
+    <t>다시받기</t>
+  </si>
+  <si>
+    <t>Re-download</t>
+  </si>
+  <si>
+    <t>removeTool</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>redownloadSucc</t>
+  </si>
+  <si>
+    <t>다시받기 성공</t>
+  </si>
+  <si>
+    <t>Re-download successful</t>
+  </si>
+  <si>
+    <t>redownloadFailed</t>
+  </si>
+  <si>
+    <t>다시받기 실패</t>
+  </si>
+  <si>
+    <t>Re-download failed</t>
+  </si>
+  <si>
+    <t>## QRElse</t>
+  </si>
+  <si>
+    <t>사용할 수 없는 구성</t>
+  </si>
+  <si>
+    <t>Configuration not available</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>QR코드 또는 바코드를 인식하였으나 이 앱에서 사용하는 구성이 아닙니다.</t>
+  </si>
+  <si>
+    <t>A QR code or barcode was recognized. but this is not the configuration used by this app.</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>종류</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>contents</t>
+  </si>
+  <si>
+    <t>내용</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>## Profile</t>
+  </si>
+  <si>
+    <t>img_alt</t>
+  </si>
+  <si>
+    <t>프로필 이미지</t>
+  </si>
+  <si>
+    <t>Profile_img</t>
+  </si>
+  <si>
+    <t>noname_user</t>
+  </si>
+  <si>
+    <t>이름 없는 사용자</t>
+  </si>
+  <si>
+    <t>name_placeholder</t>
+  </si>
+  <si>
+    <t>사용자 이름</t>
+  </si>
+  <si>
+    <t>Unnamed user</t>
+  </si>
+  <si>
+    <t>enterURI</t>
+  </si>
+  <si>
+    <t>이미지 주소 입력하기</t>
+  </si>
+  <si>
+    <t>Enter image URL</t>
+  </si>
+  <si>
+    <t>change_img</t>
+  </si>
+  <si>
+    <t>이미지 변경</t>
+  </si>
+  <si>
+    <t>Change image</t>
+  </si>
+  <si>
+    <t>login_info</t>
+  </si>
+  <si>
+    <t>로그인 정보</t>
+  </si>
+  <si>
+    <t>Login info</t>
+  </si>
+  <si>
+    <t>email_address</t>
+  </si>
+  <si>
+    <t>이메일 주소</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>user_display_name</t>
+  </si>
+  <si>
+    <t>사용자 표시명</t>
+  </si>
+  <si>
+    <t>login_toggle</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>main_content</t>
+  </si>
+  <si>
+    <t>메인 콘텐츠</t>
+  </si>
+  <si>
+    <t>Main contents</t>
+  </si>
+  <si>
+    <t>not_available_yet</t>
+  </si>
+  <si>
+    <t>기능 준비중</t>
+  </si>
+  <si>
+    <t>Feature in preparation</t>
+  </si>
+  <si>
+    <t>no_main_content</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>user_img_changed</t>
+  </si>
+  <si>
+    <t>사용자 이미지 변경</t>
+  </si>
+  <si>
+    <t>User image changed</t>
+  </si>
+  <si>
+    <t>need_email</t>
+  </si>
+  <si>
+    <t>이메일 주소가 있어야 온라인으로 전환하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>You must have an email address to go online.</t>
+  </si>
+  <si>
+    <t>pasteURI</t>
+  </si>
+  <si>
+    <t>눌러서 외부이미지 주소 붙여넣기</t>
+  </si>
+  <si>
+    <t>Click to paste external image address</t>
+  </si>
+  <si>
+    <t>copyURIFirst</t>
+  </si>
+  <si>
+    <t>먼저 웹 페이지에서 이미지 주소를 복사해주세요</t>
+  </si>
+  <si>
+    <t>Copy the image address from the web page first</t>
+  </si>
+  <si>
+    <t>user_profile_changed</t>
+  </si>
+  <si>
+    <t>사용자 프로필 변경</t>
+  </si>
+  <si>
+    <t>Change user profile</t>
+  </si>
+  <si>
+    <t>## OtherProfile</t>
   </si>
   <si>
     <t>사용자 정보</t>
   </si>
   <si>
     <t>User info</t>
-  </si>
-  <si>
-    <t>myInfo</t>
-  </si>
-  <si>
-    <t>내 정보</t>
-  </si>
-  <si>
-    <t>My info</t>
-  </si>
-  <si>
-    <t>takeOverUser</t>
-  </si>
-  <si>
-    <t>사용자 인계</t>
-  </si>
-  <si>
-    <t>User override</t>
-  </si>
-  <si>
-    <t>ManageServer</t>
-  </si>
-  <si>
-    <t>서버 관리</t>
-  </si>
-  <si>
-    <t>Manage server</t>
-  </si>
-  <si>
-    <t>groupServer</t>
-  </si>
-  <si>
-    <t>그룹 서버</t>
-  </si>
-  <si>
-    <t>Group server</t>
-  </si>
-  <si>
-    <t>commServer</t>
-  </si>
-  <si>
-    <t>커뮤니티 서버</t>
-  </si>
-  <si>
-    <t>Community server</t>
-  </si>
-  <si>
-    <t>useDeviceAsServer</t>
-  </si>
-  <si>
-    <t>이 기기를 기능 서버로</t>
-  </si>
-  <si>
-    <t>Use this device as a functional server</t>
-  </si>
-  <si>
-    <t>ManageGroup</t>
-  </si>
-  <si>
-    <t>그룹 관리</t>
-  </si>
-  <si>
-    <t>Manage group</t>
-  </si>
-  <si>
-    <t>CreateGroup</t>
-  </si>
-  <si>
-    <t>그룹 생성하기</t>
-  </si>
-  <si>
-    <t>Create a group</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>커뮤니티 도구</t>
-  </si>
-  <si>
-    <t>Community tools</t>
-  </si>
-  <si>
-    <t>joinRanchat</t>
-  </si>
-  <si>
-    <t>랜덤채팅 참여</t>
-  </si>
-  <si>
-    <t>Join random chat</t>
-  </si>
-  <si>
-    <t>joinDediChat</t>
-  </si>
-  <si>
-    <t>사설 그룹채팅</t>
-  </si>
-  <si>
-    <t>Join group chat</t>
-  </si>
-  <si>
-    <t>quickQRshare</t>
-  </si>
-  <si>
-    <t>빠른 QR공유</t>
-  </si>
-  <si>
-    <t>Quick QR sharing</t>
-  </si>
-  <si>
-    <t>joinDedi_placeholder</t>
-  </si>
-  <si>
-    <t>기본</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>joinDedi_button</t>
-  </si>
-  <si>
-    <t>참여</t>
-  </si>
-  <si>
-    <t>Join</t>
-  </si>
-  <si>
-    <t>admin_community_menu</t>
-  </si>
-  <si>
-    <t>커뮤니티 관리자 메뉴</t>
-  </si>
-  <si>
-    <t>Community manager menu</t>
-  </si>
-  <si>
-    <t>admin_noti_all</t>
-  </si>
-  <si>
-    <t>전체 사용자 공지</t>
-  </si>
-  <si>
-    <t>All user notice</t>
-  </si>
-  <si>
-    <t>notifications</t>
-  </si>
-  <si>
-    <t>알림</t>
-  </si>
-  <si>
-    <t>Notifications</t>
-  </si>
-  <si>
-    <t>slient_noti</t>
-  </si>
-  <si>
-    <t>알림 무시</t>
-  </si>
-  <si>
-    <t>Ignore notifications</t>
-  </si>
-  <si>
-    <t>batteryOptimization</t>
-  </si>
-  <si>
-    <t>배터리 최적화 제외 설정</t>
-  </si>
-  <si>
-    <t>Battery Optimization Exclusion Settings</t>
-  </si>
-  <si>
-    <t>ToolManage</t>
-  </si>
-  <si>
-    <t>도구 관리</t>
-  </si>
-  <si>
-    <t>Manage tools</t>
-  </si>
-  <si>
-    <t>ToolList</t>
-  </si>
-  <si>
-    <t>도구 리스트</t>
-  </si>
-  <si>
-    <t>Tool list</t>
-  </si>
-  <si>
-    <t>AppInfo</t>
-  </si>
-  <si>
-    <t>앱 정보</t>
-  </si>
-  <si>
-    <t>App info</t>
-  </si>
-  <si>
-    <t>AppCreator</t>
-  </si>
-  <si>
-    <t>제작자</t>
-  </si>
-  <si>
-    <t>Creator</t>
-  </si>
-  <si>
-    <t>AppTranslator</t>
-  </si>
-  <si>
-    <t>번역가</t>
-  </si>
-  <si>
-    <t>Translator</t>
-  </si>
-  <si>
-    <t>AppLanguage</t>
-  </si>
-  <si>
-    <t>언어 설정</t>
-  </si>
-  <si>
-    <t>Languages</t>
-  </si>
-  <si>
-    <t>userPrivacyTerms</t>
-  </si>
-  <si>
-    <t>개인정보처리방침</t>
-  </si>
-  <si>
-    <t>Privacy policy</t>
-  </si>
-  <si>
-    <t>LicenseNotice</t>
-  </si>
-  <si>
-    <t>라이선스 고지</t>
-  </si>
-  <si>
-    <t>License Notice</t>
-  </si>
-  <si>
-    <t>UserGuideLink</t>
-  </si>
-  <si>
-    <t>사용자 가이드</t>
-  </si>
-  <si>
-    <t>User guide</t>
-  </si>
-  <si>
-    <t>## TodoDetail</t>
-  </si>
-  <si>
-    <t>해야할 일</t>
-  </si>
-  <si>
-    <t>Todo detail</t>
-  </si>
-  <si>
-    <t>OnThisDevice</t>
-  </si>
-  <si>
-    <t>이 기기에서</t>
-  </si>
-  <si>
-    <t>On this device</t>
-  </si>
-  <si>
-    <t>WrittenByMe</t>
-  </si>
-  <si>
-    <t>내가 작성</t>
-  </si>
-  <si>
-    <t>Written by me</t>
-  </si>
-  <si>
-    <t>TodoComplete</t>
-  </si>
-  <si>
-    <t>완료</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>TodoMoveTo</t>
-  </si>
-  <si>
-    <t>이관</t>
-  </si>
-  <si>
-    <t>Move</t>
-  </si>
-  <si>
-    <t>TodoFocus</t>
-  </si>
-  <si>
-    <t>집중</t>
-  </si>
-  <si>
-    <t>Focus</t>
-  </si>
-  <si>
-    <t>DisplayName</t>
-  </si>
-  <si>
-    <t>표시명</t>
-  </si>
-  <si>
-    <t>Display name</t>
-  </si>
-  <si>
-    <t>DisplayName_placeholder</t>
-  </si>
-  <si>
-    <t>짧게</t>
-  </si>
-  <si>
-    <t>briefly</t>
-  </si>
-  <si>
-    <t>Importance</t>
-  </si>
-  <si>
-    <t>중요도</t>
-  </si>
-  <si>
-    <t>Importance_2</t>
-  </si>
-  <si>
-    <t>중요함</t>
-  </si>
-  <si>
-    <t>Important</t>
-  </si>
-  <si>
-    <t>Importance_1</t>
-  </si>
-  <si>
-    <t>기억해야 함</t>
-  </si>
-  <si>
-    <t>Must remember</t>
-  </si>
-  <si>
-    <t>Importance_0</t>
-  </si>
-  <si>
-    <t>메모</t>
-  </si>
-  <si>
-    <t>Memo</t>
-  </si>
-  <si>
-    <t>limit</t>
-  </si>
-  <si>
-    <t>기한</t>
-  </si>
-  <si>
-    <t>Deadline</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>상세 내용</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>description_placeholder</t>
-  </si>
-  <si>
-    <t>해야할 일 상세 내용</t>
-  </si>
-  <si>
-    <t>Todo details</t>
-  </si>
-  <si>
-    <t>delete_attach</t>
-  </si>
-  <si>
-    <t>이미지 삭제</t>
-  </si>
-  <si>
-    <t>Remove image</t>
-  </si>
-  <si>
-    <t>attachments</t>
-  </si>
-  <si>
-    <t>첨부파일</t>
-  </si>
-  <si>
-    <t>Attachments</t>
-  </si>
-  <si>
-    <t>attachments_none</t>
-  </si>
-  <si>
-    <t>없음</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>logs</t>
-  </si>
-  <si>
-    <t>기록</t>
-  </si>
-  <si>
-    <t>Logs</t>
-  </si>
-  <si>
-    <t>remove</t>
-  </si>
-  <si>
-    <t>삭제</t>
-  </si>
-  <si>
-    <t>Remove todo</t>
-  </si>
-  <si>
-    <t>buttonDisplay_add</t>
-  </si>
-  <si>
-    <t>추가</t>
-  </si>
-  <si>
-    <t>Add todo</t>
-  </si>
-  <si>
-    <t>buttonDisplay_modify</t>
-  </si>
-  <si>
-    <t>수정</t>
-  </si>
-  <si>
-    <t>Modify detail</t>
-  </si>
-  <si>
-    <t>needDisplayName</t>
-  </si>
-  <si>
-    <t>표시명을 작성하여야 합니다.</t>
-  </si>
-  <si>
-    <t>Display name must be written</t>
-  </si>
-  <si>
-    <t>CreateTodo</t>
-  </si>
-  <si>
-    <t>해야할 일 생성</t>
-  </si>
-  <si>
-    <t>Create todo</t>
-  </si>
-  <si>
-    <t>ModifyTodo</t>
-  </si>
-  <si>
-    <t>해야할 일 수정</t>
-  </si>
-  <si>
-    <t>Modify todo</t>
-  </si>
-  <si>
-    <t>removeTodo</t>
-  </si>
-  <si>
-    <t>기록 삭제</t>
-  </si>
-  <si>
-    <t>terminateTodo</t>
-  </si>
-  <si>
-    <t>이 작업은 되돌릴 수 없습니다.</t>
-  </si>
-  <si>
-    <t>This action cannot be undone.</t>
-  </si>
-  <si>
-    <t>## ToolManager</t>
-  </si>
-  <si>
-    <t>Redownload</t>
-  </si>
-  <si>
-    <t>다시받기</t>
-  </si>
-  <si>
-    <t>Re-download</t>
-  </si>
-  <si>
-    <t>removeTool</t>
-  </si>
-  <si>
-    <t>Remove</t>
-  </si>
-  <si>
-    <t>redownloadSucc</t>
-  </si>
-  <si>
-    <t>다시받기 성공</t>
-  </si>
-  <si>
-    <t>Re-download successful</t>
-  </si>
-  <si>
-    <t>redownloadFailed</t>
-  </si>
-  <si>
-    <t>다시받기 실패</t>
-  </si>
-  <si>
-    <t>Re-download failed</t>
-  </si>
-  <si>
-    <t>## QRElse</t>
-  </si>
-  <si>
-    <t>사용할 수 없는 구성</t>
-  </si>
-  <si>
-    <t>Configuration not available</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>QR코드 또는 바코드를 인식하였으나 이 앱에서 사용하는 구성이 아닙니다.</t>
-  </si>
-  <si>
-    <t>A QR code or barcode was recognized. but this is not the configuration used by this app.</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>종류</t>
-  </si>
-  <si>
-    <t>Format</t>
-  </si>
-  <si>
-    <t>contents</t>
-  </si>
-  <si>
-    <t>내용</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>## Profile</t>
-  </si>
-  <si>
-    <t>img_alt</t>
-  </si>
-  <si>
-    <t>프로필 이미지</t>
-  </si>
-  <si>
-    <t>Profile_img</t>
-  </si>
-  <si>
-    <t>noname_user</t>
-  </si>
-  <si>
-    <t>이름 없는 사용자</t>
-  </si>
-  <si>
-    <t>name_placeholder</t>
-  </si>
-  <si>
-    <t>사용자 이름</t>
-  </si>
-  <si>
-    <t>Unnamed user</t>
-  </si>
-  <si>
-    <t>enterURI</t>
-  </si>
-  <si>
-    <t>이미지 주소 입력하기</t>
-  </si>
-  <si>
-    <t>Enter image URL</t>
-  </si>
-  <si>
-    <t>change_img</t>
-  </si>
-  <si>
-    <t>이미지 변경</t>
-  </si>
-  <si>
-    <t>Change image</t>
-  </si>
-  <si>
-    <t>login_info</t>
-  </si>
-  <si>
-    <t>로그인 정보</t>
-  </si>
-  <si>
-    <t>Login info</t>
-  </si>
-  <si>
-    <t>email_address</t>
-  </si>
-  <si>
-    <t>이메일 주소</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>user_display_name</t>
-  </si>
-  <si>
-    <t>사용자 표시명</t>
-  </si>
-  <si>
-    <t>login_toggle</t>
-  </si>
-  <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>main_content</t>
-  </si>
-  <si>
-    <t>메인 콘텐츠</t>
-  </si>
-  <si>
-    <t>Main contents</t>
-  </si>
-  <si>
-    <t>not_available_yet</t>
-  </si>
-  <si>
-    <t>기능 준비중</t>
-  </si>
-  <si>
-    <t>Feature in preparation</t>
-  </si>
-  <si>
-    <t>no_main_content</t>
-  </si>
-  <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t>user_img_changed</t>
-  </si>
-  <si>
-    <t>사용자 이미지 변경</t>
-  </si>
-  <si>
-    <t>User image changed</t>
-  </si>
-  <si>
-    <t>need_email</t>
-  </si>
-  <si>
-    <t>이메일 주소가 있어야 온라인으로 전환하실 수 있습니다.</t>
-  </si>
-  <si>
-    <t>You must have an email address to go online.</t>
-  </si>
-  <si>
-    <t>pasteURI</t>
-  </si>
-  <si>
-    <t>눌러서 외부이미지 주소 붙여넣기</t>
-  </si>
-  <si>
-    <t>Click to paste external image address</t>
-  </si>
-  <si>
-    <t>copyURIFirst</t>
-  </si>
-  <si>
-    <t>먼저 웹 페이지에서 이미지 주소를 복사해주세요</t>
-  </si>
-  <si>
-    <t>Copy the image address from the web page first</t>
-  </si>
-  <si>
-    <t>user_profile_changed</t>
-  </si>
-  <si>
-    <t>사용자 프로필 변경</t>
-  </si>
-  <si>
-    <t>Change user profile</t>
-  </si>
-  <si>
-    <t>## OtherProfile</t>
   </si>
   <si>
     <t>add_to_group</t>
@@ -2394,7 +2439,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1677466072" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1677838549" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2416,7 +2461,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1677466072" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1677838549" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2438,7 +2483,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1677466072"/>
+          <pm:border xmlns:pm="smNativeData" id="1677838549"/>
         </ext>
       </extLst>
     </border>
@@ -2457,7 +2502,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1677466072"/>
+          <pm:border xmlns:pm="smNativeData" id="1677838549"/>
         </ext>
       </extLst>
     </border>
@@ -2474,7 +2519,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1677466072" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1677838549" count="1">
         <pm:charStyle name="보통" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -2738,10 +2783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:C303"/>
+  <dimension ref="A1:C309"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="C252" sqref="C252"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -2814,366 +2859,366 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
         <v>103</v>
-      </c>
-      <c r="C41" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3231,160 +3276,160 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>120</v>
       </c>
-      <c r="B47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" t="s">
         <v>132</v>
-      </c>
-      <c r="B51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" t="s">
         <v>138</v>
-      </c>
-      <c r="B54" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" t="s">
         <v>141</v>
-      </c>
-      <c r="B55" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="s">
         <v>144</v>
-      </c>
-      <c r="B56" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" t="s">
         <v>147</v>
-      </c>
-      <c r="B57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" t="s">
         <v>150</v>
-      </c>
-      <c r="B58" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" t="s">
         <v>153</v>
-      </c>
-      <c r="B59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" t="s">
         <v>156</v>
-      </c>
-      <c r="B60" t="s">
-        <v>157</v>
-      </c>
-      <c r="C60" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
         <v>159</v>
@@ -3392,189 +3437,189 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" t="s">
         <v>161</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>162</v>
-      </c>
-      <c r="C62" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" t="s">
         <v>164</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>165</v>
-      </c>
-      <c r="C63" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" t="s">
         <v>167</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>168</v>
-      </c>
-      <c r="C64" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" t="s">
         <v>170</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>171</v>
-      </c>
-      <c r="C65" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" t="s">
         <v>173</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>174</v>
-      </c>
-      <c r="C66" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" t="s">
         <v>176</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>177</v>
-      </c>
-      <c r="C67" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>178</v>
+      </c>
+      <c r="B68" t="s">
         <v>179</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>180</v>
-      </c>
-      <c r="C68" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" t="s">
         <v>182</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>183</v>
-      </c>
-      <c r="C69" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" t="s">
         <v>185</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>186</v>
-      </c>
-      <c r="C70" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" t="s">
         <v>188</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>189</v>
-      </c>
-      <c r="C71" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" t="s">
         <v>191</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>192</v>
-      </c>
-      <c r="C72" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>193</v>
+      </c>
+      <c r="B73" t="s">
         <v>194</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>195</v>
-      </c>
-      <c r="C73" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" t="s">
         <v>197</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>198</v>
-      </c>
-      <c r="C74" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" t="s">
         <v>200</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>201</v>
-      </c>
-      <c r="C75" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" t="s">
         <v>203</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>204</v>
-      </c>
-      <c r="C76" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" t="s">
         <v>206</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>207</v>
-      </c>
-      <c r="C77" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>208</v>
+      </c>
+      <c r="B78" t="s">
         <v>209</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>210</v>
-      </c>
-      <c r="C78" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3609,10 +3654,10 @@
         <v>218</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="C82" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3631,264 +3676,264 @@
         <v>223</v>
       </c>
       <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
         <v>224</v>
       </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+      <c r="C85" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" t="s">
         <v>227</v>
-      </c>
-      <c r="C86" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>228</v>
+      </c>
+      <c r="B87" t="s">
         <v>229</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>230</v>
-      </c>
-      <c r="C87" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88" t="s">
         <v>232</v>
-      </c>
-      <c r="B88" t="s">
-        <v>233</v>
-      </c>
-      <c r="C88" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>233</v>
+      </c>
+      <c r="B89" t="s">
+        <v>234</v>
+      </c>
+      <c r="C89" t="s">
         <v>235</v>
       </c>
-      <c r="B89" t="s">
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
         <v>236</v>
       </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+      <c r="C90" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>239</v>
       </c>
-      <c r="B91" t="s">
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
         <v>240</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>242</v>
-      </c>
-      <c r="B92" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>242</v>
+      </c>
+      <c r="B93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C93" t="s">
         <v>244</v>
-      </c>
-      <c r="B93" t="s">
-        <v>245</v>
-      </c>
-      <c r="C93" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>245</v>
+      </c>
+      <c r="B94" t="s">
+        <v>246</v>
+      </c>
+      <c r="C94" t="s">
         <v>247</v>
-      </c>
-      <c r="B94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C94" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B95" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" t="s">
         <v>250</v>
       </c>
-      <c r="B95" t="s">
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
         <v>251</v>
-      </c>
-      <c r="C95" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>253</v>
-      </c>
-      <c r="B96" t="s">
-        <v>254</v>
-      </c>
-      <c r="C96" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>252</v>
+      </c>
+      <c r="B97" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>255</v>
+      </c>
+      <c r="B98" t="s">
         <v>256</v>
-      </c>
-      <c r="B97" t="s">
-        <v>257</v>
-      </c>
-      <c r="C97" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>259</v>
-      </c>
-      <c r="B98" t="s">
-        <v>260</v>
-      </c>
-      <c r="C98" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B99" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C99" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B100" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C100" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B101" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C101" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>267</v>
       </c>
       <c r="C102" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B103" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C103" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B104" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C104" t="s">
-        <v>277</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B105" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C105" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B106" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C106" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>280</v>
+      </c>
+      <c r="B107" t="s">
+        <v>281</v>
+      </c>
+      <c r="C107" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>283</v>
+      </c>
+      <c r="B108" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" t="s">
         <v>284</v>
-      </c>
-      <c r="B107" t="s">
-        <v>285</v>
-      </c>
-      <c r="C107" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="B109" t="s">
-        <v>49</v>
+        <v>286</v>
       </c>
       <c r="C109" t="s">
-        <v>50</v>
+        <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3896,69 +3941,69 @@
         <v>288</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="C110" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B111" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C111" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>295</v>
       </c>
       <c r="C112" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B113" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C113" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>298</v>
-      </c>
-      <c r="B114" t="s">
-        <v>299</v>
-      </c>
-      <c r="C114" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
         <v>301</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>302</v>
       </c>
-      <c r="C115" t="s">
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+      <c r="B116" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116" t="s">
         <v>304</v>
       </c>
     </row>
@@ -3978,87 +4023,81 @@
         <v>308</v>
       </c>
       <c r="B118" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118" t="s">
         <v>309</v>
-      </c>
-      <c r="C118" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
+        <v>310</v>
+      </c>
+      <c r="B119" t="s">
         <v>311</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>312</v>
-      </c>
-      <c r="C119" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
+        <v>313</v>
+      </c>
+      <c r="B120" t="s">
         <v>314</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>315</v>
-      </c>
-      <c r="C120" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
+        <v>316</v>
+      </c>
+      <c r="B121" t="s">
         <v>317</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>318</v>
       </c>
-      <c r="C121" t="s">
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>320</v>
-      </c>
-      <c r="B122" t="s">
-        <v>192</v>
-      </c>
-      <c r="C122" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
+        <v>320</v>
+      </c>
+      <c r="B123" t="s">
         <v>321</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>322</v>
-      </c>
-      <c r="C123" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
+        <v>323</v>
+      </c>
+      <c r="B124" t="s">
         <v>324</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>325</v>
-      </c>
-      <c r="C124" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
+        <v>326</v>
+      </c>
+      <c r="B125" t="s">
         <v>327</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>328</v>
-      </c>
-      <c r="C125" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4074,24 +4113,24 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>182</v>
+        <v>332</v>
       </c>
       <c r="B127" t="s">
-        <v>183</v>
+        <v>333</v>
       </c>
       <c r="C127" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B128" t="s">
-        <v>334</v>
+        <v>68</v>
       </c>
       <c r="C128" t="s">
-        <v>335</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4124,94 +4163,100 @@
         <v>343</v>
       </c>
       <c r="C131" t="s">
-        <v>344</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
+        <v>344</v>
+      </c>
+      <c r="B132" t="s">
         <v>345</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>346</v>
-      </c>
-      <c r="C132" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>348</v>
+        <v>58</v>
       </c>
       <c r="B133" t="s">
-        <v>349</v>
+        <v>59</v>
       </c>
       <c r="C133" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B134" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C134" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B135" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C135" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B136" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C136" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B137" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C137" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>360</v>
+      </c>
+      <c r="B138" t="s">
+        <v>361</v>
+      </c>
+      <c r="C138" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
         <v>363</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>364</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="B140" t="s">
         <v>367</v>
@@ -4228,50 +4273,50 @@
         <v>370</v>
       </c>
       <c r="C141" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>371</v>
+        <v>372</v>
+      </c>
+      <c r="B142" t="s">
+        <v>373</v>
+      </c>
+      <c r="C142" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B143" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C143" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B144" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C144" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>378</v>
-      </c>
-      <c r="B145" t="s">
-        <v>379</v>
-      </c>
-      <c r="C145" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>381</v>
+        <v>11</v>
       </c>
       <c r="B146" t="s">
         <v>382</v>
@@ -4288,380 +4333,380 @@
         <v>385</v>
       </c>
       <c r="C147" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
+        <v>387</v>
+      </c>
+      <c r="B149" t="s">
         <v>388</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>389</v>
-      </c>
-      <c r="C149" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
+        <v>390</v>
+      </c>
+      <c r="B150" t="s">
         <v>391</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>392</v>
-      </c>
-      <c r="C150" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
+        <v>393</v>
+      </c>
+      <c r="B151" t="s">
         <v>394</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>395</v>
-      </c>
-      <c r="C151" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
+        <v>396</v>
+      </c>
+      <c r="B152" t="s">
         <v>397</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>398</v>
-      </c>
-      <c r="C152" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
+        <v>399</v>
+      </c>
+      <c r="B153" t="s">
         <v>400</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>401</v>
       </c>
-      <c r="C153" t="s">
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
         <v>402</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>403</v>
-      </c>
-      <c r="B154" t="s">
-        <v>404</v>
-      </c>
-      <c r="C154" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B155" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="C155" t="s">
-        <v>319</v>
+        <v>405</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="B156" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="C156" t="s">
-        <v>335</v>
+        <v>408</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B157" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C157" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B158" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C158" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B159" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C159" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B160" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C160" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B161" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
       <c r="C161" t="s">
-        <v>421</v>
+        <v>334</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>422</v>
+        <v>348</v>
       </c>
       <c r="B162" t="s">
-        <v>423</v>
+        <v>349</v>
       </c>
       <c r="C162" t="s">
-        <v>424</v>
+        <v>350</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B163" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C163" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B164" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C164" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B165" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C165" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B166" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C166" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B167" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C167" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B168" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C168" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B169" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C169" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B170" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C170" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B171" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C171" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B172" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C172" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B173" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C173" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B174" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C174" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B175" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C175" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B176" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C176" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B177" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C177" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B178" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C178" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
+        <v>470</v>
+      </c>
+      <c r="B179" t="s">
+        <v>471</v>
+      </c>
+      <c r="C179" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
         <v>473</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>474</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C180" t="s">
         <v>475</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
+        <v>476</v>
+      </c>
+      <c r="B181" t="s">
         <v>477</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>478</v>
-      </c>
-      <c r="C181" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
+        <v>479</v>
+      </c>
+      <c r="B182" t="s">
         <v>480</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>481</v>
-      </c>
-      <c r="C182" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4721,133 +4766,127 @@
         <v>496</v>
       </c>
       <c r="C188" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
+        <v>497</v>
+      </c>
+      <c r="B189" t="s">
         <v>498</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>499</v>
-      </c>
-      <c r="C189" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
+        <v>500</v>
+      </c>
+      <c r="B190" t="s">
         <v>501</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>502</v>
-      </c>
-      <c r="C190" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
+        <v>503</v>
+      </c>
+      <c r="B191" t="s">
         <v>504</v>
-      </c>
-      <c r="B191" t="s">
-        <v>192</v>
       </c>
       <c r="C191" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:1">
       <c r="A192" t="s">
         <v>506</v>
       </c>
-      <c r="B192" t="s">
-        <v>507</v>
-      </c>
-      <c r="C192" t="s">
-        <v>508</v>
-      </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>153</v>
+        <v>507</v>
       </c>
       <c r="B193" t="s">
-        <v>154</v>
+        <v>508</v>
       </c>
       <c r="C193" t="s">
-        <v>155</v>
+        <v>509</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>156</v>
+        <v>510</v>
       </c>
       <c r="B194" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C194" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B195" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C195" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B196" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C196" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B197" t="s">
-        <v>518</v>
+        <v>68</v>
       </c>
       <c r="C197" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B198" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C198" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>521</v>
+        <v>29</v>
       </c>
       <c r="B199" t="s">
-        <v>522</v>
+        <v>30</v>
       </c>
       <c r="C199" t="s">
-        <v>521</v>
+        <v>31</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>523</v>
+        <v>32</v>
       </c>
       <c r="B200" t="s">
         <v>524</v>
@@ -4878,413 +4917,419 @@
         <v>531</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>532</v>
       </c>
+      <c r="B203" t="s">
+        <v>533</v>
+      </c>
+      <c r="C203" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B204" t="s">
+        <v>535</v>
+      </c>
+      <c r="C204" t="s">
         <v>534</v>
       </c>
-      <c r="C204" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>536</v>
       </c>
+      <c r="B205" t="s">
+        <v>537</v>
+      </c>
+      <c r="C205" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B206" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C206" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B207" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C207" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B208" t="s">
-        <v>64</v>
+        <v>545</v>
       </c>
       <c r="C208" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>523</v>
-      </c>
-      <c r="B209" t="s">
-        <v>544</v>
-      </c>
-      <c r="C209" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>548</v>
+      </c>
+      <c r="B210" t="s">
+        <v>549</v>
+      </c>
+      <c r="C210" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>546</v>
-      </c>
-      <c r="B211" t="s">
-        <v>547</v>
-      </c>
-      <c r="C211" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B212" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C212" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>153</v>
+        <v>555</v>
       </c>
       <c r="B213" t="s">
-        <v>154</v>
+        <v>556</v>
       </c>
       <c r="C213" t="s">
-        <v>155</v>
+        <v>557</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>156</v>
+        <v>558</v>
       </c>
       <c r="B214" t="s">
-        <v>552</v>
+        <v>143</v>
       </c>
       <c r="C214" t="s">
-        <v>553</v>
+        <v>144</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="B215" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C215" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>557</v>
-      </c>
-      <c r="B216" t="s">
-        <v>558</v>
-      </c>
-      <c r="C216" t="s">
-        <v>92</v>
+        <v>560</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B217" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C217" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B218" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C218" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>565</v>
+        <v>29</v>
       </c>
       <c r="B219" t="s">
-        <v>566</v>
+        <v>30</v>
       </c>
       <c r="C219" t="s">
-        <v>567</v>
+        <v>31</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
+        <v>32</v>
+      </c>
+      <c r="B220" t="s">
+        <v>567</v>
+      </c>
+      <c r="C220" t="s">
         <v>568</v>
-      </c>
-      <c r="B220" t="s">
-        <v>569</v>
-      </c>
-      <c r="C220" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
+        <v>569</v>
+      </c>
+      <c r="B221" t="s">
+        <v>570</v>
+      </c>
+      <c r="C221" t="s">
         <v>571</v>
-      </c>
-      <c r="B221" t="s">
-        <v>572</v>
-      </c>
-      <c r="C221" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B222" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C222" t="s">
-        <v>576</v>
+        <v>171</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="B223" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C223" t="s">
-        <v>528</v>
+        <v>576</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
+        <v>577</v>
+      </c>
+      <c r="B224" t="s">
         <v>578</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>579</v>
-      </c>
-      <c r="C224" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
+        <v>580</v>
+      </c>
+      <c r="B225" t="s">
         <v>581</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>582</v>
-      </c>
-      <c r="C225" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
+        <v>583</v>
+      </c>
+      <c r="B226" t="s">
         <v>584</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>585</v>
-      </c>
-      <c r="C226" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
+        <v>586</v>
+      </c>
+      <c r="B227" t="s">
         <v>587</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" t="s">
         <v>588</v>
-      </c>
-      <c r="C227" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
+        <v>589</v>
+      </c>
+      <c r="B228" t="s">
         <v>590</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>591</v>
       </c>
-      <c r="C228" t="s">
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>541</v>
+      </c>
+      <c r="B229" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
-        <v>593</v>
+      <c r="C229" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>11</v>
+        <v>593</v>
       </c>
       <c r="B230" t="s">
-        <v>563</v>
+        <v>594</v>
       </c>
       <c r="C230" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B231" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C231" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B232" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C232" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B233" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C233" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B234" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C234" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>606</v>
-      </c>
-      <c r="B235" t="s">
-        <v>607</v>
-      </c>
-      <c r="C235" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" t="s">
+        <v>578</v>
+      </c>
+      <c r="C236" t="s">
         <v>609</v>
-      </c>
-      <c r="B236" t="s">
-        <v>610</v>
-      </c>
-      <c r="C236" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
+        <v>610</v>
+      </c>
+      <c r="B237" t="s">
+        <v>611</v>
+      </c>
+      <c r="C237" t="s">
         <v>612</v>
-      </c>
-      <c r="B237" t="s">
-        <v>210</v>
-      </c>
-      <c r="C237" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
+        <v>613</v>
+      </c>
+      <c r="B238" t="s">
         <v>614</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>615</v>
-      </c>
-      <c r="C238" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
+        <v>616</v>
+      </c>
+      <c r="B239" t="s">
         <v>617</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
         <v>618</v>
-      </c>
-      <c r="C239" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
+        <v>619</v>
+      </c>
+      <c r="B240" t="s">
         <v>620</v>
       </c>
-      <c r="B240" t="s">
-        <v>621</v>
-      </c>
       <c r="C240" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
+        <v>621</v>
+      </c>
+      <c r="B241" t="s">
+        <v>622</v>
+      </c>
+      <c r="C241" t="s">
         <v>623</v>
       </c>
-      <c r="B241" t="s">
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
         <v>624</v>
       </c>
-      <c r="C241" t="s">
+      <c r="B242" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+      <c r="C242" t="s">
         <v>626</v>
       </c>
     </row>
@@ -5293,298 +5338,298 @@
         <v>627</v>
       </c>
       <c r="B243" t="s">
+        <v>86</v>
+      </c>
+      <c r="C243" t="s">
         <v>628</v>
       </c>
-      <c r="C243" t="s">
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
+      <c r="B244" t="s">
         <v>630</v>
+      </c>
+      <c r="C244" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B245" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C245" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B246" t="s">
-        <v>61</v>
+        <v>636</v>
       </c>
       <c r="C246" t="s">
-        <v>62</v>
+        <v>637</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B247" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C247" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>637</v>
-      </c>
-      <c r="B248" t="s">
-        <v>186</v>
-      </c>
-      <c r="C248" t="s">
-        <v>271</v>
+        <v>641</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B249" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C249" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>641</v>
-      </c>
-      <c r="B250" t="s">
-        <v>642</v>
-      </c>
-      <c r="C250" t="s">
-        <v>319</v>
+        <v>645</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B251" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C251" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B252" t="s">
-        <v>647</v>
+        <v>140</v>
       </c>
       <c r="C252" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>649</v>
+        <v>650</v>
+      </c>
+      <c r="B253" t="s">
+        <v>651</v>
+      </c>
+      <c r="C253" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>11</v>
+        <v>652</v>
       </c>
       <c r="B254" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C254" t="s">
-        <v>68</v>
+        <v>284</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B255" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C255" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B256" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C256" t="s">
-        <v>655</v>
+        <v>334</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B257" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C257" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B258" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C258" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>662</v>
-      </c>
-      <c r="B259" t="s">
-        <v>663</v>
-      </c>
-      <c r="C259" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>665</v>
+        <v>11</v>
       </c>
       <c r="B260" t="s">
-        <v>666</v>
+        <v>146</v>
       </c>
       <c r="C260" t="s">
-        <v>667</v>
+        <v>147</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
+        <v>665</v>
+      </c>
+      <c r="B261" t="s">
+        <v>666</v>
+      </c>
+      <c r="C261" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
         <v>668</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B262" t="s">
         <v>669</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C262" t="s">
         <v>670</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
+        <v>671</v>
+      </c>
+      <c r="B263" t="s">
         <v>672</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C263" t="s">
         <v>673</v>
       </c>
-      <c r="C263" t="s">
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
+      <c r="B264" t="s">
         <v>675</v>
+      </c>
+      <c r="C264" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B265" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C265" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B266" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C266" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B267" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C267" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>685</v>
-      </c>
-      <c r="B268" t="s">
         <v>686</v>
-      </c>
-      <c r="C268" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
+        <v>687</v>
+      </c>
+      <c r="B269" t="s">
         <v>688</v>
       </c>
-      <c r="B269" t="s">
+      <c r="C269" t="s">
         <v>689</v>
       </c>
-      <c r="C269" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
+    </row>
+    <row r="270" spans="1:1">
       <c r="A270" t="s">
         <v>690</v>
       </c>
-      <c r="B270" t="s">
-        <v>691</v>
-      </c>
-      <c r="C270" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
+        <v>691</v>
+      </c>
+      <c r="B271" t="s">
+        <v>692</v>
+      </c>
+      <c r="C271" t="s">
         <v>693</v>
       </c>
-      <c r="B271" t="s">
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
         <v>694</v>
       </c>
-      <c r="C271" t="s">
+      <c r="B272" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
+      <c r="C272" t="s">
         <v>696</v>
       </c>
     </row>
@@ -5618,304 +5663,364 @@
         <v>704</v>
       </c>
       <c r="C275" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
+      <c r="B276" t="s">
         <v>706</v>
+      </c>
+      <c r="C276" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B277" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C277" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B279" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C279" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B280" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C280" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
+        <v>718</v>
+      </c>
+      <c r="B281" t="s">
+        <v>719</v>
+      </c>
+      <c r="C281" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>718</v>
-      </c>
-      <c r="B282" t="s">
-        <v>719</v>
-      </c>
-      <c r="C282" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B283" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C283" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>724</v>
-      </c>
-      <c r="B284" t="s">
         <v>725</v>
-      </c>
-      <c r="C284" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
+        <v>726</v>
+      </c>
+      <c r="B285" t="s">
         <v>727</v>
       </c>
-      <c r="B285" t="s">
+      <c r="C285" t="s">
         <v>728</v>
-      </c>
-      <c r="C285" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
+        <v>729</v>
+      </c>
+      <c r="B286" t="s">
         <v>730</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" t="s">
         <v>731</v>
       </c>
-      <c r="C286" t="s">
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
         <v>732</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" t="s">
-        <v>733</v>
-      </c>
-      <c r="B287" t="s">
-        <v>734</v>
-      </c>
-      <c r="C287" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B288" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C288" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B289" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C289" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B290" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C290" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B291" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C291" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B292" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C292" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B293" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C293" t="s">
-        <v>439</v>
+        <v>750</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
+        <v>751</v>
+      </c>
+      <c r="B294" t="s">
+        <v>752</v>
+      </c>
+      <c r="C294" t="s">
         <v>753</v>
-      </c>
-      <c r="B294" t="s">
-        <v>754</v>
-      </c>
-      <c r="C294" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
+        <v>754</v>
+      </c>
+      <c r="B295" t="s">
+        <v>755</v>
+      </c>
+      <c r="C295" t="s">
         <v>756</v>
-      </c>
-      <c r="B295" t="s">
-        <v>757</v>
-      </c>
-      <c r="C295" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
+        <v>757</v>
+      </c>
+      <c r="B296" t="s">
         <v>758</v>
       </c>
-      <c r="B296" t="s">
+      <c r="C296" t="s">
         <v>759</v>
-      </c>
-      <c r="C296" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
+        <v>760</v>
+      </c>
+      <c r="B297" t="s">
         <v>761</v>
       </c>
-      <c r="B297" t="s">
+      <c r="C297" t="s">
         <v>762</v>
-      </c>
-      <c r="C297" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
+        <v>763</v>
+      </c>
+      <c r="B298" t="s">
         <v>764</v>
       </c>
-      <c r="B298" t="s">
+      <c r="C298" t="s">
         <v>765</v>
-      </c>
-      <c r="C298" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
+        <v>766</v>
+      </c>
+      <c r="B299" t="s">
         <v>767</v>
       </c>
-      <c r="B299" t="s">
-        <v>768</v>
-      </c>
       <c r="C299" t="s">
-        <v>769</v>
+        <v>454</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
+        <v>768</v>
+      </c>
+      <c r="B300" t="s">
+        <v>769</v>
+      </c>
+      <c r="C300" t="s">
         <v>770</v>
-      </c>
-      <c r="B300" t="s">
-        <v>771</v>
-      </c>
-      <c r="C300" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B301" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C301" t="s">
-        <v>775</v>
+        <v>318</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B302" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C302" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
+        <v>776</v>
+      </c>
+      <c r="B303" t="s">
+        <v>777</v>
+      </c>
+      <c r="C303" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
         <v>779</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B304" t="s">
         <v>780</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C304" t="s">
         <v>781</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>782</v>
+      </c>
+      <c r="B305" t="s">
+        <v>783</v>
+      </c>
+      <c r="C305" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>785</v>
+      </c>
+      <c r="B306" t="s">
+        <v>786</v>
+      </c>
+      <c r="C306" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>788</v>
+      </c>
+      <c r="B307" t="s">
+        <v>789</v>
+      </c>
+      <c r="C307" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>791</v>
+      </c>
+      <c r="B308" t="s">
+        <v>792</v>
+      </c>
+      <c r="C308" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>794</v>
+      </c>
+      <c r="B309" t="s">
+        <v>795</v>
+      </c>
+      <c r="C309" t="s">
+        <v>796</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1677466072" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1677838549" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5924,14 +6029,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1677466072" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1677466072" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1677838549" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1677838549" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1677466072" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1677838549" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/pjcone_pwa/assets/data/translate.xlsx
+++ b/pjcone_pwa/assets/data/translate.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1677838549" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1677838549" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1677838549" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1677838549"/>
+      <pm:revision xmlns:pm="smNativeData" day="1678871772" val="1060" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1678871772" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1678871772" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1678871772"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="810">
   <si>
     <t>#</t>
   </si>
@@ -130,6 +130,48 @@
     <t>briefly</t>
   </si>
   <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>태그</t>
+  </si>
+  <si>
+    <t>SelectTag</t>
+  </si>
+  <si>
+    <t>태그 지정</t>
+  </si>
+  <si>
+    <t>Select tag</t>
+  </si>
+  <si>
+    <t>NewTagName</t>
+  </si>
+  <si>
+    <t>새 태그 이름</t>
+  </si>
+  <si>
+    <t>New tag name</t>
+  </si>
+  <si>
+    <t>CreateTag</t>
+  </si>
+  <si>
+    <t>추가</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>NewTag</t>
+  </si>
+  <si>
+    <t>새 태그</t>
+  </si>
+  <si>
+    <t>New tag</t>
+  </si>
+  <si>
     <t>Importance</t>
   </si>
   <si>
@@ -236,9 +278,6 @@
   </si>
   <si>
     <t>buttonDisplay_add</t>
-  </si>
-  <si>
-    <t>추가</t>
   </si>
   <si>
     <t>Add todo</t>
@@ -2439,7 +2478,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1677838549" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1678871772" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -2461,7 +2500,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1677838549" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1678871772" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2483,7 +2522,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1677838549"/>
+          <pm:border xmlns:pm="smNativeData" id="1678871772"/>
         </ext>
       </extLst>
     </border>
@@ -2502,7 +2541,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1677838549"/>
+          <pm:border xmlns:pm="smNativeData" id="1678871772"/>
         </ext>
       </extLst>
     </border>
@@ -2519,7 +2558,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1677838549" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1678871772" count="1">
         <pm:charStyle name="보통" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -2783,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:C309"/>
+  <dimension ref="A1:C314"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
@@ -2999,642 +3038,648 @@
         <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
         <v>64</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
         <v>67</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
         <v>70</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>71</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
         <v>73</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>74</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
         <v>76</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>77</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
         <v>79</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
         <v>82</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>83</v>
-      </c>
-      <c r="C31" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
         <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
         <v>87</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>88</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
         <v>108</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>109</v>
-      </c>
-      <c r="C43" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
         <v>111</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>112</v>
-      </c>
-      <c r="C44" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s">
         <v>114</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>115</v>
-      </c>
-      <c r="C45" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" t="s">
         <v>117</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
         <v>118</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="C47" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" t="s">
         <v>136</v>
-      </c>
-      <c r="B54" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" t="s">
         <v>139</v>
-      </c>
-      <c r="B55" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" t="s">
         <v>142</v>
-      </c>
-      <c r="B56" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" t="s">
         <v>145</v>
-      </c>
-      <c r="B57" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" t="s">
         <v>148</v>
-      </c>
-      <c r="B58" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" t="s">
         <v>151</v>
-      </c>
-      <c r="B59" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" t="s">
         <v>154</v>
-      </c>
-      <c r="B60" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" t="s">
         <v>157</v>
-      </c>
-      <c r="B61" t="s">
-        <v>158</v>
-      </c>
-      <c r="C61" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" t="s">
         <v>160</v>
-      </c>
-      <c r="B62" t="s">
-        <v>161</v>
-      </c>
-      <c r="C62" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" t="s">
         <v>163</v>
-      </c>
-      <c r="B63" t="s">
-        <v>164</v>
-      </c>
-      <c r="C63" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" t="s">
         <v>166</v>
-      </c>
-      <c r="B64" t="s">
-        <v>167</v>
-      </c>
-      <c r="C64" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" t="s">
         <v>169</v>
-      </c>
-      <c r="B65" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66" t="s">
+        <v>171</v>
+      </c>
+      <c r="C66" t="s">
         <v>172</v>
-      </c>
-      <c r="B66" t="s">
-        <v>173</v>
-      </c>
-      <c r="C66" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" t="s">
         <v>175</v>
-      </c>
-      <c r="B67" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" t="s">
         <v>178</v>
-      </c>
-      <c r="B68" t="s">
-        <v>179</v>
-      </c>
-      <c r="C68" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" t="s">
         <v>181</v>
-      </c>
-      <c r="B69" t="s">
-        <v>182</v>
-      </c>
-      <c r="C69" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" t="s">
         <v>184</v>
-      </c>
-      <c r="B70" t="s">
-        <v>185</v>
-      </c>
-      <c r="C70" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" t="s">
         <v>187</v>
-      </c>
-      <c r="B71" t="s">
-        <v>188</v>
-      </c>
-      <c r="C71" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>188</v>
+      </c>
+      <c r="B72" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" t="s">
         <v>190</v>
-      </c>
-      <c r="B72" t="s">
-        <v>191</v>
-      </c>
-      <c r="C72" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" t="s">
         <v>193</v>
-      </c>
-      <c r="B73" t="s">
-        <v>194</v>
-      </c>
-      <c r="C73" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" t="s">
         <v>196</v>
-      </c>
-      <c r="B74" t="s">
-        <v>197</v>
-      </c>
-      <c r="C74" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" t="s">
         <v>199</v>
-      </c>
-      <c r="B75" t="s">
-        <v>200</v>
-      </c>
-      <c r="C75" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" t="s">
         <v>202</v>
-      </c>
-      <c r="B76" t="s">
-        <v>203</v>
-      </c>
-      <c r="C76" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>203</v>
+      </c>
+      <c r="B77" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" t="s">
         <v>205</v>
-      </c>
-      <c r="B77" t="s">
-        <v>206</v>
-      </c>
-      <c r="C77" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" t="s">
         <v>208</v>
-      </c>
-      <c r="B78" t="s">
-        <v>209</v>
-      </c>
-      <c r="C78" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" t="s">
         <v>211</v>
       </c>
-      <c r="B79" t="s">
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
         <v>212</v>
       </c>
-      <c r="C79" t="s">
+      <c r="B80" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+      <c r="C80" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3657,148 +3702,148 @@
         <v>219</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C83" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="C84" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>224</v>
-      </c>
-      <c r="B85" t="s">
-        <v>225</v>
-      </c>
-      <c r="C85" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="B86" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C87" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="C88" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B89" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>235</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="B92" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C92" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B93" t="s">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B94" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C94" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B95" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C95" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s">
         <v>253</v>
@@ -3807,119 +3852,113 @@
         <v>254</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>255</v>
       </c>
       <c r="B98" t="s">
         <v>256</v>
       </c>
+      <c r="C98" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B99" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C99" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B100" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C100" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>263</v>
-      </c>
-      <c r="B101" t="s">
         <v>264</v>
-      </c>
-      <c r="C101" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>265</v>
+      </c>
+      <c r="B102" t="s">
         <v>266</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>267</v>
       </c>
-      <c r="C102" t="s">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
         <v>269</v>
-      </c>
-      <c r="B103" t="s">
-        <v>270</v>
-      </c>
-      <c r="C103" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104" t="s">
+        <v>271</v>
+      </c>
+      <c r="C104" t="s">
         <v>272</v>
-      </c>
-      <c r="B104" t="s">
-        <v>273</v>
-      </c>
-      <c r="C104" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
+        <v>273</v>
+      </c>
+      <c r="B105" t="s">
         <v>274</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>275</v>
-      </c>
-      <c r="C105" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
+        <v>276</v>
+      </c>
+      <c r="B106" t="s">
         <v>277</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>278</v>
-      </c>
-      <c r="C106" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>279</v>
+      </c>
+      <c r="B107" t="s">
         <v>280</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>281</v>
-      </c>
-      <c r="C107" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>282</v>
+      </c>
+      <c r="B108" t="s">
         <v>283</v>
-      </c>
-      <c r="B108" t="s">
-        <v>62</v>
       </c>
       <c r="C108" t="s">
         <v>284</v>
@@ -3933,116 +3972,116 @@
         <v>286</v>
       </c>
       <c r="C109" t="s">
-        <v>287</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>287</v>
+      </c>
+      <c r="B110" t="s">
         <v>288</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>289</v>
-      </c>
-      <c r="C110" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>290</v>
+      </c>
+      <c r="B111" t="s">
         <v>291</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>292</v>
-      </c>
-      <c r="C111" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>293</v>
+      </c>
+      <c r="B112" t="s">
         <v>294</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>295</v>
-      </c>
-      <c r="C112" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
+        <v>296</v>
+      </c>
+      <c r="B113" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113" t="s">
         <v>297</v>
       </c>
-      <c r="B113" t="s">
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
         <v>298</v>
       </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+      <c r="C114" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>301</v>
       </c>
       <c r="B115" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C115" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B116" t="s">
-        <v>71</v>
+        <v>305</v>
       </c>
       <c r="C116" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B117" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C117" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B118" t="s">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="C118" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>310</v>
-      </c>
-      <c r="B119" t="s">
-        <v>311</v>
-      </c>
-      <c r="C119" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>313</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
         <v>314</v>
@@ -4056,23 +4095,29 @@
         <v>316</v>
       </c>
       <c r="B121" t="s">
+        <v>44</v>
+      </c>
+      <c r="C121" t="s">
         <v>317</v>
       </c>
-      <c r="C121" t="s">
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+      <c r="B122" t="s">
         <v>319</v>
+      </c>
+      <c r="C122" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B123" t="s">
-        <v>321</v>
+        <v>117</v>
       </c>
       <c r="C123" t="s">
         <v>322</v>
@@ -4111,26 +4156,20 @@
         <v>331</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
         <v>332</v>
       </c>
-      <c r="B127" t="s">
-        <v>333</v>
-      </c>
-      <c r="C127" t="s">
-        <v>334</v>
-      </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>333</v>
+      </c>
+      <c r="B128" t="s">
+        <v>334</v>
+      </c>
+      <c r="C128" t="s">
         <v>335</v>
-      </c>
-      <c r="B128" t="s">
-        <v>68</v>
-      </c>
-      <c r="C128" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4163,62 +4202,62 @@
         <v>343</v>
       </c>
       <c r="C131" t="s">
-        <v>60</v>
+        <v>344</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B132" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C132" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="B133" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C133" t="s">
-        <v>347</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B134" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C134" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B135" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C135" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B136" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C136" t="s">
-        <v>356</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4234,170 +4273,176 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>72</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" t="s">
         <v>360</v>
-      </c>
-      <c r="B138" t="s">
-        <v>361</v>
-      </c>
-      <c r="C138" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
+        <v>361</v>
+      </c>
+      <c r="B139" t="s">
+        <v>362</v>
+      </c>
+      <c r="C139" t="s">
         <v>363</v>
-      </c>
-      <c r="B139" t="s">
-        <v>364</v>
-      </c>
-      <c r="C139" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
+        <v>364</v>
+      </c>
+      <c r="B140" t="s">
+        <v>365</v>
+      </c>
+      <c r="C140" t="s">
         <v>366</v>
-      </c>
-      <c r="B140" t="s">
-        <v>367</v>
-      </c>
-      <c r="C140" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
+        <v>367</v>
+      </c>
+      <c r="B141" t="s">
+        <v>368</v>
+      </c>
+      <c r="C141" t="s">
         <v>369</v>
-      </c>
-      <c r="B141" t="s">
-        <v>370</v>
-      </c>
-      <c r="C141" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
+        <v>370</v>
+      </c>
+      <c r="B142" t="s">
+        <v>371</v>
+      </c>
+      <c r="C142" t="s">
         <v>372</v>
-      </c>
-      <c r="B142" t="s">
-        <v>373</v>
-      </c>
-      <c r="C142" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
+        <v>373</v>
+      </c>
+      <c r="B143" t="s">
+        <v>374</v>
+      </c>
+      <c r="C143" t="s">
         <v>375</v>
-      </c>
-      <c r="B143" t="s">
-        <v>376</v>
-      </c>
-      <c r="C143" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
+        <v>376</v>
+      </c>
+      <c r="B144" t="s">
+        <v>377</v>
+      </c>
+      <c r="C144" t="s">
         <v>378</v>
       </c>
-      <c r="B144" t="s">
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
         <v>379</v>
       </c>
-      <c r="C144" t="s">
+      <c r="B145" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+      <c r="C145" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>11</v>
+        <v>382</v>
       </c>
       <c r="B146" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C146" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B147" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C147" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>386</v>
+        <v>388</v>
+      </c>
+      <c r="B148" t="s">
+        <v>389</v>
+      </c>
+      <c r="C148" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B149" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C149" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>390</v>
-      </c>
-      <c r="B150" t="s">
-        <v>391</v>
-      </c>
-      <c r="C150" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>393</v>
+        <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C151" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B152" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C152" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
         <v>399</v>
       </c>
-      <c r="B153" t="s">
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
         <v>400</v>
       </c>
-      <c r="C153" t="s">
+      <c r="B154" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+      <c r="C154" t="s">
         <v>402</v>
       </c>
     </row>
@@ -4445,305 +4490,305 @@
         <v>414</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:1">
       <c r="A159" t="s">
         <v>415</v>
       </c>
-      <c r="B159" t="s">
-        <v>416</v>
-      </c>
-      <c r="C159" t="s">
-        <v>417</v>
-      </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
+        <v>416</v>
+      </c>
+      <c r="B160" t="s">
+        <v>417</v>
+      </c>
+      <c r="C160" t="s">
         <v>418</v>
-      </c>
-      <c r="B160" t="s">
-        <v>419</v>
-      </c>
-      <c r="C160" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
+        <v>419</v>
+      </c>
+      <c r="B161" t="s">
+        <v>420</v>
+      </c>
+      <c r="C161" t="s">
         <v>421</v>
-      </c>
-      <c r="B161" t="s">
-        <v>333</v>
-      </c>
-      <c r="C161" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="B162" t="s">
-        <v>349</v>
+        <v>423</v>
       </c>
       <c r="C162" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B163" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C163" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B164" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C164" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B165" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C165" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B166" t="s">
-        <v>432</v>
+        <v>346</v>
       </c>
       <c r="C166" t="s">
-        <v>433</v>
+        <v>347</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>434</v>
+        <v>361</v>
       </c>
       <c r="B167" t="s">
-        <v>435</v>
+        <v>362</v>
       </c>
       <c r="C167" t="s">
-        <v>436</v>
+        <v>363</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
+        <v>435</v>
+      </c>
+      <c r="B168" t="s">
+        <v>436</v>
+      </c>
+      <c r="C168" t="s">
         <v>437</v>
-      </c>
-      <c r="B168" t="s">
-        <v>438</v>
-      </c>
-      <c r="C168" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
+        <v>438</v>
+      </c>
+      <c r="B169" t="s">
+        <v>439</v>
+      </c>
+      <c r="C169" t="s">
         <v>440</v>
-      </c>
-      <c r="B169" t="s">
-        <v>441</v>
-      </c>
-      <c r="C169" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
+        <v>441</v>
+      </c>
+      <c r="B170" t="s">
+        <v>442</v>
+      </c>
+      <c r="C170" t="s">
         <v>443</v>
-      </c>
-      <c r="B170" t="s">
-        <v>444</v>
-      </c>
-      <c r="C170" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
+        <v>444</v>
+      </c>
+      <c r="B171" t="s">
+        <v>445</v>
+      </c>
+      <c r="C171" t="s">
         <v>446</v>
-      </c>
-      <c r="B171" t="s">
-        <v>447</v>
-      </c>
-      <c r="C171" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
+        <v>447</v>
+      </c>
+      <c r="B172" t="s">
+        <v>448</v>
+      </c>
+      <c r="C172" t="s">
         <v>449</v>
-      </c>
-      <c r="B172" t="s">
-        <v>450</v>
-      </c>
-      <c r="C172" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
+        <v>450</v>
+      </c>
+      <c r="B173" t="s">
+        <v>451</v>
+      </c>
+      <c r="C173" t="s">
         <v>452</v>
-      </c>
-      <c r="B173" t="s">
-        <v>453</v>
-      </c>
-      <c r="C173" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
+        <v>453</v>
+      </c>
+      <c r="B174" t="s">
+        <v>454</v>
+      </c>
+      <c r="C174" t="s">
         <v>455</v>
-      </c>
-      <c r="B174" t="s">
-        <v>456</v>
-      </c>
-      <c r="C174" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
+        <v>456</v>
+      </c>
+      <c r="B175" t="s">
+        <v>457</v>
+      </c>
+      <c r="C175" t="s">
         <v>458</v>
-      </c>
-      <c r="B175" t="s">
-        <v>459</v>
-      </c>
-      <c r="C175" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
+        <v>459</v>
+      </c>
+      <c r="B176" t="s">
+        <v>460</v>
+      </c>
+      <c r="C176" t="s">
         <v>461</v>
-      </c>
-      <c r="B176" t="s">
-        <v>462</v>
-      </c>
-      <c r="C176" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
+        <v>462</v>
+      </c>
+      <c r="B177" t="s">
+        <v>463</v>
+      </c>
+      <c r="C177" t="s">
         <v>464</v>
-      </c>
-      <c r="B177" t="s">
-        <v>465</v>
-      </c>
-      <c r="C177" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
+        <v>465</v>
+      </c>
+      <c r="B178" t="s">
+        <v>466</v>
+      </c>
+      <c r="C178" t="s">
         <v>467</v>
-      </c>
-      <c r="B178" t="s">
-        <v>468</v>
-      </c>
-      <c r="C178" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
+        <v>468</v>
+      </c>
+      <c r="B179" t="s">
+        <v>469</v>
+      </c>
+      <c r="C179" t="s">
         <v>470</v>
-      </c>
-      <c r="B179" t="s">
-        <v>471</v>
-      </c>
-      <c r="C179" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
+        <v>471</v>
+      </c>
+      <c r="B180" t="s">
+        <v>472</v>
+      </c>
+      <c r="C180" t="s">
         <v>473</v>
-      </c>
-      <c r="B180" t="s">
-        <v>474</v>
-      </c>
-      <c r="C180" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
+        <v>474</v>
+      </c>
+      <c r="B181" t="s">
+        <v>475</v>
+      </c>
+      <c r="C181" t="s">
         <v>476</v>
-      </c>
-      <c r="B181" t="s">
-        <v>477</v>
-      </c>
-      <c r="C181" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
+        <v>477</v>
+      </c>
+      <c r="B182" t="s">
+        <v>478</v>
+      </c>
+      <c r="C182" t="s">
         <v>479</v>
-      </c>
-      <c r="B182" t="s">
-        <v>480</v>
-      </c>
-      <c r="C182" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
+        <v>480</v>
+      </c>
+      <c r="B183" t="s">
+        <v>481</v>
+      </c>
+      <c r="C183" t="s">
         <v>482</v>
-      </c>
-      <c r="B183" t="s">
-        <v>483</v>
-      </c>
-      <c r="C183" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
+        <v>483</v>
+      </c>
+      <c r="B184" t="s">
+        <v>484</v>
+      </c>
+      <c r="C184" t="s">
         <v>485</v>
-      </c>
-      <c r="B184" t="s">
-        <v>486</v>
-      </c>
-      <c r="C184" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
+        <v>486</v>
+      </c>
+      <c r="B185" t="s">
+        <v>487</v>
+      </c>
+      <c r="C185" t="s">
         <v>488</v>
       </c>
-      <c r="B185" t="s">
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
         <v>489</v>
       </c>
-      <c r="C185" t="s">
+      <c r="B186" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+      <c r="C186" t="s">
         <v>491</v>
       </c>
     </row>
@@ -4766,56 +4811,56 @@
         <v>496</v>
       </c>
       <c r="C188" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B189" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C189" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B190" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C190" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>503</v>
-      </c>
-      <c r="B191" t="s">
         <v>504</v>
       </c>
-      <c r="C191" t="s">
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+      <c r="B192" t="s">
         <v>506</v>
+      </c>
+      <c r="C192" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B193" t="s">
+        <v>509</v>
+      </c>
+      <c r="C193" t="s">
         <v>508</v>
-      </c>
-      <c r="C193" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4851,349 +4896,343 @@
         <v>518</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:1">
       <c r="A197" t="s">
         <v>519</v>
       </c>
-      <c r="B197" t="s">
-        <v>68</v>
-      </c>
-      <c r="C197" t="s">
-        <v>520</v>
-      </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
+        <v>520</v>
+      </c>
+      <c r="B198" t="s">
         <v>521</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>522</v>
-      </c>
-      <c r="C198" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>29</v>
+        <v>523</v>
       </c>
       <c r="B199" t="s">
-        <v>30</v>
+        <v>524</v>
       </c>
       <c r="C199" t="s">
-        <v>31</v>
+        <v>525</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>32</v>
+        <v>526</v>
       </c>
       <c r="B200" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C200" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B201" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C201" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B202" t="s">
-        <v>530</v>
+        <v>82</v>
       </c>
       <c r="C202" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B203" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C203" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>534</v>
+        <v>29</v>
       </c>
       <c r="B204" t="s">
-        <v>535</v>
+        <v>30</v>
       </c>
       <c r="C204" t="s">
-        <v>534</v>
+        <v>31</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>536</v>
+        <v>32</v>
       </c>
       <c r="B205" t="s">
         <v>537</v>
       </c>
       <c r="C205" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B206" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C206" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B207" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C207" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B208" t="s">
+        <v>546</v>
+      </c>
+      <c r="C208" t="s">
         <v>545</v>
       </c>
-      <c r="C208" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>547</v>
       </c>
+      <c r="B209" t="s">
+        <v>548</v>
+      </c>
+      <c r="C209" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B210" t="s">
+        <v>550</v>
+      </c>
+      <c r="C210" t="s">
         <v>549</v>
       </c>
-      <c r="C210" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>551</v>
       </c>
+      <c r="B211" t="s">
+        <v>552</v>
+      </c>
+      <c r="C211" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B212" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C212" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B213" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C213" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>558</v>
-      </c>
-      <c r="B214" t="s">
-        <v>143</v>
-      </c>
-      <c r="C214" t="s">
-        <v>144</v>
+        <v>560</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="B215" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C215" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B217" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C217" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B218" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C218" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>29</v>
+        <v>571</v>
       </c>
       <c r="B219" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C219" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>32</v>
+        <v>551</v>
       </c>
       <c r="B220" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C220" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>569</v>
-      </c>
-      <c r="B221" t="s">
-        <v>570</v>
-      </c>
-      <c r="C221" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B222" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C222" t="s">
-        <v>171</v>
+        <v>576</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B223" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C223" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>577</v>
+        <v>29</v>
       </c>
       <c r="B224" t="s">
-        <v>578</v>
+        <v>30</v>
       </c>
       <c r="C224" t="s">
-        <v>579</v>
+        <v>31</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
+        <v>32</v>
+      </c>
+      <c r="B225" t="s">
         <v>580</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>581</v>
-      </c>
-      <c r="C225" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
+        <v>582</v>
+      </c>
+      <c r="B226" t="s">
         <v>583</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>584</v>
-      </c>
-      <c r="C226" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
+        <v>585</v>
+      </c>
+      <c r="B227" t="s">
         <v>586</v>
       </c>
-      <c r="B227" t="s">
-        <v>587</v>
-      </c>
       <c r="C227" t="s">
-        <v>588</v>
+        <v>184</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
+        <v>587</v>
+      </c>
+      <c r="B228" t="s">
+        <v>588</v>
+      </c>
+      <c r="C228" t="s">
         <v>589</v>
-      </c>
-      <c r="B228" t="s">
-        <v>590</v>
-      </c>
-      <c r="C228" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="B229" t="s">
+        <v>591</v>
+      </c>
+      <c r="C229" t="s">
         <v>592</v>
-      </c>
-      <c r="C229" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -5242,103 +5281,103 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
+        <v>554</v>
+      </c>
+      <c r="B234" t="s">
         <v>605</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
         <v>606</v>
       </c>
-      <c r="C234" t="s">
+      <c r="B235" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
+      <c r="C235" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>11</v>
+        <v>609</v>
       </c>
       <c r="B236" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="C236" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B237" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C237" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B238" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C238" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B239" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C239" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>619</v>
-      </c>
-      <c r="B240" t="s">
-        <v>620</v>
-      </c>
-      <c r="C240" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>621</v>
+        <v>11</v>
       </c>
       <c r="B241" t="s">
+        <v>591</v>
+      </c>
+      <c r="C241" t="s">
         <v>622</v>
-      </c>
-      <c r="C241" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
+        <v>623</v>
+      </c>
+      <c r="B242" t="s">
         <v>624</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
         <v>625</v>
-      </c>
-      <c r="C242" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
+        <v>626</v>
+      </c>
+      <c r="B243" t="s">
         <v>627</v>
-      </c>
-      <c r="B243" t="s">
-        <v>86</v>
       </c>
       <c r="C243" t="s">
         <v>628</v>
@@ -5363,33 +5402,39 @@
         <v>633</v>
       </c>
       <c r="C245" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
+        <v>634</v>
+      </c>
+      <c r="B246" t="s">
         <v>635</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>636</v>
-      </c>
-      <c r="C246" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
+        <v>637</v>
+      </c>
+      <c r="B247" t="s">
         <v>638</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>639</v>
       </c>
-      <c r="C247" t="s">
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
+      <c r="B248" t="s">
+        <v>99</v>
+      </c>
+      <c r="C248" t="s">
         <v>641</v>
       </c>
     </row>
@@ -5404,194 +5449,194 @@
         <v>644</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>645</v>
       </c>
+      <c r="B250" t="s">
+        <v>646</v>
+      </c>
+      <c r="C250" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B251" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C251" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B252" t="s">
-        <v>140</v>
+        <v>652</v>
       </c>
       <c r="C252" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>650</v>
-      </c>
-      <c r="B253" t="s">
-        <v>651</v>
-      </c>
-      <c r="C253" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B254" t="s">
-        <v>62</v>
+        <v>656</v>
       </c>
       <c r="C254" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>653</v>
-      </c>
-      <c r="B255" t="s">
-        <v>654</v>
-      </c>
-      <c r="C255" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B256" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C256" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B257" t="s">
-        <v>659</v>
+        <v>153</v>
       </c>
       <c r="C257" t="s">
-        <v>660</v>
+        <v>154</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B258" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C258" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>664</v>
+        <v>665</v>
+      </c>
+      <c r="B259" t="s">
+        <v>76</v>
+      </c>
+      <c r="C259" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>11</v>
+        <v>666</v>
       </c>
       <c r="B260" t="s">
-        <v>146</v>
+        <v>667</v>
       </c>
       <c r="C260" t="s">
-        <v>147</v>
+        <v>668</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B261" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C261" t="s">
-        <v>667</v>
+        <v>347</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B262" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C262" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B263" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C263" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>674</v>
-      </c>
-      <c r="B264" t="s">
-        <v>675</v>
-      </c>
-      <c r="C264" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>677</v>
+        <v>11</v>
       </c>
       <c r="B265" t="s">
-        <v>678</v>
+        <v>159</v>
       </c>
       <c r="C265" t="s">
-        <v>679</v>
+        <v>160</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
+        <v>678</v>
+      </c>
+      <c r="B266" t="s">
+        <v>679</v>
+      </c>
+      <c r="C266" t="s">
         <v>680</v>
-      </c>
-      <c r="B266" t="s">
-        <v>681</v>
-      </c>
-      <c r="C266" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
+        <v>681</v>
+      </c>
+      <c r="B267" t="s">
+        <v>682</v>
+      </c>
+      <c r="C267" t="s">
         <v>683</v>
       </c>
-      <c r="B267" t="s">
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
         <v>684</v>
       </c>
-      <c r="C267" t="s">
+      <c r="B268" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
+      <c r="C268" t="s">
         <v>686</v>
       </c>
     </row>
@@ -5606,41 +5651,41 @@
         <v>689</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>690</v>
       </c>
+      <c r="B270" t="s">
+        <v>691</v>
+      </c>
+      <c r="C270" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B271" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C271" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B272" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C272" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>697</v>
-      </c>
-      <c r="B273" t="s">
-        <v>698</v>
-      </c>
-      <c r="C273" t="s">
         <v>699</v>
       </c>
     </row>
@@ -5655,64 +5700,64 @@
         <v>702</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:1">
       <c r="A275" t="s">
         <v>703</v>
       </c>
-      <c r="B275" t="s">
-        <v>704</v>
-      </c>
-      <c r="C275" t="s">
-        <v>334</v>
-      </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
+        <v>704</v>
+      </c>
+      <c r="B276" t="s">
         <v>705</v>
       </c>
-      <c r="B276" t="s">
+      <c r="C276" t="s">
         <v>706</v>
-      </c>
-      <c r="C276" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
+        <v>707</v>
+      </c>
+      <c r="B277" t="s">
         <v>708</v>
       </c>
-      <c r="B277" t="s">
+      <c r="C277" t="s">
         <v>709</v>
       </c>
-      <c r="C277" t="s">
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
+      <c r="B278" t="s">
         <v>711</v>
+      </c>
+      <c r="C278" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B279" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C279" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B280" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C280" t="s">
-        <v>717</v>
+        <v>347</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5726,73 +5771,73 @@
         <v>720</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="283" spans="1:3">
+      <c r="B282" t="s">
+        <v>722</v>
+      </c>
+      <c r="C282" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>722</v>
-      </c>
-      <c r="B283" t="s">
-        <v>723</v>
-      </c>
-      <c r="C283" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>725</v>
       </c>
+      <c r="B284" t="s">
+        <v>726</v>
+      </c>
+      <c r="C284" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B285" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C285" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B286" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C286" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B288" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C288" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>736</v>
-      </c>
-      <c r="B289" t="s">
-        <v>737</v>
-      </c>
-      <c r="C289" t="s">
         <v>738</v>
       </c>
     </row>
@@ -5818,114 +5863,108 @@
         <v>744</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:1">
       <c r="A292" t="s">
         <v>745</v>
       </c>
-      <c r="B292" t="s">
-        <v>746</v>
-      </c>
-      <c r="C292" t="s">
-        <v>747</v>
-      </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
+        <v>746</v>
+      </c>
+      <c r="B293" t="s">
+        <v>747</v>
+      </c>
+      <c r="C293" t="s">
         <v>748</v>
-      </c>
-      <c r="B293" t="s">
-        <v>749</v>
-      </c>
-      <c r="C293" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
+        <v>749</v>
+      </c>
+      <c r="B294" t="s">
+        <v>750</v>
+      </c>
+      <c r="C294" t="s">
         <v>751</v>
-      </c>
-      <c r="B294" t="s">
-        <v>752</v>
-      </c>
-      <c r="C294" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
+        <v>752</v>
+      </c>
+      <c r="B295" t="s">
+        <v>753</v>
+      </c>
+      <c r="C295" t="s">
         <v>754</v>
-      </c>
-      <c r="B295" t="s">
-        <v>755</v>
-      </c>
-      <c r="C295" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
+        <v>755</v>
+      </c>
+      <c r="B296" t="s">
+        <v>756</v>
+      </c>
+      <c r="C296" t="s">
         <v>757</v>
-      </c>
-      <c r="B296" t="s">
-        <v>758</v>
-      </c>
-      <c r="C296" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
+        <v>758</v>
+      </c>
+      <c r="B297" t="s">
+        <v>759</v>
+      </c>
+      <c r="C297" t="s">
         <v>760</v>
-      </c>
-      <c r="B297" t="s">
-        <v>761</v>
-      </c>
-      <c r="C297" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
+        <v>761</v>
+      </c>
+      <c r="B298" t="s">
+        <v>762</v>
+      </c>
+      <c r="C298" t="s">
         <v>763</v>
-      </c>
-      <c r="B298" t="s">
-        <v>764</v>
-      </c>
-      <c r="C298" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
+        <v>764</v>
+      </c>
+      <c r="B299" t="s">
+        <v>765</v>
+      </c>
+      <c r="C299" t="s">
         <v>766</v>
-      </c>
-      <c r="B299" t="s">
-        <v>767</v>
-      </c>
-      <c r="C299" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
+        <v>767</v>
+      </c>
+      <c r="B300" t="s">
         <v>768</v>
       </c>
-      <c r="B300" t="s">
+      <c r="C300" t="s">
         <v>769</v>
-      </c>
-      <c r="C300" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
+        <v>770</v>
+      </c>
+      <c r="B301" t="s">
         <v>771</v>
       </c>
-      <c r="B301" t="s">
+      <c r="C301" t="s">
         <v>772</v>
-      </c>
-      <c r="C301" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5958,69 +5997,124 @@
         <v>780</v>
       </c>
       <c r="C304" t="s">
-        <v>781</v>
+        <v>467</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
+        <v>781</v>
+      </c>
+      <c r="B305" t="s">
         <v>782</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
         <v>783</v>
-      </c>
-      <c r="C305" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
+        <v>784</v>
+      </c>
+      <c r="B306" t="s">
         <v>785</v>
       </c>
-      <c r="B306" t="s">
-        <v>786</v>
-      </c>
       <c r="C306" t="s">
-        <v>787</v>
+        <v>331</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
+        <v>786</v>
+      </c>
+      <c r="B307" t="s">
+        <v>787</v>
+      </c>
+      <c r="C307" t="s">
         <v>788</v>
-      </c>
-      <c r="B307" t="s">
-        <v>789</v>
-      </c>
-      <c r="C307" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
+        <v>789</v>
+      </c>
+      <c r="B308" t="s">
+        <v>790</v>
+      </c>
+      <c r="C308" t="s">
         <v>791</v>
-      </c>
-      <c r="B308" t="s">
-        <v>792</v>
-      </c>
-      <c r="C308" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
+        <v>792</v>
+      </c>
+      <c r="B309" t="s">
+        <v>793</v>
+      </c>
+      <c r="C309" t="s">
         <v>794</v>
       </c>
-      <c r="B309" t="s">
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
         <v>795</v>
       </c>
-      <c r="C309" t="s">
+      <c r="B310" t="s">
         <v>796</v>
+      </c>
+      <c r="C310" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>798</v>
+      </c>
+      <c r="B311" t="s">
+        <v>799</v>
+      </c>
+      <c r="C311" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>801</v>
+      </c>
+      <c r="B312" t="s">
+        <v>802</v>
+      </c>
+      <c r="C312" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>804</v>
+      </c>
+      <c r="B313" t="s">
+        <v>805</v>
+      </c>
+      <c r="C313" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>807</v>
+      </c>
+      <c r="B314" t="s">
+        <v>808</v>
+      </c>
+      <c r="C314" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1677838549" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1678871772" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6029,14 +6123,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1677838549" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1677838549" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1678871772" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1678871772" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1677838549" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1678871772" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
